--- a/NQQ_47.xlsx
+++ b/NQQ_47.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">quarter</t>
   </si>
@@ -379,6 +379,9 @@
   <si>
     <t xml:space="preserve">2021Q3</t>
   </si>
+  <si>
+    <t xml:space="preserve">2021Q4</t>
+  </si>
 </sst>
 </file>
 
@@ -5126,41 +5129,41 @@
         <v>118</v>
       </c>
       <c r="B106" t="n">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="C106" t="n">
-        <v>42390</v>
+        <v>44742</v>
       </c>
       <c r="D106" t="n">
-        <v>40910</v>
+        <v>43415</v>
       </c>
       <c r="E106" t="n">
         <v>1245</v>
       </c>
       <c r="F106" t="n">
-        <v>7344</v>
+        <v>7386</v>
       </c>
       <c r="G106" t="n">
-        <v>15259</v>
+        <v>15376</v>
       </c>
       <c r="H106" t="n">
-        <v>3458</v>
+        <v>3506</v>
       </c>
       <c r="I106" t="n">
         <v>5059</v>
       </c>
       <c r="J106" t="n">
-        <v>8567</v>
+        <v>8635</v>
       </c>
       <c r="K106" t="n">
-        <v>8562</v>
+        <v>8611</v>
       </c>
       <c r="L106" t="n">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>95832</v>
+        <v>96871</v>
       </c>
     </row>
     <row r="107">
@@ -5168,41 +5171,41 @@
         <v>119</v>
       </c>
       <c r="B107" t="n">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="C107" t="n">
-        <v>44718</v>
+        <v>44491</v>
       </c>
       <c r="D107" t="n">
-        <v>43219</v>
+        <v>43076</v>
       </c>
       <c r="E107" t="n">
-        <v>1515</v>
+        <v>1528</v>
       </c>
       <c r="F107" t="n">
-        <v>7520</v>
+        <v>7504</v>
       </c>
       <c r="G107" t="n">
-        <v>15948</v>
+        <v>15946</v>
       </c>
       <c r="H107" t="n">
-        <v>3648</v>
+        <v>3650</v>
       </c>
       <c r="I107" t="n">
-        <v>5135</v>
+        <v>5116</v>
       </c>
       <c r="J107" t="n">
-        <v>9085</v>
+        <v>9123</v>
       </c>
       <c r="K107" t="n">
-        <v>9208</v>
+        <v>9247</v>
       </c>
       <c r="L107" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>100390</v>
+        <v>100340</v>
       </c>
     </row>
     <row r="108">
@@ -5210,41 +5213,83 @@
         <v>120</v>
       </c>
       <c r="B108" t="n">
-        <v>987</v>
+        <v>943</v>
       </c>
       <c r="C108" t="n">
-        <v>51319</v>
+        <v>51136</v>
       </c>
       <c r="D108" t="n">
-        <v>49893</v>
+        <v>49751</v>
       </c>
       <c r="E108" t="n">
-        <v>1952</v>
+        <v>1980</v>
       </c>
       <c r="F108" t="n">
-        <v>8715</v>
+        <v>8689</v>
       </c>
       <c r="G108" t="n">
-        <v>18733</v>
+        <v>18896</v>
       </c>
       <c r="H108" t="n">
-        <v>3805</v>
+        <v>3788</v>
       </c>
       <c r="I108" t="n">
-        <v>5142</v>
+        <v>5123</v>
       </c>
       <c r="J108" t="n">
-        <v>9503</v>
+        <v>9498</v>
       </c>
       <c r="K108" t="n">
-        <v>9158</v>
+        <v>9169</v>
       </c>
       <c r="L108" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>108203</v>
+        <v>108031</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="n">
+        <v>568</v>
+      </c>
+      <c r="C109" t="n">
+        <v>40425</v>
+      </c>
+      <c r="D109" t="n">
+        <v>38907</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2450</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8853</v>
+      </c>
+      <c r="G109" t="n">
+        <v>16604</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4091</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5264</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9767</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9512</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1035</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>99049</v>
       </c>
     </row>
   </sheetData>
@@ -5337,14 +5382,14 @@
         <v>1505</v>
       </c>
       <c r="K2" t="n">
-        <v>4740</v>
+        <v>4739</v>
       </c>
       <c r="L2" t="n">
         <v>513</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>22106</v>
+        <v>22107</v>
       </c>
     </row>
     <row r="3">
@@ -5370,7 +5415,7 @@
         <v>1008</v>
       </c>
       <c r="H3" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I3" t="n">
         <v>2788</v>
@@ -5379,14 +5424,14 @@
         <v>1538</v>
       </c>
       <c r="K3" t="n">
-        <v>4776</v>
+        <v>4778</v>
       </c>
       <c r="L3" t="n">
         <v>522</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
-        <v>22184</v>
+        <v>22185</v>
       </c>
     </row>
     <row r="4">
@@ -5412,7 +5457,7 @@
         <v>1055</v>
       </c>
       <c r="H4" t="n">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="I4" t="n">
         <v>2826</v>
@@ -5421,14 +5466,14 @@
         <v>1539</v>
       </c>
       <c r="K4" t="n">
-        <v>4825</v>
+        <v>4826</v>
       </c>
       <c r="L4" t="n">
         <v>506</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>22611</v>
+        <v>22630</v>
       </c>
     </row>
     <row r="5">
@@ -5463,14 +5508,14 @@
         <v>1546</v>
       </c>
       <c r="K5" t="n">
-        <v>4749</v>
+        <v>4746</v>
       </c>
       <c r="L5" t="n">
         <v>496</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>22444</v>
+        <v>22423</v>
       </c>
     </row>
     <row r="6">
@@ -5496,7 +5541,7 @@
         <v>986</v>
       </c>
       <c r="H6" t="n">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="I6" t="n">
         <v>2933</v>
@@ -5538,7 +5583,7 @@
         <v>1051</v>
       </c>
       <c r="H7" t="n">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="I7" t="n">
         <v>2901</v>
@@ -5547,14 +5592,14 @@
         <v>1573</v>
       </c>
       <c r="K7" t="n">
-        <v>4976</v>
+        <v>4978</v>
       </c>
       <c r="L7" t="n">
         <v>506</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>23995</v>
+        <v>23996</v>
       </c>
     </row>
     <row r="8">
@@ -5580,7 +5625,7 @@
         <v>1070</v>
       </c>
       <c r="H8" t="n">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="I8" t="n">
         <v>3009</v>
@@ -5589,14 +5634,14 @@
         <v>1625</v>
       </c>
       <c r="K8" t="n">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="L8" t="n">
         <v>527</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>23863</v>
+        <v>23881</v>
       </c>
     </row>
     <row r="9">
@@ -5622,7 +5667,7 @@
         <v>1144</v>
       </c>
       <c r="H9" t="n">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="I9" t="n">
         <v>3049</v>
@@ -5631,14 +5676,14 @@
         <v>1705</v>
       </c>
       <c r="K9" t="n">
-        <v>4841</v>
+        <v>4835</v>
       </c>
       <c r="L9" t="n">
         <v>538</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>23781</v>
+        <v>23758</v>
       </c>
     </row>
     <row r="10">
@@ -5664,7 +5709,7 @@
         <v>1220</v>
       </c>
       <c r="H10" t="n">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="I10" t="n">
         <v>3020</v>
@@ -5673,14 +5718,14 @@
         <v>1772</v>
       </c>
       <c r="K10" t="n">
-        <v>5008</v>
+        <v>5009</v>
       </c>
       <c r="L10" t="n">
         <v>568</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>25364</v>
+        <v>25367</v>
       </c>
     </row>
     <row r="11">
@@ -5706,7 +5751,7 @@
         <v>1193</v>
       </c>
       <c r="H11" t="n">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="I11" t="n">
         <v>3104</v>
@@ -5715,7 +5760,7 @@
         <v>1882</v>
       </c>
       <c r="K11" t="n">
-        <v>5001</v>
+        <v>5003</v>
       </c>
       <c r="L11" t="n">
         <v>589</v>
@@ -5748,23 +5793,23 @@
         <v>1268</v>
       </c>
       <c r="H12" t="n">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="I12" t="n">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="J12" t="n">
         <v>1986</v>
       </c>
       <c r="K12" t="n">
-        <v>4919</v>
+        <v>4922</v>
       </c>
       <c r="L12" t="n">
         <v>574</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>26515</v>
+        <v>26534</v>
       </c>
     </row>
     <row r="13">
@@ -5790,7 +5835,7 @@
         <v>1346</v>
       </c>
       <c r="H13" t="n">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="I13" t="n">
         <v>3219</v>
@@ -5799,14 +5844,14 @@
         <v>2044</v>
       </c>
       <c r="K13" t="n">
-        <v>4835</v>
+        <v>4827</v>
       </c>
       <c r="L13" t="n">
         <v>576</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>26810</v>
+        <v>26786</v>
       </c>
     </row>
     <row r="14">
@@ -5832,7 +5877,7 @@
         <v>1409</v>
       </c>
       <c r="H14" t="n">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="I14" t="n">
         <v>3326</v>
@@ -5841,14 +5886,14 @@
         <v>2146</v>
       </c>
       <c r="K14" t="n">
-        <v>4947</v>
+        <v>4950</v>
       </c>
       <c r="L14" t="n">
         <v>549</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>27835</v>
+        <v>27837</v>
       </c>
     </row>
     <row r="15">
@@ -5874,7 +5919,7 @@
         <v>1519</v>
       </c>
       <c r="H15" t="n">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="I15" t="n">
         <v>3458</v>
@@ -5883,14 +5928,14 @@
         <v>2166</v>
       </c>
       <c r="K15" t="n">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="L15" t="n">
         <v>555</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
-        <v>28402</v>
+        <v>28404</v>
       </c>
     </row>
     <row r="16">
@@ -5916,7 +5961,7 @@
         <v>1448</v>
       </c>
       <c r="H16" t="n">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="I16" t="n">
         <v>3492</v>
@@ -5925,14 +5970,14 @@
         <v>2254</v>
       </c>
       <c r="K16" t="n">
-        <v>5099</v>
+        <v>5101</v>
       </c>
       <c r="L16" t="n">
         <v>573</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>29296</v>
+        <v>29314</v>
       </c>
     </row>
     <row r="17">
@@ -5958,7 +6003,7 @@
         <v>1491</v>
       </c>
       <c r="H17" t="n">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="I17" t="n">
         <v>3572</v>
@@ -5967,14 +6012,14 @@
         <v>2311</v>
       </c>
       <c r="K17" t="n">
-        <v>5111</v>
+        <v>5102</v>
       </c>
       <c r="L17" t="n">
         <v>600</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>28186</v>
+        <v>28164</v>
       </c>
     </row>
     <row r="18">
@@ -6009,14 +6054,14 @@
         <v>2346</v>
       </c>
       <c r="K18" t="n">
-        <v>5115</v>
+        <v>5119</v>
       </c>
       <c r="L18" t="n">
         <v>602</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
-        <v>30314</v>
+        <v>30317</v>
       </c>
     </row>
     <row r="19">
@@ -6042,7 +6087,7 @@
         <v>1605</v>
       </c>
       <c r="H19" t="n">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="I19" t="n">
         <v>3671</v>
@@ -6051,14 +6096,14 @@
         <v>2445</v>
       </c>
       <c r="K19" t="n">
-        <v>5235</v>
+        <v>5237</v>
       </c>
       <c r="L19" t="n">
         <v>618</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>30349</v>
+        <v>30350</v>
       </c>
     </row>
     <row r="20">
@@ -6084,7 +6129,7 @@
         <v>1697</v>
       </c>
       <c r="H20" t="n">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="I20" t="n">
         <v>3720</v>
@@ -6093,14 +6138,14 @@
         <v>2405</v>
       </c>
       <c r="K20" t="n">
-        <v>5336</v>
+        <v>5338</v>
       </c>
       <c r="L20" t="n">
         <v>614</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>31738</v>
+        <v>31758</v>
       </c>
     </row>
     <row r="21">
@@ -6126,7 +6171,7 @@
         <v>1817</v>
       </c>
       <c r="H21" t="n">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="I21" t="n">
         <v>3810</v>
@@ -6135,14 +6180,14 @@
         <v>2487</v>
       </c>
       <c r="K21" t="n">
-        <v>5384</v>
+        <v>5375</v>
       </c>
       <c r="L21" t="n">
         <v>607</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
-        <v>31979</v>
+        <v>31954</v>
       </c>
     </row>
     <row r="22">
@@ -6168,7 +6213,7 @@
         <v>1626</v>
       </c>
       <c r="H22" t="n">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="I22" t="n">
         <v>3848</v>
@@ -6177,14 +6222,14 @@
         <v>2572</v>
       </c>
       <c r="K22" t="n">
-        <v>5362</v>
+        <v>5368</v>
       </c>
       <c r="L22" t="n">
         <v>608</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>32462</v>
+        <v>32467</v>
       </c>
     </row>
     <row r="23">
@@ -6207,10 +6252,10 @@
         <v>6495</v>
       </c>
       <c r="G23" t="n">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H23" t="n">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="I23" t="n">
         <v>3905</v>
@@ -6219,14 +6264,14 @@
         <v>2575</v>
       </c>
       <c r="K23" t="n">
-        <v>5408</v>
+        <v>5409</v>
       </c>
       <c r="L23" t="n">
         <v>602</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>33653</v>
+        <v>33654</v>
       </c>
     </row>
     <row r="24">
@@ -6252,23 +6297,23 @@
         <v>1704</v>
       </c>
       <c r="H24" t="n">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="I24" t="n">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="J24" t="n">
         <v>2749</v>
       </c>
       <c r="K24" t="n">
-        <v>5501</v>
+        <v>5503</v>
       </c>
       <c r="L24" t="n">
         <v>608</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
-        <v>33986</v>
+        <v>34004</v>
       </c>
     </row>
     <row r="25">
@@ -6303,14 +6348,14 @@
         <v>2915</v>
       </c>
       <c r="K25" t="n">
-        <v>5732</v>
+        <v>5723</v>
       </c>
       <c r="L25" t="n">
         <v>615</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>34631</v>
+        <v>34607</v>
       </c>
     </row>
     <row r="26">
@@ -6336,7 +6381,7 @@
         <v>1818</v>
       </c>
       <c r="H26" t="n">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="I26" t="n">
         <v>3994</v>
@@ -6345,14 +6390,14 @@
         <v>2877</v>
       </c>
       <c r="K26" t="n">
-        <v>5426</v>
+        <v>5433</v>
       </c>
       <c r="L26" t="n">
         <v>641</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>35336</v>
+        <v>35341</v>
       </c>
     </row>
     <row r="27">
@@ -6378,7 +6423,7 @@
         <v>1650</v>
       </c>
       <c r="H27" t="n">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="I27" t="n">
         <v>4129</v>
@@ -6387,7 +6432,7 @@
         <v>3086</v>
       </c>
       <c r="K27" t="n">
-        <v>5633</v>
+        <v>5634</v>
       </c>
       <c r="L27" t="n">
         <v>633</v>
@@ -6429,14 +6474,14 @@
         <v>3167</v>
       </c>
       <c r="K28" t="n">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="L28" t="n">
         <v>655</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>35793</v>
+        <v>35811</v>
       </c>
     </row>
     <row r="29">
@@ -6459,10 +6504,10 @@
         <v>6488</v>
       </c>
       <c r="G29" t="n">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H29" t="n">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="I29" t="n">
         <v>4202</v>
@@ -6471,14 +6516,14 @@
         <v>3169</v>
       </c>
       <c r="K29" t="n">
-        <v>5800</v>
+        <v>5792</v>
       </c>
       <c r="L29" t="n">
         <v>642</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
-        <v>36327</v>
+        <v>36304</v>
       </c>
     </row>
     <row r="30">
@@ -6504,7 +6549,7 @@
         <v>1875</v>
       </c>
       <c r="H30" t="n">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="I30" t="n">
         <v>4232</v>
@@ -6513,14 +6558,14 @@
         <v>3163</v>
       </c>
       <c r="K30" t="n">
-        <v>5768</v>
+        <v>5773</v>
       </c>
       <c r="L30" t="n">
         <v>658</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>37447</v>
+        <v>37451</v>
       </c>
     </row>
     <row r="31">
@@ -6546,7 +6591,7 @@
         <v>1899</v>
       </c>
       <c r="H31" t="n">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="I31" t="n">
         <v>4273</v>
@@ -6555,7 +6600,7 @@
         <v>3221</v>
       </c>
       <c r="K31" t="n">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="L31" t="n">
         <v>710</v>
@@ -6585,26 +6630,26 @@
         <v>6456</v>
       </c>
       <c r="G32" t="n">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H32" t="n">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="I32" t="n">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="J32" t="n">
         <v>3142</v>
       </c>
       <c r="K32" t="n">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="L32" t="n">
         <v>665</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>38407</v>
+        <v>38425</v>
       </c>
     </row>
     <row r="33">
@@ -6630,7 +6675,7 @@
         <v>2037</v>
       </c>
       <c r="H33" t="n">
-        <v>4249</v>
+        <v>4244</v>
       </c>
       <c r="I33" t="n">
         <v>4510</v>
@@ -6639,14 +6684,14 @@
         <v>3068</v>
       </c>
       <c r="K33" t="n">
-        <v>5914</v>
+        <v>5909</v>
       </c>
       <c r="L33" t="n">
         <v>690</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>38820</v>
+        <v>38795</v>
       </c>
     </row>
     <row r="34">
@@ -6681,14 +6726,14 @@
         <v>3156</v>
       </c>
       <c r="K34" t="n">
-        <v>5938</v>
+        <v>5941</v>
       </c>
       <c r="L34" t="n">
         <v>680</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>38533</v>
+        <v>38536</v>
       </c>
     </row>
     <row r="35">
@@ -6714,7 +6759,7 @@
         <v>1776</v>
       </c>
       <c r="H35" t="n">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="I35" t="n">
         <v>4685</v>
@@ -6723,14 +6768,14 @@
         <v>3119</v>
       </c>
       <c r="K35" t="n">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="L35" t="n">
         <v>674</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>38803</v>
+        <v>38804</v>
       </c>
     </row>
     <row r="36">
@@ -6765,14 +6810,14 @@
         <v>3122</v>
       </c>
       <c r="K36" t="n">
-        <v>5993</v>
+        <v>5994</v>
       </c>
       <c r="L36" t="n">
         <v>684</v>
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>38913</v>
+        <v>38932</v>
       </c>
     </row>
     <row r="37">
@@ -6795,10 +6840,10 @@
         <v>6635</v>
       </c>
       <c r="G37" t="n">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H37" t="n">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="I37" t="n">
         <v>5123</v>
@@ -6807,14 +6852,14 @@
         <v>3128</v>
       </c>
       <c r="K37" t="n">
-        <v>5985</v>
+        <v>5982</v>
       </c>
       <c r="L37" t="n">
         <v>701</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>41039</v>
+        <v>41018</v>
       </c>
     </row>
     <row r="38">
@@ -6840,7 +6885,7 @@
         <v>1987</v>
       </c>
       <c r="H38" t="n">
-        <v>4644</v>
+        <v>4641</v>
       </c>
       <c r="I38" t="n">
         <v>4887</v>
@@ -6882,7 +6927,7 @@
         <v>2048</v>
       </c>
       <c r="H39" t="n">
-        <v>4719</v>
+        <v>4720</v>
       </c>
       <c r="I39" t="n">
         <v>4924</v>
@@ -6891,14 +6936,14 @@
         <v>3229</v>
       </c>
       <c r="K39" t="n">
-        <v>6182</v>
+        <v>6184</v>
       </c>
       <c r="L39" t="n">
         <v>717</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>41768</v>
+        <v>41770</v>
       </c>
     </row>
     <row r="40">
@@ -6924,23 +6969,23 @@
         <v>2082</v>
       </c>
       <c r="H40" t="n">
-        <v>4784</v>
+        <v>4787</v>
       </c>
       <c r="I40" t="n">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="J40" t="n">
         <v>3404</v>
       </c>
       <c r="K40" t="n">
-        <v>6232</v>
+        <v>6233</v>
       </c>
       <c r="L40" t="n">
         <v>736</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>41414</v>
+        <v>41434</v>
       </c>
     </row>
     <row r="41">
@@ -6966,7 +7011,7 @@
         <v>2183</v>
       </c>
       <c r="H41" t="n">
-        <v>4918</v>
+        <v>4915</v>
       </c>
       <c r="I41" t="n">
         <v>4989</v>
@@ -6975,14 +7020,14 @@
         <v>3680</v>
       </c>
       <c r="K41" t="n">
-        <v>6314</v>
+        <v>6312</v>
       </c>
       <c r="L41" t="n">
         <v>749</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
-        <v>42453</v>
+        <v>42431</v>
       </c>
     </row>
     <row r="42">
@@ -7017,14 +7062,14 @@
         <v>3868</v>
       </c>
       <c r="K42" t="n">
-        <v>6410</v>
+        <v>6409</v>
       </c>
       <c r="L42" t="n">
         <v>730</v>
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>42990</v>
+        <v>42991</v>
       </c>
     </row>
     <row r="43">
@@ -7050,7 +7095,7 @@
         <v>2340</v>
       </c>
       <c r="H43" t="n">
-        <v>4898</v>
+        <v>4895</v>
       </c>
       <c r="I43" t="n">
         <v>4950</v>
@@ -7059,14 +7104,14 @@
         <v>4133</v>
       </c>
       <c r="K43" t="n">
-        <v>6452</v>
+        <v>6454</v>
       </c>
       <c r="L43" t="n">
         <v>738</v>
       </c>
       <c r="M43"/>
       <c r="N43" t="n">
-        <v>43714</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="44">
@@ -7089,10 +7134,10 @@
         <v>7038</v>
       </c>
       <c r="G44" t="n">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="H44" t="n">
-        <v>4892</v>
+        <v>4890</v>
       </c>
       <c r="I44" t="n">
         <v>5101</v>
@@ -7101,14 +7146,14 @@
         <v>4139</v>
       </c>
       <c r="K44" t="n">
-        <v>6466</v>
+        <v>6467</v>
       </c>
       <c r="L44" t="n">
         <v>767</v>
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>43020</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="45">
@@ -7134,7 +7179,7 @@
         <v>2373</v>
       </c>
       <c r="H45" t="n">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="I45" t="n">
         <v>5527</v>
@@ -7143,14 +7188,14 @@
         <v>3940</v>
       </c>
       <c r="K45" t="n">
-        <v>6564</v>
+        <v>6563</v>
       </c>
       <c r="L45" t="n">
         <v>786</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>44958</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="46">
@@ -7173,7 +7218,7 @@
         <v>7336</v>
       </c>
       <c r="G46" t="n">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="H46" t="n">
         <v>5463</v>
@@ -7192,7 +7237,7 @@
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
-        <v>45128</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="47">
@@ -7218,7 +7263,7 @@
         <v>2420</v>
       </c>
       <c r="H47" t="n">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="I47" t="n">
         <v>5543</v>
@@ -7227,7 +7272,7 @@
         <v>3466</v>
       </c>
       <c r="K47" t="n">
-        <v>6742</v>
+        <v>6743</v>
       </c>
       <c r="L47" t="n">
         <v>852</v>
@@ -7260,7 +7305,7 @@
         <v>2788</v>
       </c>
       <c r="H48" t="n">
-        <v>5453</v>
+        <v>5451</v>
       </c>
       <c r="I48" t="n">
         <v>5723</v>
@@ -7269,14 +7314,14 @@
         <v>3402</v>
       </c>
       <c r="K48" t="n">
-        <v>6886</v>
+        <v>6885</v>
       </c>
       <c r="L48" t="n">
         <v>841</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="49">
@@ -7302,23 +7347,23 @@
         <v>2856</v>
       </c>
       <c r="H49" t="n">
-        <v>5582</v>
+        <v>5583</v>
       </c>
       <c r="I49" t="n">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="J49" t="n">
         <v>3567</v>
       </c>
       <c r="K49" t="n">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="L49" t="n">
         <v>881</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>45960</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="50">
@@ -7344,7 +7389,7 @@
         <v>3237</v>
       </c>
       <c r="H50" t="n">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="I50" t="n">
         <v>5600</v>
@@ -7353,14 +7398,14 @@
         <v>4017</v>
       </c>
       <c r="K50" t="n">
-        <v>7137</v>
+        <v>7138</v>
       </c>
       <c r="L50" t="n">
         <v>861</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>48850</v>
+        <v>48853</v>
       </c>
     </row>
     <row r="51">
@@ -7395,14 +7440,14 @@
         <v>4412</v>
       </c>
       <c r="K51" t="n">
-        <v>7148</v>
+        <v>7150</v>
       </c>
       <c r="L51" t="n">
         <v>848</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>48104</v>
+        <v>48103</v>
       </c>
     </row>
     <row r="52">
@@ -7428,23 +7473,23 @@
         <v>2726</v>
       </c>
       <c r="H52" t="n">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="I52" t="n">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="J52" t="n">
         <v>4666</v>
       </c>
       <c r="K52" t="n">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="L52" t="n">
         <v>898</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>47279</v>
+        <v>47296</v>
       </c>
     </row>
     <row r="53">
@@ -7470,23 +7515,23 @@
         <v>3093</v>
       </c>
       <c r="H53" t="n">
-        <v>5526</v>
+        <v>5528</v>
       </c>
       <c r="I53" t="n">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="J53" t="n">
         <v>4731</v>
       </c>
       <c r="K53" t="n">
-        <v>7256</v>
+        <v>7254</v>
       </c>
       <c r="L53" t="n">
         <v>857</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>49504</v>
+        <v>49488</v>
       </c>
     </row>
     <row r="54">
@@ -7512,7 +7557,7 @@
         <v>3251</v>
       </c>
       <c r="H54" t="n">
-        <v>5846</v>
+        <v>5850</v>
       </c>
       <c r="I54" t="n">
         <v>5348</v>
@@ -7521,14 +7566,14 @@
         <v>4659</v>
       </c>
       <c r="K54" t="n">
-        <v>7261</v>
+        <v>7263</v>
       </c>
       <c r="L54" t="n">
         <v>872</v>
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>48340</v>
+        <v>48343</v>
       </c>
     </row>
     <row r="55">
@@ -7554,7 +7599,7 @@
         <v>3424</v>
       </c>
       <c r="H55" t="n">
-        <v>5718</v>
+        <v>5713</v>
       </c>
       <c r="I55" t="n">
         <v>5152</v>
@@ -7563,14 +7608,14 @@
         <v>4634</v>
       </c>
       <c r="K55" t="n">
-        <v>7383</v>
+        <v>7384</v>
       </c>
       <c r="L55" t="n">
         <v>888</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>47357</v>
+        <v>47353</v>
       </c>
     </row>
     <row r="56">
@@ -7605,14 +7650,14 @@
         <v>4634</v>
       </c>
       <c r="K56" t="n">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="L56" t="n">
         <v>860</v>
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
-        <v>47127</v>
+        <v>47146</v>
       </c>
     </row>
     <row r="57">
@@ -7638,7 +7683,7 @@
         <v>3630</v>
       </c>
       <c r="H57" t="n">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="I57" t="n">
         <v>4714</v>
@@ -7647,14 +7692,14 @@
         <v>4542</v>
       </c>
       <c r="K57" t="n">
-        <v>7556</v>
+        <v>7553</v>
       </c>
       <c r="L57" t="n">
         <v>809</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
-        <v>45518</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="58">
@@ -7680,7 +7725,7 @@
         <v>3524</v>
       </c>
       <c r="H58" t="n">
-        <v>5541</v>
+        <v>5537</v>
       </c>
       <c r="I58" t="n">
         <v>4708</v>
@@ -7689,14 +7734,14 @@
         <v>4349</v>
       </c>
       <c r="K58" t="n">
-        <v>7334</v>
+        <v>7337</v>
       </c>
       <c r="L58" t="n">
         <v>848</v>
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
-        <v>46089</v>
+        <v>46086</v>
       </c>
     </row>
     <row r="59">
@@ -7710,7 +7755,7 @@
         <v>13211</v>
       </c>
       <c r="D59" t="n">
-        <v>12081</v>
+        <v>12080</v>
       </c>
       <c r="E59" t="n">
         <v>2050</v>
@@ -7722,7 +7767,7 @@
         <v>3685</v>
       </c>
       <c r="H59" t="n">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="I59" t="n">
         <v>4590</v>
@@ -7731,14 +7776,14 @@
         <v>4333</v>
       </c>
       <c r="K59" t="n">
-        <v>7351</v>
+        <v>7352</v>
       </c>
       <c r="L59" t="n">
         <v>852</v>
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
-        <v>45653</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="60">
@@ -7764,7 +7809,7 @@
         <v>3798</v>
       </c>
       <c r="H60" t="n">
-        <v>5693</v>
+        <v>5690</v>
       </c>
       <c r="I60" t="n">
         <v>4575</v>
@@ -7780,7 +7825,7 @@
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="61">
@@ -7806,7 +7851,7 @@
         <v>3754</v>
       </c>
       <c r="H61" t="n">
-        <v>5038</v>
+        <v>5046</v>
       </c>
       <c r="I61" t="n">
         <v>4551</v>
@@ -7815,14 +7860,14 @@
         <v>4361</v>
       </c>
       <c r="K61" t="n">
-        <v>7348</v>
+        <v>7345</v>
       </c>
       <c r="L61" t="n">
         <v>827</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="62">
@@ -7848,7 +7893,7 @@
         <v>3808</v>
       </c>
       <c r="H62" t="n">
-        <v>5917</v>
+        <v>5916</v>
       </c>
       <c r="I62" t="n">
         <v>4407</v>
@@ -7857,14 +7902,14 @@
         <v>4441</v>
       </c>
       <c r="K62" t="n">
-        <v>7359</v>
+        <v>7361</v>
       </c>
       <c r="L62" t="n">
         <v>812</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="63">
@@ -7890,7 +7935,7 @@
         <v>3801</v>
       </c>
       <c r="H63" t="n">
-        <v>6136</v>
+        <v>6134</v>
       </c>
       <c r="I63" t="n">
         <v>4375</v>
@@ -7906,7 +7951,7 @@
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>45769</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="64">
@@ -7920,7 +7965,7 @@
         <v>13371</v>
       </c>
       <c r="D64" t="n">
-        <v>12102</v>
+        <v>12103</v>
       </c>
       <c r="E64" t="n">
         <v>1438</v>
@@ -7932,7 +7977,7 @@
         <v>4278</v>
       </c>
       <c r="H64" t="n">
-        <v>5724</v>
+        <v>5728</v>
       </c>
       <c r="I64" t="n">
         <v>4383</v>
@@ -7948,7 +7993,7 @@
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>45935</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="65">
@@ -7971,10 +8016,10 @@
         <v>6856</v>
       </c>
       <c r="G65" t="n">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="H65" t="n">
-        <v>5601</v>
+        <v>5599</v>
       </c>
       <c r="I65" t="n">
         <v>4308</v>
@@ -7983,14 +8028,14 @@
         <v>4947</v>
       </c>
       <c r="K65" t="n">
-        <v>7371</v>
+        <v>7369</v>
       </c>
       <c r="L65" t="n">
         <v>817</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>45882</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="66">
@@ -8016,7 +8061,7 @@
         <v>3981</v>
       </c>
       <c r="H66" t="n">
-        <v>5423</v>
+        <v>5421</v>
       </c>
       <c r="I66" t="n">
         <v>4417</v>
@@ -8025,14 +8070,14 @@
         <v>4670</v>
       </c>
       <c r="K66" t="n">
-        <v>7584</v>
+        <v>7585</v>
       </c>
       <c r="L66" t="n">
         <v>798</v>
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>46329</v>
+        <v>46308</v>
       </c>
     </row>
     <row r="67">
@@ -8052,13 +8097,13 @@
         <v>1276</v>
       </c>
       <c r="F67" t="n">
-        <v>7025</v>
+        <v>7026</v>
       </c>
       <c r="G67" t="n">
         <v>4089</v>
       </c>
       <c r="H67" t="n">
-        <v>5580</v>
+        <v>5578</v>
       </c>
       <c r="I67" t="n">
         <v>4384</v>
@@ -8074,7 +8119,7 @@
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>47156</v>
+        <v>47186</v>
       </c>
     </row>
     <row r="68">
@@ -8088,7 +8133,7 @@
         <v>13789</v>
       </c>
       <c r="D68" t="n">
-        <v>12578</v>
+        <v>12579</v>
       </c>
       <c r="E68" t="n">
         <v>1217</v>
@@ -8100,7 +8145,7 @@
         <v>4029</v>
       </c>
       <c r="H68" t="n">
-        <v>5471</v>
+        <v>5469</v>
       </c>
       <c r="I68" t="n">
         <v>4376</v>
@@ -8116,7 +8161,7 @@
       </c>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>46292</v>
+        <v>46321</v>
       </c>
     </row>
     <row r="69">
@@ -8130,7 +8175,7 @@
         <v>14088</v>
       </c>
       <c r="D69" t="n">
-        <v>12884</v>
+        <v>12886</v>
       </c>
       <c r="E69" t="n">
         <v>1156</v>
@@ -8139,10 +8184,10 @@
         <v>6888</v>
       </c>
       <c r="G69" t="n">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="H69" t="n">
-        <v>5672</v>
+        <v>5674</v>
       </c>
       <c r="I69" t="n">
         <v>4328</v>
@@ -8151,14 +8196,14 @@
         <v>4834</v>
       </c>
       <c r="K69" t="n">
-        <v>7483</v>
+        <v>7482</v>
       </c>
       <c r="L69" t="n">
         <v>780</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>46280</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="70">
@@ -8169,10 +8214,10 @@
         <v>555</v>
       </c>
       <c r="C70" t="n">
-        <v>13778</v>
+        <v>13777</v>
       </c>
       <c r="D70" t="n">
-        <v>12488</v>
+        <v>12485</v>
       </c>
       <c r="E70" t="n">
         <v>1198</v>
@@ -8181,10 +8226,10 @@
         <v>6792</v>
       </c>
       <c r="G70" t="n">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="H70" t="n">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="I70" t="n">
         <v>4465</v>
@@ -8193,14 +8238,14 @@
         <v>4667</v>
       </c>
       <c r="K70" t="n">
-        <v>7456</v>
+        <v>7457</v>
       </c>
       <c r="L70" t="n">
         <v>791</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>46005</v>
+        <v>46021</v>
       </c>
     </row>
     <row r="71">
@@ -8211,22 +8256,22 @@
         <v>515</v>
       </c>
       <c r="C71" t="n">
-        <v>13493</v>
+        <v>13492</v>
       </c>
       <c r="D71" t="n">
-        <v>12461</v>
+        <v>12460</v>
       </c>
       <c r="E71" t="n">
         <v>1195</v>
       </c>
       <c r="F71" t="n">
-        <v>6862</v>
+        <v>6863</v>
       </c>
       <c r="G71" t="n">
         <v>4023</v>
       </c>
       <c r="H71" t="n">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="I71" t="n">
         <v>4477</v>
@@ -8242,7 +8287,7 @@
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>47042</v>
+        <v>47094</v>
       </c>
     </row>
     <row r="72">
@@ -8256,7 +8301,7 @@
         <v>13410</v>
       </c>
       <c r="D72" t="n">
-        <v>12416</v>
+        <v>12417</v>
       </c>
       <c r="E72" t="n">
         <v>1196</v>
@@ -8268,7 +8313,7 @@
         <v>3867</v>
       </c>
       <c r="H72" t="n">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="I72" t="n">
         <v>4487</v>
@@ -8277,14 +8322,14 @@
         <v>4687</v>
       </c>
       <c r="K72" t="n">
-        <v>7505</v>
+        <v>7504</v>
       </c>
       <c r="L72" t="n">
         <v>810</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>45926</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="73">
@@ -8295,22 +8340,22 @@
         <v>316</v>
       </c>
       <c r="C73" t="n">
-        <v>12856</v>
+        <v>12858</v>
       </c>
       <c r="D73" t="n">
-        <v>11495</v>
+        <v>11498</v>
       </c>
       <c r="E73" t="n">
         <v>1275</v>
       </c>
       <c r="F73" t="n">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="G73" t="n">
         <v>4188</v>
       </c>
       <c r="H73" t="n">
-        <v>4638</v>
+        <v>4640</v>
       </c>
       <c r="I73" t="n">
         <v>4532</v>
@@ -8326,7 +8371,7 @@
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>46714</v>
+        <v>46532</v>
       </c>
     </row>
     <row r="74">
@@ -8337,10 +8382,10 @@
         <v>326</v>
       </c>
       <c r="C74" t="n">
-        <v>12980</v>
+        <v>12979</v>
       </c>
       <c r="D74" t="n">
-        <v>11746</v>
+        <v>11741</v>
       </c>
       <c r="E74" t="n">
         <v>1235</v>
@@ -8352,7 +8397,7 @@
         <v>4260</v>
       </c>
       <c r="H74" t="n">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="I74" t="n">
         <v>4551</v>
@@ -8361,14 +8406,14 @@
         <v>5028</v>
       </c>
       <c r="K74" t="n">
-        <v>7509</v>
+        <v>7510</v>
       </c>
       <c r="L74" t="n">
         <v>792</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>45509</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="75">
@@ -8379,22 +8424,22 @@
         <v>364</v>
       </c>
       <c r="C75" t="n">
-        <v>12970</v>
+        <v>12969</v>
       </c>
       <c r="D75" t="n">
-        <v>11892</v>
+        <v>11891</v>
       </c>
       <c r="E75" t="n">
         <v>1293</v>
       </c>
       <c r="F75" t="n">
-        <v>6933</v>
+        <v>6934</v>
       </c>
       <c r="G75" t="n">
         <v>4598</v>
       </c>
       <c r="H75" t="n">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="I75" t="n">
         <v>4602</v>
@@ -8410,7 +8455,7 @@
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>47062</v>
+        <v>47128</v>
       </c>
     </row>
     <row r="76">
@@ -8421,16 +8466,16 @@
         <v>583</v>
       </c>
       <c r="C76" t="n">
-        <v>13026</v>
+        <v>13027</v>
       </c>
       <c r="D76" t="n">
-        <v>11748</v>
+        <v>11753</v>
       </c>
       <c r="E76" t="n">
         <v>1378</v>
       </c>
       <c r="F76" t="n">
-        <v>7050</v>
+        <v>7052</v>
       </c>
       <c r="G76" t="n">
         <v>4516</v>
@@ -8445,14 +8490,14 @@
         <v>5181</v>
       </c>
       <c r="K76" t="n">
-        <v>7588</v>
+        <v>7587</v>
       </c>
       <c r="L76" t="n">
         <v>793</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
-        <v>47793</v>
+        <v>47854</v>
       </c>
     </row>
     <row r="77">
@@ -8463,22 +8508,22 @@
         <v>517</v>
       </c>
       <c r="C77" t="n">
-        <v>12848</v>
+        <v>12851</v>
       </c>
       <c r="D77" t="n">
-        <v>11451</v>
+        <v>11456</v>
       </c>
       <c r="E77" t="n">
         <v>1414</v>
       </c>
       <c r="F77" t="n">
-        <v>7234</v>
+        <v>7230</v>
       </c>
       <c r="G77" t="n">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="H77" t="n">
-        <v>4217</v>
+        <v>4212</v>
       </c>
       <c r="I77" t="n">
         <v>4685</v>
@@ -8494,7 +8539,7 @@
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
-        <v>47912</v>
+        <v>47635</v>
       </c>
     </row>
     <row r="78">
@@ -8505,38 +8550,38 @@
         <v>473</v>
       </c>
       <c r="C78" t="n">
-        <v>13823</v>
+        <v>13822</v>
       </c>
       <c r="D78" t="n">
-        <v>12475</v>
+        <v>12466</v>
       </c>
       <c r="E78" t="n">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F78" t="n">
-        <v>7201</v>
+        <v>7202</v>
       </c>
       <c r="G78" t="n">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="H78" t="n">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="I78" t="n">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="J78" t="n">
         <v>5636</v>
       </c>
       <c r="K78" t="n">
-        <v>7599</v>
+        <v>7601</v>
       </c>
       <c r="L78" t="n">
         <v>812</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>49397</v>
+        <v>49557</v>
       </c>
     </row>
     <row r="79">
@@ -8547,16 +8592,16 @@
         <v>581</v>
       </c>
       <c r="C79" t="n">
-        <v>14985</v>
+        <v>14982</v>
       </c>
       <c r="D79" t="n">
-        <v>13867</v>
+        <v>13865</v>
       </c>
       <c r="E79" t="n">
         <v>1445</v>
       </c>
       <c r="F79" t="n">
-        <v>7405</v>
+        <v>7407</v>
       </c>
       <c r="G79" t="n">
         <v>5363</v>
@@ -8571,14 +8616,14 @@
         <v>5763</v>
       </c>
       <c r="K79" t="n">
-        <v>7620</v>
+        <v>7619</v>
       </c>
       <c r="L79" t="n">
         <v>842</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>51337</v>
+        <v>51404</v>
       </c>
     </row>
     <row r="80">
@@ -8589,22 +8634,22 @@
         <v>610</v>
       </c>
       <c r="C80" t="n">
-        <v>14485</v>
+        <v>14486</v>
       </c>
       <c r="D80" t="n">
-        <v>12944</v>
+        <v>12954</v>
       </c>
       <c r="E80" t="n">
         <v>1448</v>
       </c>
       <c r="F80" t="n">
-        <v>7428</v>
+        <v>7430</v>
       </c>
       <c r="G80" t="n">
         <v>5261</v>
       </c>
       <c r="H80" t="n">
-        <v>4594</v>
+        <v>4596</v>
       </c>
       <c r="I80" t="n">
         <v>4840</v>
@@ -8613,14 +8658,14 @@
         <v>5941</v>
       </c>
       <c r="K80" t="n">
-        <v>7641</v>
+        <v>7640</v>
       </c>
       <c r="L80" t="n">
         <v>845</v>
       </c>
       <c r="M80"/>
       <c r="N80" t="n">
-        <v>51634</v>
+        <v>51669</v>
       </c>
     </row>
     <row r="81">
@@ -8631,22 +8676,22 @@
         <v>621</v>
       </c>
       <c r="C81" t="n">
-        <v>13799</v>
+        <v>13804</v>
       </c>
       <c r="D81" t="n">
-        <v>12399</v>
+        <v>12408</v>
       </c>
       <c r="E81" t="n">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F81" t="n">
-        <v>7597</v>
+        <v>7590</v>
       </c>
       <c r="G81" t="n">
         <v>5270</v>
       </c>
       <c r="H81" t="n">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="I81" t="n">
         <v>4888</v>
@@ -8662,7 +8707,7 @@
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>51462</v>
+        <v>51201</v>
       </c>
     </row>
     <row r="82">
@@ -8673,38 +8718,38 @@
         <v>554</v>
       </c>
       <c r="C82" t="n">
-        <v>27557</v>
+        <v>27552</v>
       </c>
       <c r="D82" t="n">
-        <v>26353</v>
+        <v>26303</v>
       </c>
       <c r="E82" t="n">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F82" t="n">
-        <v>7750</v>
+        <v>7753</v>
       </c>
       <c r="G82" t="n">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="H82" t="n">
-        <v>4919</v>
+        <v>4914</v>
       </c>
       <c r="I82" t="n">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="J82" t="n">
         <v>6288</v>
       </c>
       <c r="K82" t="n">
-        <v>7768</v>
+        <v>7770</v>
       </c>
       <c r="L82" t="n">
         <v>892</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
-        <v>64833</v>
+        <v>64999</v>
       </c>
     </row>
     <row r="83">
@@ -8715,38 +8760,38 @@
         <v>554</v>
       </c>
       <c r="C83" t="n">
-        <v>24058</v>
+        <v>24050</v>
       </c>
       <c r="D83" t="n">
-        <v>22863</v>
+        <v>22870</v>
       </c>
       <c r="E83" t="n">
         <v>1523</v>
       </c>
       <c r="F83" t="n">
-        <v>7778</v>
+        <v>7782</v>
       </c>
       <c r="G83" t="n">
-        <v>5893</v>
+        <v>5892</v>
       </c>
       <c r="H83" t="n">
         <v>4901</v>
       </c>
       <c r="I83" t="n">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="J83" t="n">
         <v>6485</v>
       </c>
       <c r="K83" t="n">
-        <v>7807</v>
+        <v>7805</v>
       </c>
       <c r="L83" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>63074</v>
+        <v>63134</v>
       </c>
     </row>
     <row r="84">
@@ -8757,16 +8802,16 @@
         <v>636</v>
       </c>
       <c r="C84" t="n">
-        <v>25286</v>
+        <v>25292</v>
       </c>
       <c r="D84" t="n">
-        <v>24255</v>
+        <v>24285</v>
       </c>
       <c r="E84" t="n">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F84" t="n">
-        <v>8019</v>
+        <v>8022</v>
       </c>
       <c r="G84" t="n">
         <v>6097</v>
@@ -8788,7 +8833,7 @@
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>64937</v>
+        <v>64916</v>
       </c>
     </row>
     <row r="85">
@@ -8799,25 +8844,25 @@
         <v>685</v>
       </c>
       <c r="C85" t="n">
-        <v>25803</v>
+        <v>25814</v>
       </c>
       <c r="D85" t="n">
-        <v>25029</v>
+        <v>25059</v>
       </c>
       <c r="E85" t="n">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F85" t="n">
-        <v>8106</v>
+        <v>8092</v>
       </c>
       <c r="G85" t="n">
-        <v>5923</v>
+        <v>5925</v>
       </c>
       <c r="H85" t="n">
-        <v>4800</v>
+        <v>4805</v>
       </c>
       <c r="I85" t="n">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="J85" t="n">
         <v>6642</v>
@@ -8830,7 +8875,7 @@
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
-        <v>65979</v>
+        <v>65828</v>
       </c>
     </row>
     <row r="86">
@@ -8841,38 +8886,38 @@
         <v>673</v>
       </c>
       <c r="C86" t="n">
-        <v>25021</v>
+        <v>25016</v>
       </c>
       <c r="D86" t="n">
-        <v>23648</v>
+        <v>23569</v>
       </c>
       <c r="E86" t="n">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="F86" t="n">
-        <v>8412</v>
+        <v>8422</v>
       </c>
       <c r="G86" t="n">
         <v>6060</v>
       </c>
       <c r="H86" t="n">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="I86" t="n">
-        <v>4838</v>
+        <v>4840</v>
       </c>
       <c r="J86" t="n">
         <v>6789</v>
       </c>
       <c r="K86" t="n">
-        <v>7976</v>
+        <v>7978</v>
       </c>
       <c r="L86" t="n">
         <v>981</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>63574</v>
+        <v>63699</v>
       </c>
     </row>
     <row r="87">
@@ -8883,38 +8928,38 @@
         <v>686</v>
       </c>
       <c r="C87" t="n">
-        <v>24079</v>
+        <v>24058</v>
       </c>
       <c r="D87" t="n">
-        <v>22667</v>
+        <v>22684</v>
       </c>
       <c r="E87" t="n">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="F87" t="n">
-        <v>8358</v>
+        <v>8361</v>
       </c>
       <c r="G87" t="n">
-        <v>6049</v>
+        <v>6047</v>
       </c>
       <c r="H87" t="n">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="I87" t="n">
-        <v>4898</v>
+        <v>4896</v>
       </c>
       <c r="J87" t="n">
         <v>6816</v>
       </c>
       <c r="K87" t="n">
-        <v>8001</v>
+        <v>8000</v>
       </c>
       <c r="L87" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>64532</v>
+        <v>64559</v>
       </c>
     </row>
     <row r="88">
@@ -8922,28 +8967,28 @@
         <v>100</v>
       </c>
       <c r="B88" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C88" t="n">
-        <v>21764</v>
+        <v>21781</v>
       </c>
       <c r="D88" t="n">
-        <v>20742</v>
+        <v>20781</v>
       </c>
       <c r="E88" t="n">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="F88" t="n">
-        <v>8509</v>
+        <v>8511</v>
       </c>
       <c r="G88" t="n">
-        <v>6902</v>
+        <v>6901</v>
       </c>
       <c r="H88" t="n">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="I88" t="n">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="J88" t="n">
         <v>6957</v>
@@ -8952,11 +8997,11 @@
         <v>7979</v>
       </c>
       <c r="L88" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>63982</v>
+        <v>63923</v>
       </c>
     </row>
     <row r="89">
@@ -8967,38 +9012,38 @@
         <v>660</v>
       </c>
       <c r="C89" t="n">
-        <v>29865</v>
+        <v>29891</v>
       </c>
       <c r="D89" t="n">
-        <v>29444</v>
+        <v>29490</v>
       </c>
       <c r="E89" t="n">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="F89" t="n">
-        <v>8393</v>
+        <v>8376</v>
       </c>
       <c r="G89" t="n">
-        <v>7109</v>
+        <v>7112</v>
       </c>
       <c r="H89" t="n">
         <v>4174</v>
       </c>
       <c r="I89" t="n">
-        <v>4880</v>
+        <v>4883</v>
       </c>
       <c r="J89" t="n">
-        <v>6930</v>
+        <v>6931</v>
       </c>
       <c r="K89" t="n">
         <v>8036</v>
       </c>
       <c r="L89" t="n">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>72047</v>
+        <v>72020</v>
       </c>
     </row>
     <row r="90">
@@ -9009,38 +9054,38 @@
         <v>700</v>
       </c>
       <c r="C90" t="n">
-        <v>25420</v>
+        <v>25397</v>
       </c>
       <c r="D90" t="n">
-        <v>23690</v>
+        <v>23580</v>
       </c>
       <c r="E90" t="n">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="F90" t="n">
-        <v>8740</v>
+        <v>8755</v>
       </c>
       <c r="G90" t="n">
-        <v>7409</v>
+        <v>7414</v>
       </c>
       <c r="H90" t="n">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="I90" t="n">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="J90" t="n">
         <v>7772</v>
       </c>
       <c r="K90" t="n">
-        <v>8189</v>
+        <v>8188</v>
       </c>
       <c r="L90" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
-        <v>68405</v>
+        <v>68466</v>
       </c>
     </row>
     <row r="91">
@@ -9048,41 +9093,41 @@
         <v>103</v>
       </c>
       <c r="B91" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C91" t="n">
-        <v>24623</v>
+        <v>24584</v>
       </c>
       <c r="D91" t="n">
-        <v>23044</v>
+        <v>23063</v>
       </c>
       <c r="E91" t="n">
         <v>1771</v>
       </c>
       <c r="F91" t="n">
-        <v>8696</v>
+        <v>8698</v>
       </c>
       <c r="G91" t="n">
-        <v>7471</v>
+        <v>7458</v>
       </c>
       <c r="H91" t="n">
-        <v>3889</v>
+        <v>3893</v>
       </c>
       <c r="I91" t="n">
-        <v>4971</v>
+        <v>4969</v>
       </c>
       <c r="J91" t="n">
-        <v>7845</v>
+        <v>7844</v>
       </c>
       <c r="K91" t="n">
-        <v>8266</v>
+        <v>8267</v>
       </c>
       <c r="L91" t="n">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>71082</v>
+        <v>71063</v>
       </c>
     </row>
     <row r="92">
@@ -9093,38 +9138,38 @@
         <v>734</v>
       </c>
       <c r="C92" t="n">
-        <v>26499</v>
+        <v>26522</v>
       </c>
       <c r="D92" t="n">
-        <v>25561</v>
+        <v>25626</v>
       </c>
       <c r="E92" t="n">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="F92" t="n">
-        <v>8808</v>
+        <v>8812</v>
       </c>
       <c r="G92" t="n">
-        <v>8630</v>
+        <v>8637</v>
       </c>
       <c r="H92" t="n">
-        <v>3922</v>
+        <v>3924</v>
       </c>
       <c r="I92" t="n">
-        <v>4985</v>
+        <v>4982</v>
       </c>
       <c r="J92" t="n">
         <v>8082</v>
       </c>
       <c r="K92" t="n">
-        <v>8334</v>
+        <v>8333</v>
       </c>
       <c r="L92" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>73049</v>
+        <v>72984</v>
       </c>
     </row>
     <row r="93">
@@ -9132,41 +9177,41 @@
         <v>105</v>
       </c>
       <c r="B93" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C93" t="n">
-        <v>28376</v>
+        <v>28502</v>
       </c>
       <c r="D93" t="n">
-        <v>28028</v>
+        <v>28110</v>
       </c>
       <c r="E93" t="n">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="F93" t="n">
-        <v>8916</v>
+        <v>8890</v>
       </c>
       <c r="G93" t="n">
-        <v>10057</v>
+        <v>10060</v>
       </c>
       <c r="H93" t="n">
-        <v>3885</v>
+        <v>3887</v>
       </c>
       <c r="I93" t="n">
-        <v>4965</v>
+        <v>4971</v>
       </c>
       <c r="J93" t="n">
-        <v>8089</v>
+        <v>8093</v>
       </c>
       <c r="K93" t="n">
         <v>8368</v>
       </c>
       <c r="L93" t="n">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>76981</v>
+        <v>77086</v>
       </c>
     </row>
     <row r="94">
@@ -9177,38 +9222,38 @@
         <v>650</v>
       </c>
       <c r="C94" t="n">
-        <v>28271</v>
+        <v>28120</v>
       </c>
       <c r="D94" t="n">
-        <v>26308</v>
+        <v>26124</v>
       </c>
       <c r="E94" t="n">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="F94" t="n">
-        <v>9013</v>
+        <v>9034</v>
       </c>
       <c r="G94" t="n">
-        <v>10061</v>
+        <v>10066</v>
       </c>
       <c r="H94" t="n">
-        <v>4259</v>
+        <v>4247</v>
       </c>
       <c r="I94" t="n">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="J94" t="n">
         <v>8583</v>
       </c>
       <c r="K94" t="n">
-        <v>8379</v>
+        <v>8376</v>
       </c>
       <c r="L94" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>77901</v>
+        <v>77862</v>
       </c>
     </row>
     <row r="95">
@@ -9219,38 +9264,38 @@
         <v>607</v>
       </c>
       <c r="C95" t="n">
-        <v>29759</v>
+        <v>29702</v>
       </c>
       <c r="D95" t="n">
-        <v>28309</v>
+        <v>28352</v>
       </c>
       <c r="E95" t="n">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F95" t="n">
-        <v>9319</v>
+        <v>9321</v>
       </c>
       <c r="G95" t="n">
-        <v>10585</v>
+        <v>10557</v>
       </c>
       <c r="H95" t="n">
-        <v>4188</v>
+        <v>4193</v>
       </c>
       <c r="I95" t="n">
-        <v>4988</v>
+        <v>4985</v>
       </c>
       <c r="J95" t="n">
-        <v>9142</v>
+        <v>9139</v>
       </c>
       <c r="K95" t="n">
-        <v>8487</v>
+        <v>8490</v>
       </c>
       <c r="L95" t="n">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>80294</v>
+        <v>80210</v>
       </c>
     </row>
     <row r="96">
@@ -9258,41 +9303,41 @@
         <v>108</v>
       </c>
       <c r="B96" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C96" t="n">
-        <v>29503</v>
+        <v>29558</v>
       </c>
       <c r="D96" t="n">
-        <v>28598</v>
+        <v>28641</v>
       </c>
       <c r="E96" t="n">
-        <v>2024</v>
+        <v>2042</v>
       </c>
       <c r="F96" t="n">
-        <v>9363</v>
+        <v>9370</v>
       </c>
       <c r="G96" t="n">
-        <v>10906</v>
+        <v>10934</v>
       </c>
       <c r="H96" t="n">
-        <v>4135</v>
+        <v>4142</v>
       </c>
       <c r="I96" t="n">
-        <v>5005</v>
+        <v>4999</v>
       </c>
       <c r="J96" t="n">
-        <v>9336</v>
+        <v>9331</v>
       </c>
       <c r="K96" t="n">
         <v>8508</v>
       </c>
       <c r="L96" t="n">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>79012</v>
+        <v>79014</v>
       </c>
     </row>
     <row r="97">
@@ -9300,41 +9345,41 @@
         <v>109</v>
       </c>
       <c r="B97" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C97" t="n">
-        <v>28907</v>
+        <v>29216</v>
       </c>
       <c r="D97" t="n">
-        <v>28206</v>
+        <v>28395</v>
       </c>
       <c r="E97" t="n">
-        <v>1977</v>
+        <v>1963</v>
       </c>
       <c r="F97" t="n">
-        <v>9065</v>
+        <v>9034</v>
       </c>
       <c r="G97" t="n">
-        <v>10838</v>
+        <v>10819</v>
       </c>
       <c r="H97" t="n">
-        <v>4077</v>
+        <v>4081</v>
       </c>
       <c r="I97" t="n">
-        <v>5011</v>
+        <v>5024</v>
       </c>
       <c r="J97" t="n">
-        <v>9750</v>
+        <v>9762</v>
       </c>
       <c r="K97" t="n">
-        <v>8619</v>
+        <v>8618</v>
       </c>
       <c r="L97" t="n">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>80182</v>
+        <v>80377</v>
       </c>
     </row>
     <row r="98">
@@ -9345,38 +9390,38 @@
         <v>755</v>
       </c>
       <c r="C98" t="n">
-        <v>28131</v>
+        <v>27742</v>
       </c>
       <c r="D98" t="n">
-        <v>26138</v>
+        <v>25851</v>
       </c>
       <c r="E98" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="F98" t="n">
-        <v>9589</v>
+        <v>9607</v>
       </c>
       <c r="G98" t="n">
-        <v>11737</v>
+        <v>11749</v>
       </c>
       <c r="H98" t="n">
-        <v>3990</v>
+        <v>3969</v>
       </c>
       <c r="I98" t="n">
-        <v>5010</v>
+        <v>5006</v>
       </c>
       <c r="J98" t="n">
-        <v>9722</v>
+        <v>9721</v>
       </c>
       <c r="K98" t="n">
-        <v>8739</v>
+        <v>8736</v>
       </c>
       <c r="L98" t="n">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
-        <v>81740</v>
+        <v>81578</v>
       </c>
     </row>
     <row r="99">
@@ -9384,41 +9429,41 @@
         <v>111</v>
       </c>
       <c r="B99" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C99" t="n">
-        <v>29718</v>
+        <v>29655</v>
       </c>
       <c r="D99" t="n">
-        <v>28350</v>
+        <v>28442</v>
       </c>
       <c r="E99" t="n">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="F99" t="n">
-        <v>9513</v>
+        <v>9519</v>
       </c>
       <c r="G99" t="n">
-        <v>13660</v>
+        <v>13620</v>
       </c>
       <c r="H99" t="n">
-        <v>3836</v>
+        <v>3846</v>
       </c>
       <c r="I99" t="n">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="J99" t="n">
-        <v>9889</v>
+        <v>9882</v>
       </c>
       <c r="K99" t="n">
-        <v>8712</v>
+        <v>8715</v>
       </c>
       <c r="L99" t="n">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>83671</v>
+        <v>83540</v>
       </c>
     </row>
     <row r="100">
@@ -9426,41 +9471,41 @@
         <v>112</v>
       </c>
       <c r="B100" t="n">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C100" t="n">
-        <v>30796</v>
+        <v>30938</v>
       </c>
       <c r="D100" t="n">
-        <v>29827</v>
+        <v>29786</v>
       </c>
       <c r="E100" t="n">
-        <v>2232</v>
+        <v>2261</v>
       </c>
       <c r="F100" t="n">
-        <v>9341</v>
+        <v>9356</v>
       </c>
       <c r="G100" t="n">
-        <v>12935</v>
+        <v>12990</v>
       </c>
       <c r="H100" t="n">
-        <v>4081</v>
+        <v>4089</v>
       </c>
       <c r="I100" t="n">
-        <v>5136</v>
+        <v>5125</v>
       </c>
       <c r="J100" t="n">
-        <v>9700</v>
+        <v>9691</v>
       </c>
       <c r="K100" t="n">
-        <v>8820</v>
+        <v>8825</v>
       </c>
       <c r="L100" t="n">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="M100"/>
       <c r="N100" t="n">
-        <v>83376</v>
+        <v>83455</v>
       </c>
     </row>
     <row r="101">
@@ -9468,41 +9513,41 @@
         <v>113</v>
       </c>
       <c r="B101" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C101" t="n">
-        <v>30953</v>
+        <v>31518</v>
       </c>
       <c r="D101" t="n">
-        <v>29805</v>
+        <v>30191</v>
       </c>
       <c r="E101" t="n">
-        <v>2112</v>
+        <v>2078</v>
       </c>
       <c r="F101" t="n">
-        <v>9318</v>
+        <v>9274</v>
       </c>
       <c r="G101" t="n">
-        <v>13213</v>
+        <v>13164</v>
       </c>
       <c r="H101" t="n">
-        <v>4044</v>
+        <v>4041</v>
       </c>
       <c r="I101" t="n">
-        <v>5036</v>
+        <v>5057</v>
       </c>
       <c r="J101" t="n">
-        <v>9690</v>
+        <v>9710</v>
       </c>
       <c r="K101" t="n">
-        <v>8902</v>
+        <v>8892</v>
       </c>
       <c r="L101" t="n">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>84321</v>
+        <v>84653</v>
       </c>
     </row>
     <row r="102">
@@ -9510,41 +9555,41 @@
         <v>114</v>
       </c>
       <c r="B102" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C102" t="n">
-        <v>35161</v>
+        <v>34303</v>
       </c>
       <c r="D102" t="n">
-        <v>33217</v>
+        <v>32703</v>
       </c>
       <c r="E102" t="n">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="F102" t="n">
-        <v>9232</v>
+        <v>9253</v>
       </c>
       <c r="G102" t="n">
-        <v>14098</v>
+        <v>14109</v>
       </c>
       <c r="H102" t="n">
-        <v>3741</v>
+        <v>3717</v>
       </c>
       <c r="I102" t="n">
-        <v>5098</v>
+        <v>5092</v>
       </c>
       <c r="J102" t="n">
-        <v>9195</v>
+        <v>9192</v>
       </c>
       <c r="K102" t="n">
-        <v>8961</v>
+        <v>8963</v>
       </c>
       <c r="L102" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M102"/>
       <c r="N102" t="n">
-        <v>89323</v>
+        <v>88907</v>
       </c>
     </row>
     <row r="103">
@@ -9555,38 +9600,38 @@
         <v>800</v>
       </c>
       <c r="C103" t="n">
-        <v>35498</v>
+        <v>35458</v>
       </c>
       <c r="D103" t="n">
-        <v>34434</v>
+        <v>34605</v>
       </c>
       <c r="E103" t="n">
-        <v>1435</v>
+        <v>1445</v>
       </c>
       <c r="F103" t="n">
-        <v>5704</v>
+        <v>5713</v>
       </c>
       <c r="G103" t="n">
-        <v>13188</v>
+        <v>13160</v>
       </c>
       <c r="H103" t="n">
-        <v>3798</v>
+        <v>3809</v>
       </c>
       <c r="I103" t="n">
-        <v>4842</v>
+        <v>4838</v>
       </c>
       <c r="J103" t="n">
-        <v>8470</v>
+        <v>8461</v>
       </c>
       <c r="K103" t="n">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="L103" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>84903</v>
+        <v>84755</v>
       </c>
     </row>
     <row r="104">
@@ -9594,41 +9639,41 @@
         <v>116</v>
       </c>
       <c r="B104" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C104" t="n">
-        <v>36691</v>
+        <v>36961</v>
       </c>
       <c r="D104" t="n">
-        <v>35715</v>
+        <v>35531</v>
       </c>
       <c r="E104" t="n">
-        <v>1958</v>
+        <v>1997</v>
       </c>
       <c r="F104" t="n">
-        <v>7670</v>
+        <v>7694</v>
       </c>
       <c r="G104" t="n">
-        <v>17067</v>
+        <v>17159</v>
       </c>
       <c r="H104" t="n">
-        <v>3549</v>
+        <v>3558</v>
       </c>
       <c r="I104" t="n">
-        <v>4940</v>
+        <v>4925</v>
       </c>
       <c r="J104" t="n">
-        <v>8847</v>
+        <v>8835</v>
       </c>
       <c r="K104" t="n">
-        <v>8789</v>
+        <v>8804</v>
       </c>
       <c r="L104" t="n">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
-        <v>93479</v>
+        <v>93641</v>
       </c>
     </row>
     <row r="105">
@@ -9636,41 +9681,41 @@
         <v>117</v>
       </c>
       <c r="B105" t="n">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C105" t="n">
-        <v>38778</v>
+        <v>39720</v>
       </c>
       <c r="D105" t="n">
-        <v>37157</v>
+        <v>37909</v>
       </c>
       <c r="E105" t="n">
-        <v>2120</v>
+        <v>2064</v>
       </c>
       <c r="F105" t="n">
-        <v>7881</v>
+        <v>7825</v>
       </c>
       <c r="G105" t="n">
-        <v>13814</v>
+        <v>13731</v>
       </c>
       <c r="H105" t="n">
-        <v>3590</v>
+        <v>3598</v>
       </c>
       <c r="I105" t="n">
-        <v>5087</v>
+        <v>5115</v>
       </c>
       <c r="J105" t="n">
-        <v>8835</v>
+        <v>8860</v>
       </c>
       <c r="K105" t="n">
-        <v>8846</v>
+        <v>8824</v>
       </c>
       <c r="L105" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>88902</v>
+        <v>89491</v>
       </c>
     </row>
     <row r="106">
@@ -9678,41 +9723,41 @@
         <v>118</v>
       </c>
       <c r="B106" t="n">
-        <v>775</v>
+        <v>746</v>
       </c>
       <c r="C106" t="n">
-        <v>42926</v>
+        <v>43883</v>
       </c>
       <c r="D106" t="n">
-        <v>41133</v>
+        <v>42815</v>
       </c>
       <c r="E106" t="n">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="F106" t="n">
-        <v>7628</v>
+        <v>7686</v>
       </c>
       <c r="G106" t="n">
-        <v>15687</v>
+        <v>15827</v>
       </c>
       <c r="H106" t="n">
-        <v>3718</v>
+        <v>3739</v>
       </c>
       <c r="I106" t="n">
-        <v>5132</v>
+        <v>5124</v>
       </c>
       <c r="J106" t="n">
-        <v>8824</v>
+        <v>8890</v>
       </c>
       <c r="K106" t="n">
-        <v>8857</v>
+        <v>8915</v>
       </c>
       <c r="L106" t="n">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>98185</v>
+        <v>98558</v>
       </c>
     </row>
     <row r="107">
@@ -9720,41 +9765,41 @@
         <v>119</v>
       </c>
       <c r="B107" t="n">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="C107" t="n">
-        <v>45333</v>
+        <v>45064</v>
       </c>
       <c r="D107" t="n">
-        <v>43866</v>
+        <v>43977</v>
       </c>
       <c r="E107" t="n">
-        <v>1755</v>
+        <v>1784</v>
       </c>
       <c r="F107" t="n">
         <v>7898</v>
       </c>
       <c r="G107" t="n">
-        <v>16473</v>
+        <v>16443</v>
       </c>
       <c r="H107" t="n">
-        <v>3835</v>
+        <v>3848</v>
       </c>
       <c r="I107" t="n">
-        <v>5192</v>
+        <v>5168</v>
       </c>
       <c r="J107" t="n">
-        <v>9184</v>
+        <v>9209</v>
       </c>
       <c r="K107" t="n">
-        <v>9093</v>
+        <v>9125</v>
       </c>
       <c r="L107" t="n">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>103208</v>
+        <v>102957</v>
       </c>
     </row>
     <row r="108">
@@ -9762,41 +9807,83 @@
         <v>120</v>
       </c>
       <c r="B108" t="n">
-        <v>936</v>
+        <v>887</v>
       </c>
       <c r="C108" t="n">
-        <v>48707</v>
+        <v>48963</v>
       </c>
       <c r="D108" t="n">
-        <v>47847</v>
+        <v>47305</v>
       </c>
       <c r="E108" t="n">
-        <v>1844</v>
+        <v>1917</v>
       </c>
       <c r="F108" t="n">
-        <v>8297</v>
+        <v>8305</v>
       </c>
       <c r="G108" t="n">
-        <v>16438</v>
+        <v>16679</v>
       </c>
       <c r="H108" t="n">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="I108" t="n">
-        <v>5179</v>
+        <v>5141</v>
       </c>
       <c r="J108" t="n">
-        <v>9496</v>
+        <v>9474</v>
       </c>
       <c r="K108" t="n">
-        <v>9121</v>
+        <v>9160</v>
       </c>
       <c r="L108" t="n">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>104117</v>
+        <v>104145</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="n">
+        <v>753</v>
+      </c>
+      <c r="C109" t="n">
+        <v>42971</v>
+      </c>
+      <c r="D109" t="n">
+        <v>40989</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2037</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8518</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17982</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3744</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5131</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9422</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9329</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1017</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>98170</v>
       </c>
     </row>
   </sheetData>
@@ -14438,19 +14525,19 @@
         <v>118</v>
       </c>
       <c r="B106" t="n">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="C106" t="n">
-        <v>43204</v>
+        <v>40704</v>
       </c>
       <c r="D106" t="n">
-        <v>41355</v>
+        <v>39047</v>
       </c>
       <c r="E106" t="n">
         <v>1406</v>
       </c>
       <c r="F106" t="n">
-        <v>7572</v>
+        <v>7609</v>
       </c>
       <c r="G106" t="n">
         <v>15401</v>
@@ -14465,16 +14552,16 @@
         <v>8253</v>
       </c>
       <c r="K106" t="n">
-        <v>9199</v>
+        <v>9253</v>
       </c>
       <c r="L106" t="n">
         <v>879</v>
       </c>
       <c r="M106" t="n">
-        <v>-302</v>
+        <v>1056</v>
       </c>
       <c r="N106" t="n">
-        <v>95567</v>
+        <v>94556</v>
       </c>
     </row>
     <row r="107">
@@ -14482,43 +14569,43 @@
         <v>119</v>
       </c>
       <c r="B107" t="n">
-        <v>1331</v>
+        <v>1373</v>
       </c>
       <c r="C107" t="n">
         <v>37128</v>
       </c>
       <c r="D107" t="n">
-        <v>35530</v>
+        <v>35630</v>
       </c>
       <c r="E107" t="n">
         <v>1604</v>
       </c>
       <c r="F107" t="n">
-        <v>7711</v>
+        <v>7695</v>
       </c>
       <c r="G107" t="n">
-        <v>16528</v>
+        <v>16523</v>
       </c>
       <c r="H107" t="n">
         <v>3627</v>
       </c>
       <c r="I107" t="n">
-        <v>5787</v>
+        <v>5768</v>
       </c>
       <c r="J107" t="n">
         <v>8844</v>
       </c>
       <c r="K107" t="n">
-        <v>9827</v>
+        <v>9868</v>
       </c>
       <c r="L107" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M107" t="n">
-        <v>2176</v>
+        <v>2225</v>
       </c>
       <c r="N107" t="n">
-        <v>95510</v>
+        <v>95603</v>
       </c>
     </row>
     <row r="108">
@@ -14526,43 +14613,87 @@
         <v>120</v>
       </c>
       <c r="B108" t="n">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="C108" t="n">
         <v>46727</v>
       </c>
       <c r="D108" t="n">
-        <v>45172</v>
+        <v>45195</v>
       </c>
       <c r="E108" t="n">
         <v>2020</v>
       </c>
       <c r="F108" t="n">
-        <v>8850</v>
+        <v>8822</v>
       </c>
       <c r="G108" t="n">
-        <v>19487</v>
+        <v>19482</v>
       </c>
       <c r="H108" t="n">
         <v>3935</v>
       </c>
       <c r="I108" t="n">
-        <v>5991</v>
+        <v>5919</v>
       </c>
       <c r="J108" t="n">
-        <v>9524</v>
+        <v>9554</v>
       </c>
       <c r="K108" t="n">
-        <v>10128</v>
+        <v>10042</v>
       </c>
       <c r="L108" t="n">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="M108" t="n">
-        <v>-2056</v>
+        <v>-1763</v>
       </c>
       <c r="N108" t="n">
-        <v>106715</v>
+        <v>106828</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="n">
+        <v>741</v>
+      </c>
+      <c r="C109" t="n">
+        <v>37489</v>
+      </c>
+      <c r="D109" t="n">
+        <v>35957</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2471</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9045</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17413</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4128</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6094</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9648</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10205</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1087</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1701</v>
+      </c>
+      <c r="N109" t="n">
+        <v>100021</v>
       </c>
     </row>
   </sheetData>
@@ -14662,7 +14793,7 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>11875</v>
+        <v>11876</v>
       </c>
     </row>
     <row r="3">
@@ -14688,7 +14819,7 @@
         <v>813</v>
       </c>
       <c r="H3" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I3" t="n">
         <v>683</v>
@@ -14697,7 +14828,7 @@
         <v>630</v>
       </c>
       <c r="K3" t="n">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="L3" t="n">
         <v>317</v>
@@ -14721,7 +14852,7 @@
         <v>2910</v>
       </c>
       <c r="E4" t="n">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F4" t="n">
         <v>2070</v>
@@ -14739,14 +14870,14 @@
         <v>648</v>
       </c>
       <c r="K4" t="n">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="L4" t="n">
         <v>316</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>12521</v>
+        <v>12519</v>
       </c>
     </row>
     <row r="5">
@@ -14781,14 +14912,14 @@
         <v>662</v>
       </c>
       <c r="K5" t="n">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="L5" t="n">
         <v>312</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>12482</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="6">
@@ -14830,7 +14961,7 @@
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>13140</v>
+        <v>13141</v>
       </c>
     </row>
     <row r="7">
@@ -14856,7 +14987,7 @@
         <v>881</v>
       </c>
       <c r="H7" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I7" t="n">
         <v>769</v>
@@ -14865,7 +14996,7 @@
         <v>697</v>
       </c>
       <c r="K7" t="n">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="L7" t="n">
         <v>322</v>
@@ -14907,14 +15038,14 @@
         <v>733</v>
       </c>
       <c r="K8" t="n">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="L8" t="n">
         <v>339</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>13602</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="9">
@@ -14931,7 +15062,7 @@
         <v>3276</v>
       </c>
       <c r="E9" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F9" t="n">
         <v>2437</v>
@@ -14949,7 +15080,7 @@
         <v>782</v>
       </c>
       <c r="K9" t="n">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="L9" t="n">
         <v>352</v>
@@ -14998,7 +15129,7 @@
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>14402</v>
+        <v>14397</v>
       </c>
     </row>
     <row r="11">
@@ -15033,14 +15164,14 @@
         <v>843</v>
       </c>
       <c r="K11" t="n">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="L11" t="n">
         <v>383</v>
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>15257</v>
+        <v>15262</v>
       </c>
     </row>
     <row r="12">
@@ -15082,7 +15213,7 @@
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>15895</v>
+        <v>15894</v>
       </c>
     </row>
     <row r="13">
@@ -15099,7 +15230,7 @@
         <v>3963</v>
       </c>
       <c r="E13" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F13" t="n">
         <v>2983</v>
@@ -15117,14 +15248,14 @@
         <v>944</v>
       </c>
       <c r="K13" t="n">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="L13" t="n">
         <v>384</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>16619</v>
+        <v>16617</v>
       </c>
     </row>
     <row r="14">
@@ -15141,7 +15272,7 @@
         <v>4511</v>
       </c>
       <c r="E14" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F14" t="n">
         <v>3060</v>
@@ -15150,7 +15281,7 @@
         <v>1345</v>
       </c>
       <c r="H14" t="n">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="I14" t="n">
         <v>1142</v>
@@ -15159,14 +15290,14 @@
         <v>1061</v>
       </c>
       <c r="K14" t="n">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="L14" t="n">
         <v>381</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>17063</v>
+        <v>17065</v>
       </c>
     </row>
     <row r="15">
@@ -15201,7 +15332,7 @@
         <v>1084</v>
       </c>
       <c r="K15" t="n">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="L15" t="n">
         <v>391</v>
@@ -15225,7 +15356,7 @@
         <v>5167</v>
       </c>
       <c r="E16" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F16" t="n">
         <v>3252</v>
@@ -15234,7 +15365,7 @@
         <v>1425</v>
       </c>
       <c r="H16" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="I16" t="n">
         <v>1273</v>
@@ -15243,14 +15374,14 @@
         <v>1141</v>
       </c>
       <c r="K16" t="n">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="L16" t="n">
         <v>409</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>18737</v>
+        <v>18741</v>
       </c>
     </row>
     <row r="17">
@@ -15267,7 +15398,7 @@
         <v>4548</v>
       </c>
       <c r="E17" t="n">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="F17" t="n">
         <v>3331</v>
@@ -15276,7 +15407,7 @@
         <v>1464</v>
       </c>
       <c r="H17" t="n">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I17" t="n">
         <v>1335</v>
@@ -15285,14 +15416,14 @@
         <v>1187</v>
       </c>
       <c r="K17" t="n">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="L17" t="n">
         <v>436</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>18634</v>
+        <v>18629</v>
       </c>
     </row>
     <row r="18">
@@ -15309,7 +15440,7 @@
         <v>5151</v>
       </c>
       <c r="E18" t="n">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F18" t="n">
         <v>3409</v>
@@ -15334,7 +15465,7 @@
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
-        <v>19524</v>
+        <v>19522</v>
       </c>
     </row>
     <row r="19">
@@ -15360,7 +15491,7 @@
         <v>1666</v>
       </c>
       <c r="H19" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I19" t="n">
         <v>1380</v>
@@ -15376,7 +15507,7 @@
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>19647</v>
+        <v>19646</v>
       </c>
     </row>
     <row r="20">
@@ -15393,7 +15524,7 @@
         <v>5570</v>
       </c>
       <c r="E20" t="n">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F20" t="n">
         <v>3660</v>
@@ -15411,14 +15542,14 @@
         <v>1338</v>
       </c>
       <c r="K20" t="n">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="L20" t="n">
         <v>473</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>21444</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="21">
@@ -15435,7 +15566,7 @@
         <v>5965</v>
       </c>
       <c r="E21" t="n">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="F21" t="n">
         <v>3703</v>
@@ -15444,7 +15575,7 @@
         <v>1887</v>
       </c>
       <c r="H21" t="n">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="I21" t="n">
         <v>1503</v>
@@ -15453,14 +15584,14 @@
         <v>1399</v>
       </c>
       <c r="K21" t="n">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="L21" t="n">
         <v>475</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
-        <v>22168</v>
+        <v>22173</v>
       </c>
     </row>
     <row r="22">
@@ -15477,7 +15608,7 @@
         <v>5271</v>
       </c>
       <c r="E22" t="n">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="F22" t="n">
         <v>4199</v>
@@ -15502,7 +15633,7 @@
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>22755</v>
+        <v>22754</v>
       </c>
     </row>
     <row r="23">
@@ -15544,7 +15675,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>23630</v>
+        <v>23629</v>
       </c>
     </row>
     <row r="24">
@@ -15561,7 +15692,7 @@
         <v>6467</v>
       </c>
       <c r="E24" t="n">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="F24" t="n">
         <v>4293</v>
@@ -15603,7 +15734,7 @@
         <v>7233</v>
       </c>
       <c r="E25" t="n">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="F25" t="n">
         <v>4123</v>
@@ -15612,7 +15743,7 @@
         <v>2029</v>
       </c>
       <c r="H25" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="I25" t="n">
         <v>1782</v>
@@ -15621,14 +15752,14 @@
         <v>1700</v>
       </c>
       <c r="K25" t="n">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="L25" t="n">
         <v>535</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>25581</v>
+        <v>25582</v>
       </c>
     </row>
     <row r="26">
@@ -15645,7 +15776,7 @@
         <v>7836</v>
       </c>
       <c r="E26" t="n">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="F26" t="n">
         <v>4056</v>
@@ -15654,7 +15785,7 @@
         <v>2050</v>
       </c>
       <c r="H26" t="n">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="I26" t="n">
         <v>1900</v>
@@ -15670,7 +15801,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>27072</v>
+        <v>27077</v>
       </c>
     </row>
     <row r="27">
@@ -15712,7 +15843,7 @@
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>27100</v>
+        <v>27099</v>
       </c>
     </row>
     <row r="28">
@@ -15729,7 +15860,7 @@
         <v>7632</v>
       </c>
       <c r="E28" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="F28" t="n">
         <v>4115</v>
@@ -15738,7 +15869,7 @@
         <v>1988</v>
       </c>
       <c r="H28" t="n">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="I28" t="n">
         <v>2014</v>
@@ -15754,7 +15885,7 @@
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>27754</v>
+        <v>27755</v>
       </c>
     </row>
     <row r="29">
@@ -15771,7 +15902,7 @@
         <v>7733</v>
       </c>
       <c r="E29" t="n">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="F29" t="n">
         <v>4268</v>
@@ -15780,7 +15911,7 @@
         <v>1945</v>
       </c>
       <c r="H29" t="n">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="I29" t="n">
         <v>2087</v>
@@ -15789,14 +15920,14 @@
         <v>1813</v>
       </c>
       <c r="K29" t="n">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="L29" t="n">
         <v>604</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
-        <v>27722</v>
+        <v>27711</v>
       </c>
     </row>
     <row r="30">
@@ -15813,7 +15944,7 @@
         <v>8574</v>
       </c>
       <c r="E30" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F30" t="n">
         <v>4353</v>
@@ -15831,14 +15962,14 @@
         <v>1743</v>
       </c>
       <c r="K30" t="n">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="L30" t="n">
         <v>621</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>29780</v>
+        <v>29774</v>
       </c>
     </row>
     <row r="31">
@@ -15864,7 +15995,7 @@
         <v>1912</v>
       </c>
       <c r="H31" t="n">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="I31" t="n">
         <v>2275</v>
@@ -15873,14 +16004,14 @@
         <v>1782</v>
       </c>
       <c r="K31" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="L31" t="n">
         <v>680</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>29965</v>
+        <v>29975</v>
       </c>
     </row>
     <row r="32">
@@ -15897,7 +16028,7 @@
         <v>9454</v>
       </c>
       <c r="E32" t="n">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="F32" t="n">
         <v>4544</v>
@@ -15915,14 +16046,14 @@
         <v>1771</v>
       </c>
       <c r="K32" t="n">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="L32" t="n">
         <v>649</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>31384</v>
+        <v>31385</v>
       </c>
     </row>
     <row r="33">
@@ -15939,7 +16070,7 @@
         <v>9067</v>
       </c>
       <c r="E33" t="n">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F33" t="n">
         <v>4736</v>
@@ -15948,7 +16079,7 @@
         <v>1992</v>
       </c>
       <c r="H33" t="n">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="I33" t="n">
         <v>2389</v>
@@ -15957,14 +16088,14 @@
         <v>1761</v>
       </c>
       <c r="K33" t="n">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="L33" t="n">
         <v>676</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>31576</v>
+        <v>31577</v>
       </c>
     </row>
     <row r="34">
@@ -15981,7 +16112,7 @@
         <v>8194</v>
       </c>
       <c r="E34" t="n">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="F34" t="n">
         <v>4929</v>
@@ -15990,7 +16121,7 @@
         <v>1958</v>
       </c>
       <c r="H34" t="n">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="I34" t="n">
         <v>2264</v>
@@ -15999,7 +16130,7 @@
         <v>2030</v>
       </c>
       <c r="K34" t="n">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="L34" t="n">
         <v>701</v>
@@ -16048,7 +16179,7 @@
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>32174</v>
+        <v>32172</v>
       </c>
     </row>
     <row r="36">
@@ -16065,7 +16196,7 @@
         <v>8079</v>
       </c>
       <c r="E36" t="n">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="F36" t="n">
         <v>5120</v>
@@ -16090,7 +16221,7 @@
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>32720</v>
+        <v>32717</v>
       </c>
     </row>
     <row r="37">
@@ -16107,7 +16238,7 @@
         <v>9281</v>
       </c>
       <c r="E37" t="n">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="F37" t="n">
         <v>5205</v>
@@ -16116,7 +16247,7 @@
         <v>2188</v>
       </c>
       <c r="H37" t="n">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="I37" t="n">
         <v>2505</v>
@@ -16125,14 +16256,14 @@
         <v>2090</v>
       </c>
       <c r="K37" t="n">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="L37" t="n">
         <v>746</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>34439</v>
+        <v>34442</v>
       </c>
     </row>
     <row r="38">
@@ -16158,7 +16289,7 @@
         <v>2324</v>
       </c>
       <c r="H38" t="n">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="I38" t="n">
         <v>2431</v>
@@ -16167,14 +16298,14 @@
         <v>2233</v>
       </c>
       <c r="K38" t="n">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="L38" t="n">
         <v>716</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="n">
-        <v>34129</v>
+        <v>34131</v>
       </c>
     </row>
     <row r="39">
@@ -16216,7 +16347,7 @@
       </c>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>34827</v>
+        <v>34825</v>
       </c>
     </row>
     <row r="40">
@@ -16251,14 +16382,14 @@
         <v>2413</v>
       </c>
       <c r="K40" t="n">
-        <v>5275</v>
+        <v>5277</v>
       </c>
       <c r="L40" t="n">
         <v>772</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>34841</v>
+        <v>34835</v>
       </c>
     </row>
     <row r="41">
@@ -16275,7 +16406,7 @@
         <v>8396</v>
       </c>
       <c r="E41" t="n">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="F41" t="n">
         <v>5463</v>
@@ -16284,7 +16415,7 @@
         <v>2419</v>
       </c>
       <c r="H41" t="n">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="I41" t="n">
         <v>2446</v>
@@ -16293,14 +16424,14 @@
         <v>2627</v>
       </c>
       <c r="K41" t="n">
-        <v>5431</v>
+        <v>5429</v>
       </c>
       <c r="L41" t="n">
         <v>789</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
-        <v>35951</v>
+        <v>35963</v>
       </c>
     </row>
     <row r="42">
@@ -16326,7 +16457,7 @@
         <v>2509</v>
       </c>
       <c r="H42" t="n">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="I42" t="n">
         <v>2427</v>
@@ -16335,14 +16466,14 @@
         <v>2891</v>
       </c>
       <c r="K42" t="n">
-        <v>5526</v>
+        <v>5525</v>
       </c>
       <c r="L42" t="n">
         <v>766</v>
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>36886</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="43">
@@ -16368,7 +16499,7 @@
         <v>2616</v>
       </c>
       <c r="H43" t="n">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="I43" t="n">
         <v>2429</v>
@@ -16377,14 +16508,14 @@
         <v>3092</v>
       </c>
       <c r="K43" t="n">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="L43" t="n">
         <v>779</v>
       </c>
       <c r="M43"/>
       <c r="N43" t="n">
-        <v>37414</v>
+        <v>37427</v>
       </c>
     </row>
     <row r="44">
@@ -16401,7 +16532,7 @@
         <v>8171</v>
       </c>
       <c r="E44" t="n">
-        <v>3783</v>
+        <v>3785</v>
       </c>
       <c r="F44" t="n">
         <v>5964</v>
@@ -16410,7 +16541,7 @@
         <v>2568</v>
       </c>
       <c r="H44" t="n">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="I44" t="n">
         <v>2500</v>
@@ -16419,14 +16550,14 @@
         <v>3158</v>
       </c>
       <c r="K44" t="n">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="L44" t="n">
         <v>818</v>
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>37668</v>
+        <v>37672</v>
       </c>
     </row>
     <row r="45">
@@ -16443,7 +16574,7 @@
         <v>8709</v>
       </c>
       <c r="E45" t="n">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="F45" t="n">
         <v>6042</v>
@@ -16468,7 +16599,7 @@
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>39122</v>
+        <v>39124</v>
       </c>
     </row>
     <row r="46">
@@ -16485,7 +16616,7 @@
         <v>8203</v>
       </c>
       <c r="E46" t="n">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="F46" t="n">
         <v>6327</v>
@@ -16494,7 +16625,7 @@
         <v>2385</v>
       </c>
       <c r="H46" t="n">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="I46" t="n">
         <v>2764</v>
@@ -16503,14 +16634,14 @@
         <v>3617</v>
       </c>
       <c r="K46" t="n">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="L46" t="n">
         <v>894</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
-        <v>39909</v>
+        <v>39910</v>
       </c>
     </row>
     <row r="47">
@@ -16527,7 +16658,7 @@
         <v>9092</v>
       </c>
       <c r="E47" t="n">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="F47" t="n">
         <v>6445</v>
@@ -16552,7 +16683,7 @@
       </c>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>40290</v>
+        <v>40286</v>
       </c>
     </row>
     <row r="48">
@@ -16594,7 +16725,7 @@
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
-        <v>40876</v>
+        <v>40871</v>
       </c>
     </row>
     <row r="49">
@@ -16611,7 +16742,7 @@
         <v>8332</v>
       </c>
       <c r="E49" t="n">
-        <v>4436</v>
+        <v>4438</v>
       </c>
       <c r="F49" t="n">
         <v>6780</v>
@@ -16620,7 +16751,7 @@
         <v>2755</v>
       </c>
       <c r="H49" t="n">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="I49" t="n">
         <v>2807</v>
@@ -16629,14 +16760,14 @@
         <v>3432</v>
       </c>
       <c r="K49" t="n">
-        <v>6389</v>
+        <v>6387</v>
       </c>
       <c r="L49" t="n">
         <v>956</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>41252</v>
+        <v>41261</v>
       </c>
     </row>
     <row r="50">
@@ -16662,7 +16793,7 @@
         <v>3050</v>
       </c>
       <c r="H50" t="n">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="I50" t="n">
         <v>3176</v>
@@ -16671,14 +16802,14 @@
         <v>3454</v>
       </c>
       <c r="K50" t="n">
-        <v>6683</v>
+        <v>6684</v>
       </c>
       <c r="L50" t="n">
         <v>1011</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>43779</v>
+        <v>43787</v>
       </c>
     </row>
     <row r="51">
@@ -16695,7 +16826,7 @@
         <v>8385</v>
       </c>
       <c r="E51" t="n">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="F51" t="n">
         <v>7198</v>
@@ -16713,14 +16844,14 @@
         <v>3691</v>
       </c>
       <c r="K51" t="n">
-        <v>6760</v>
+        <v>6761</v>
       </c>
       <c r="L51" t="n">
         <v>995</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>43566</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="52">
@@ -16755,14 +16886,14 @@
         <v>3869</v>
       </c>
       <c r="K52" t="n">
-        <v>6877</v>
+        <v>6878</v>
       </c>
       <c r="L52" t="n">
         <v>1059</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>42846</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="53">
@@ -16779,7 +16910,7 @@
         <v>9262</v>
       </c>
       <c r="E53" t="n">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="F53" t="n">
         <v>7294</v>
@@ -16788,7 +16919,7 @@
         <v>2821</v>
       </c>
       <c r="H53" t="n">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="I53" t="n">
         <v>3336</v>
@@ -16797,14 +16928,14 @@
         <v>3887</v>
       </c>
       <c r="K53" t="n">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="L53" t="n">
         <v>1017</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>43776</v>
+        <v>43770</v>
       </c>
     </row>
     <row r="54">
@@ -16830,7 +16961,7 @@
         <v>3038</v>
       </c>
       <c r="H54" t="n">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="I54" t="n">
         <v>3344</v>
@@ -16839,14 +16970,14 @@
         <v>3699</v>
       </c>
       <c r="K54" t="n">
-        <v>7143</v>
+        <v>7144</v>
       </c>
       <c r="L54" t="n">
         <v>1003</v>
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>42810</v>
+        <v>42798</v>
       </c>
     </row>
     <row r="55">
@@ -16872,7 +17003,7 @@
         <v>3195</v>
       </c>
       <c r="H55" t="n">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="I55" t="n">
         <v>3282</v>
@@ -16888,7 +17019,7 @@
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>42248</v>
+        <v>42259</v>
       </c>
     </row>
     <row r="56">
@@ -16905,7 +17036,7 @@
         <v>8515</v>
       </c>
       <c r="E56" t="n">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="F56" t="n">
         <v>6742</v>
@@ -16914,7 +17045,7 @@
         <v>3295</v>
       </c>
       <c r="H56" t="n">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="I56" t="n">
         <v>3142</v>
@@ -16923,14 +17054,14 @@
         <v>3625</v>
       </c>
       <c r="K56" t="n">
-        <v>7381</v>
+        <v>7383</v>
       </c>
       <c r="L56" t="n">
         <v>991</v>
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
-        <v>42159</v>
+        <v>42155</v>
       </c>
     </row>
     <row r="57">
@@ -16947,7 +17078,7 @@
         <v>7229</v>
       </c>
       <c r="E57" t="n">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="F57" t="n">
         <v>6518</v>
@@ -16956,7 +17087,7 @@
         <v>3224</v>
       </c>
       <c r="H57" t="n">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="I57" t="n">
         <v>3050</v>
@@ -16965,14 +17096,14 @@
         <v>3540</v>
       </c>
       <c r="K57" t="n">
-        <v>7539</v>
+        <v>7534</v>
       </c>
       <c r="L57" t="n">
         <v>935</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
-        <v>40815</v>
+        <v>40821</v>
       </c>
     </row>
     <row r="58">
@@ -17007,14 +17138,14 @@
         <v>3309</v>
       </c>
       <c r="K58" t="n">
-        <v>7421</v>
+        <v>7420</v>
       </c>
       <c r="L58" t="n">
         <v>917</v>
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
-        <v>39296</v>
+        <v>39298</v>
       </c>
     </row>
     <row r="59">
@@ -17056,7 +17187,7 @@
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
-        <v>39252</v>
+        <v>39248</v>
       </c>
     </row>
     <row r="60">
@@ -17082,7 +17213,7 @@
         <v>3265</v>
       </c>
       <c r="H60" t="n">
-        <v>4155</v>
+        <v>4157</v>
       </c>
       <c r="I60" t="n">
         <v>2072</v>
@@ -17091,14 +17222,14 @@
         <v>3280</v>
       </c>
       <c r="K60" t="n">
-        <v>7369</v>
+        <v>7370</v>
       </c>
       <c r="L60" t="n">
         <v>887</v>
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>38163</v>
+        <v>38165</v>
       </c>
     </row>
     <row r="61">
@@ -17112,7 +17243,7 @@
         <v>9193</v>
       </c>
       <c r="D61" t="n">
-        <v>7960</v>
+        <v>7961</v>
       </c>
       <c r="E61" t="n">
         <v>816</v>
@@ -17133,14 +17264,14 @@
         <v>3302</v>
       </c>
       <c r="K61" t="n">
-        <v>7274</v>
+        <v>7277</v>
       </c>
       <c r="L61" t="n">
         <v>889</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>37740</v>
+        <v>37742</v>
       </c>
     </row>
     <row r="62">
@@ -17166,7 +17297,7 @@
         <v>3354</v>
       </c>
       <c r="H62" t="n">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="I62" t="n">
         <v>2420</v>
@@ -17175,14 +17306,14 @@
         <v>3401</v>
       </c>
       <c r="K62" t="n">
-        <v>7025</v>
+        <v>7026</v>
       </c>
       <c r="L62" t="n">
         <v>903</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>37876</v>
+        <v>37872</v>
       </c>
     </row>
     <row r="63">
@@ -17224,7 +17355,7 @@
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>37898</v>
+        <v>37893</v>
       </c>
     </row>
     <row r="64">
@@ -17235,7 +17366,7 @@
         <v>424</v>
       </c>
       <c r="C64" t="n">
-        <v>9322</v>
+        <v>9324</v>
       </c>
       <c r="D64" t="n">
         <v>8320</v>
@@ -17250,7 +17381,7 @@
         <v>3683</v>
       </c>
       <c r="H64" t="n">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="I64" t="n">
         <v>2474</v>
@@ -17259,14 +17390,14 @@
         <v>3385</v>
       </c>
       <c r="K64" t="n">
-        <v>7043</v>
+        <v>7049</v>
       </c>
       <c r="L64" t="n">
         <v>887</v>
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>38138</v>
+        <v>38127</v>
       </c>
     </row>
     <row r="65">
@@ -17277,10 +17408,10 @@
         <v>415</v>
       </c>
       <c r="C65" t="n">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="D65" t="n">
-        <v>8363</v>
+        <v>8364</v>
       </c>
       <c r="E65" t="n">
         <v>523</v>
@@ -17292,7 +17423,7 @@
         <v>3621</v>
       </c>
       <c r="H65" t="n">
-        <v>4255</v>
+        <v>4259</v>
       </c>
       <c r="I65" t="n">
         <v>2468</v>
@@ -17301,14 +17432,14 @@
         <v>3776</v>
       </c>
       <c r="K65" t="n">
-        <v>6963</v>
+        <v>6959</v>
       </c>
       <c r="L65" t="n">
         <v>907</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>38198</v>
+        <v>38218</v>
       </c>
     </row>
     <row r="66">
@@ -17319,7 +17450,7 @@
         <v>503</v>
       </c>
       <c r="C66" t="n">
-        <v>9668</v>
+        <v>9669</v>
       </c>
       <c r="D66" t="n">
         <v>8671</v>
@@ -17350,7 +17481,7 @@
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>38944</v>
+        <v>38950</v>
       </c>
     </row>
     <row r="67">
@@ -17361,7 +17492,7 @@
         <v>526</v>
       </c>
       <c r="C67" t="n">
-        <v>10101</v>
+        <v>10099</v>
       </c>
       <c r="D67" t="n">
         <v>8991</v>
@@ -17376,13 +17507,13 @@
         <v>3591</v>
       </c>
       <c r="H67" t="n">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="I67" t="n">
         <v>2525</v>
       </c>
       <c r="J67" t="n">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="K67" t="n">
         <v>7066</v>
@@ -17392,7 +17523,7 @@
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>39702</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="68">
@@ -17418,7 +17549,7 @@
         <v>3453</v>
       </c>
       <c r="H68" t="n">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="I68" t="n">
         <v>2553</v>
@@ -17445,10 +17576,10 @@
         <v>506</v>
       </c>
       <c r="C69" t="n">
-        <v>10417</v>
+        <v>10419</v>
       </c>
       <c r="D69" t="n">
-        <v>9268</v>
+        <v>9269</v>
       </c>
       <c r="E69" t="n">
         <v>471</v>
@@ -17460,7 +17591,7 @@
         <v>3497</v>
       </c>
       <c r="H69" t="n">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="I69" t="n">
         <v>2555</v>
@@ -17476,7 +17607,7 @@
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>38697</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="70">
@@ -17484,13 +17615,13 @@
         <v>82</v>
       </c>
       <c r="B70" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C70" t="n">
-        <v>10193</v>
+        <v>10194</v>
       </c>
       <c r="D70" t="n">
-        <v>8969</v>
+        <v>8968</v>
       </c>
       <c r="E70" t="n">
         <v>674</v>
@@ -17499,10 +17630,10 @@
         <v>6416</v>
       </c>
       <c r="G70" t="n">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="H70" t="n">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="I70" t="n">
         <v>2732</v>
@@ -17511,14 +17642,14 @@
         <v>3836</v>
       </c>
       <c r="K70" t="n">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="L70" t="n">
         <v>801</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>40109</v>
+        <v>40114</v>
       </c>
     </row>
     <row r="71">
@@ -17529,7 +17660,7 @@
         <v>518</v>
       </c>
       <c r="C71" t="n">
-        <v>10232</v>
+        <v>10228</v>
       </c>
       <c r="D71" t="n">
         <v>9065</v>
@@ -17541,7 +17672,7 @@
         <v>6478</v>
       </c>
       <c r="G71" t="n">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="H71" t="n">
         <v>3481</v>
@@ -17553,14 +17684,14 @@
         <v>3826</v>
       </c>
       <c r="K71" t="n">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="L71" t="n">
         <v>806</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>40207</v>
+        <v>40204</v>
       </c>
     </row>
     <row r="72">
@@ -17571,10 +17702,10 @@
         <v>351</v>
       </c>
       <c r="C72" t="n">
-        <v>10075</v>
+        <v>10071</v>
       </c>
       <c r="D72" t="n">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="E72" t="n">
         <v>657</v>
@@ -17595,14 +17726,14 @@
         <v>3904</v>
       </c>
       <c r="K72" t="n">
-        <v>7016</v>
+        <v>7017</v>
       </c>
       <c r="L72" t="n">
         <v>814</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>39822</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="73">
@@ -17613,10 +17744,10 @@
         <v>302</v>
       </c>
       <c r="C73" t="n">
-        <v>9575</v>
+        <v>9589</v>
       </c>
       <c r="D73" t="n">
-        <v>8212</v>
+        <v>8213</v>
       </c>
       <c r="E73" t="n">
         <v>705</v>
@@ -17625,7 +17756,7 @@
         <v>6668</v>
       </c>
       <c r="G73" t="n">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="H73" t="n">
         <v>3455</v>
@@ -17637,14 +17768,14 @@
         <v>4009</v>
       </c>
       <c r="K73" t="n">
-        <v>7039</v>
+        <v>7040</v>
       </c>
       <c r="L73" t="n">
         <v>788</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>39744</v>
+        <v>39745</v>
       </c>
     </row>
     <row r="74">
@@ -17655,10 +17786,10 @@
         <v>355</v>
       </c>
       <c r="C74" t="n">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="D74" t="n">
-        <v>8814</v>
+        <v>8813</v>
       </c>
       <c r="E74" t="n">
         <v>807</v>
@@ -17667,10 +17798,10 @@
         <v>6777</v>
       </c>
       <c r="G74" t="n">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="H74" t="n">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="I74" t="n">
         <v>2887</v>
@@ -17686,7 +17817,7 @@
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>39604</v>
+        <v>39594</v>
       </c>
     </row>
     <row r="75">
@@ -17697,10 +17828,10 @@
         <v>408</v>
       </c>
       <c r="C75" t="n">
-        <v>10109</v>
+        <v>10101</v>
       </c>
       <c r="D75" t="n">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="E75" t="n">
         <v>846</v>
@@ -17721,14 +17852,14 @@
         <v>4319</v>
       </c>
       <c r="K75" t="n">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="L75" t="n">
         <v>862</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>40824</v>
+        <v>40836</v>
       </c>
     </row>
     <row r="76">
@@ -17736,10 +17867,10 @@
         <v>88</v>
       </c>
       <c r="B76" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C76" t="n">
-        <v>10119</v>
+        <v>10108</v>
       </c>
       <c r="D76" t="n">
         <v>8865</v>
@@ -17763,14 +17894,14 @@
         <v>4376</v>
       </c>
       <c r="K76" t="n">
-        <v>6978</v>
+        <v>6977</v>
       </c>
       <c r="L76" t="n">
         <v>842</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
-        <v>41193</v>
+        <v>41188</v>
       </c>
     </row>
     <row r="77">
@@ -17778,25 +17909,25 @@
         <v>89</v>
       </c>
       <c r="B77" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C77" t="n">
-        <v>9818</v>
+        <v>9848</v>
       </c>
       <c r="D77" t="n">
-        <v>8548</v>
+        <v>8551</v>
       </c>
       <c r="E77" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F77" t="n">
-        <v>7322</v>
+        <v>7323</v>
       </c>
       <c r="G77" t="n">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="H77" t="n">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="I77" t="n">
         <v>3086</v>
@@ -17805,14 +17936,14 @@
         <v>4586</v>
       </c>
       <c r="K77" t="n">
-        <v>7036</v>
+        <v>7032</v>
       </c>
       <c r="L77" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
-        <v>41642</v>
+        <v>41648</v>
       </c>
     </row>
     <row r="78">
@@ -17820,13 +17951,13 @@
         <v>90</v>
       </c>
       <c r="B78" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C78" t="n">
-        <v>10722</v>
+        <v>10714</v>
       </c>
       <c r="D78" t="n">
-        <v>9561</v>
+        <v>9560</v>
       </c>
       <c r="E78" t="n">
         <v>1034</v>
@@ -17835,7 +17966,7 @@
         <v>6990</v>
       </c>
       <c r="G78" t="n">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="H78" t="n">
         <v>3665</v>
@@ -17847,14 +17978,14 @@
         <v>4758</v>
       </c>
       <c r="K78" t="n">
-        <v>7029</v>
+        <v>7030</v>
       </c>
       <c r="L78" t="n">
         <v>869</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>42599</v>
+        <v>42585</v>
       </c>
     </row>
     <row r="79">
@@ -17865,10 +17996,10 @@
         <v>626</v>
       </c>
       <c r="C79" t="n">
-        <v>11665</v>
+        <v>11649</v>
       </c>
       <c r="D79" t="n">
-        <v>10541</v>
+        <v>10539</v>
       </c>
       <c r="E79" t="n">
         <v>1124</v>
@@ -17889,14 +18020,14 @@
         <v>4914</v>
       </c>
       <c r="K79" t="n">
-        <v>7050</v>
+        <v>7049</v>
       </c>
       <c r="L79" t="n">
         <v>892</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>44446</v>
+        <v>44457</v>
       </c>
     </row>
     <row r="80">
@@ -17907,10 +18038,10 @@
         <v>640</v>
       </c>
       <c r="C80" t="n">
-        <v>11144</v>
+        <v>11124</v>
       </c>
       <c r="D80" t="n">
-        <v>9657</v>
+        <v>9655</v>
       </c>
       <c r="E80" t="n">
         <v>1159</v>
@@ -17922,7 +18053,7 @@
         <v>4895</v>
       </c>
       <c r="H80" t="n">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="I80" t="n">
         <v>3317</v>
@@ -17931,7 +18062,7 @@
         <v>5106</v>
       </c>
       <c r="K80" t="n">
-        <v>7065</v>
+        <v>7066</v>
       </c>
       <c r="L80" t="n">
         <v>889</v>
@@ -17946,25 +18077,25 @@
         <v>93</v>
       </c>
       <c r="B81" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C81" t="n">
-        <v>10113</v>
+        <v>10163</v>
       </c>
       <c r="D81" t="n">
-        <v>9096</v>
+        <v>9101</v>
       </c>
       <c r="E81" t="n">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="F81" t="n">
-        <v>7414</v>
+        <v>7415</v>
       </c>
       <c r="G81" t="n">
-        <v>4822</v>
+        <v>4824</v>
       </c>
       <c r="H81" t="n">
-        <v>3825</v>
+        <v>3827</v>
       </c>
       <c r="I81" t="n">
         <v>3401</v>
@@ -17973,14 +18104,14 @@
         <v>5331</v>
       </c>
       <c r="K81" t="n">
-        <v>7079</v>
+        <v>7078</v>
       </c>
       <c r="L81" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>45565</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="82">
@@ -17988,41 +18119,41 @@
         <v>94</v>
       </c>
       <c r="B82" t="n">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C82" t="n">
-        <v>22998</v>
+        <v>22963</v>
       </c>
       <c r="D82" t="n">
-        <v>21803</v>
+        <v>21800</v>
       </c>
       <c r="E82" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F82" t="n">
-        <v>7341</v>
+        <v>7339</v>
       </c>
       <c r="G82" t="n">
-        <v>5800</v>
+        <v>5797</v>
       </c>
       <c r="H82" t="n">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="I82" t="n">
         <v>3554</v>
       </c>
       <c r="J82" t="n">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="K82" t="n">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="L82" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
-        <v>59083</v>
+        <v>59065</v>
       </c>
     </row>
     <row r="83">
@@ -18033,22 +18164,22 @@
         <v>526</v>
       </c>
       <c r="C83" t="n">
-        <v>23461</v>
+        <v>23417</v>
       </c>
       <c r="D83" t="n">
-        <v>22220</v>
+        <v>22214</v>
       </c>
       <c r="E83" t="n">
         <v>1259</v>
       </c>
       <c r="F83" t="n">
-        <v>7400</v>
+        <v>7401</v>
       </c>
       <c r="G83" t="n">
         <v>5560</v>
       </c>
       <c r="H83" t="n">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="I83" t="n">
         <v>3556</v>
@@ -18057,14 +18188,14 @@
         <v>6060</v>
       </c>
       <c r="K83" t="n">
-        <v>7179</v>
+        <v>7177</v>
       </c>
       <c r="L83" t="n">
         <v>844</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>59232</v>
+        <v>59241</v>
       </c>
     </row>
     <row r="84">
@@ -18075,22 +18206,22 @@
         <v>618</v>
       </c>
       <c r="C84" t="n">
-        <v>24212</v>
+        <v>24151</v>
       </c>
       <c r="D84" t="n">
-        <v>22771</v>
+        <v>22762</v>
       </c>
       <c r="E84" t="n">
         <v>1205</v>
       </c>
       <c r="F84" t="n">
-        <v>7615</v>
+        <v>7616</v>
       </c>
       <c r="G84" t="n">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="H84" t="n">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="I84" t="n">
         <v>3640</v>
@@ -18106,7 +18237,7 @@
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>61246</v>
+        <v>61268</v>
       </c>
     </row>
     <row r="85">
@@ -18114,22 +18245,22 @@
         <v>97</v>
       </c>
       <c r="B85" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C85" t="n">
-        <v>24672</v>
+        <v>24835</v>
       </c>
       <c r="D85" t="n">
-        <v>24600</v>
+        <v>24623</v>
       </c>
       <c r="E85" t="n">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F85" t="n">
-        <v>7736</v>
+        <v>7737</v>
       </c>
       <c r="G85" t="n">
-        <v>5614</v>
+        <v>5619</v>
       </c>
       <c r="H85" t="n">
         <v>4244</v>
@@ -18141,14 +18272,14 @@
         <v>6303</v>
       </c>
       <c r="K85" t="n">
-        <v>7316</v>
+        <v>7321</v>
       </c>
       <c r="L85" t="n">
         <v>916</v>
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
-        <v>64486</v>
+        <v>64463</v>
       </c>
     </row>
     <row r="86">
@@ -18156,41 +18287,41 @@
         <v>98</v>
       </c>
       <c r="B86" t="n">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C86" t="n">
-        <v>22296</v>
+        <v>22245</v>
       </c>
       <c r="D86" t="n">
-        <v>20861</v>
+        <v>20860</v>
       </c>
       <c r="E86" t="n">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F86" t="n">
-        <v>7973</v>
+        <v>7969</v>
       </c>
       <c r="G86" t="n">
-        <v>5763</v>
+        <v>5759</v>
       </c>
       <c r="H86" t="n">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="I86" t="n">
         <v>3735</v>
       </c>
       <c r="J86" t="n">
-        <v>6391</v>
+        <v>6390</v>
       </c>
       <c r="K86" t="n">
         <v>7356</v>
       </c>
       <c r="L86" t="n">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>60036</v>
+        <v>60017</v>
       </c>
     </row>
     <row r="87">
@@ -18198,41 +18329,41 @@
         <v>99</v>
       </c>
       <c r="B87" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C87" t="n">
-        <v>22494</v>
+        <v>22441</v>
       </c>
       <c r="D87" t="n">
-        <v>20983</v>
+        <v>20971</v>
       </c>
       <c r="E87" t="n">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F87" t="n">
-        <v>7953</v>
+        <v>7956</v>
       </c>
       <c r="G87" t="n">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="H87" t="n">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="I87" t="n">
         <v>3835</v>
       </c>
       <c r="J87" t="n">
-        <v>6475</v>
+        <v>6476</v>
       </c>
       <c r="K87" t="n">
-        <v>7454</v>
+        <v>7448</v>
       </c>
       <c r="L87" t="n">
         <v>872</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>59632</v>
+        <v>59658</v>
       </c>
     </row>
     <row r="88">
@@ -18240,22 +18371,22 @@
         <v>100</v>
       </c>
       <c r="B88" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C88" t="n">
-        <v>23133</v>
+        <v>23060</v>
       </c>
       <c r="D88" t="n">
-        <v>21615</v>
+        <v>21599</v>
       </c>
       <c r="E88" t="n">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F88" t="n">
-        <v>8068</v>
+        <v>8071</v>
       </c>
       <c r="G88" t="n">
-        <v>6514</v>
+        <v>6513</v>
       </c>
       <c r="H88" t="n">
         <v>3879</v>
@@ -18264,17 +18395,17 @@
         <v>3901</v>
       </c>
       <c r="J88" t="n">
-        <v>6654</v>
+        <v>6655</v>
       </c>
       <c r="K88" t="n">
-        <v>7469</v>
+        <v>7471</v>
       </c>
       <c r="L88" t="n">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>61416</v>
+        <v>61463</v>
       </c>
     </row>
     <row r="89">
@@ -18282,41 +18413,41 @@
         <v>101</v>
       </c>
       <c r="B89" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C89" t="n">
-        <v>26013</v>
+        <v>26220</v>
       </c>
       <c r="D89" t="n">
-        <v>26179</v>
+        <v>26217</v>
       </c>
       <c r="E89" t="n">
         <v>1595</v>
       </c>
       <c r="F89" t="n">
-        <v>8050</v>
+        <v>8046</v>
       </c>
       <c r="G89" t="n">
-        <v>6715</v>
+        <v>6723</v>
       </c>
       <c r="H89" t="n">
-        <v>3867</v>
+        <v>3869</v>
       </c>
       <c r="I89" t="n">
         <v>3951</v>
       </c>
       <c r="J89" t="n">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="K89" t="n">
-        <v>7569</v>
+        <v>7570</v>
       </c>
       <c r="L89" t="n">
         <v>936</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>68155</v>
+        <v>68084</v>
       </c>
     </row>
     <row r="90">
@@ -18324,22 +18455,22 @@
         <v>102</v>
       </c>
       <c r="B90" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C90" t="n">
-        <v>23911</v>
+        <v>23838</v>
       </c>
       <c r="D90" t="n">
-        <v>22311</v>
+        <v>22317</v>
       </c>
       <c r="E90" t="n">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="F90" t="n">
-        <v>8470</v>
+        <v>8467</v>
       </c>
       <c r="G90" t="n">
-        <v>6810</v>
+        <v>6807</v>
       </c>
       <c r="H90" t="n">
         <v>3791</v>
@@ -18348,17 +18479,17 @@
         <v>3945</v>
       </c>
       <c r="J90" t="n">
-        <v>7330</v>
+        <v>7328</v>
       </c>
       <c r="K90" t="n">
-        <v>7747</v>
+        <v>7748</v>
       </c>
       <c r="L90" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
-        <v>64616</v>
+        <v>64661</v>
       </c>
     </row>
     <row r="91">
@@ -18369,38 +18500,38 @@
         <v>910</v>
       </c>
       <c r="C91" t="n">
-        <v>23145</v>
+        <v>23077</v>
       </c>
       <c r="D91" t="n">
-        <v>21417</v>
+        <v>21394</v>
       </c>
       <c r="E91" t="n">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F91" t="n">
-        <v>8449</v>
+        <v>8455</v>
       </c>
       <c r="G91" t="n">
-        <v>6818</v>
+        <v>6813</v>
       </c>
       <c r="H91" t="n">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="I91" t="n">
         <v>4025</v>
       </c>
       <c r="J91" t="n">
-        <v>7488</v>
+        <v>7493</v>
       </c>
       <c r="K91" t="n">
-        <v>7895</v>
+        <v>7890</v>
       </c>
       <c r="L91" t="n">
         <v>1026</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>67304</v>
+        <v>67278</v>
       </c>
     </row>
     <row r="92">
@@ -18408,41 +18539,41 @@
         <v>104</v>
       </c>
       <c r="B92" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C92" t="n">
-        <v>24619</v>
+        <v>24553</v>
       </c>
       <c r="D92" t="n">
-        <v>23255</v>
+        <v>23216</v>
       </c>
       <c r="E92" t="n">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F92" t="n">
-        <v>8589</v>
+        <v>8592</v>
       </c>
       <c r="G92" t="n">
-        <v>8079</v>
+        <v>8080</v>
       </c>
       <c r="H92" t="n">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="I92" t="n">
         <v>4106</v>
       </c>
       <c r="J92" t="n">
-        <v>7728</v>
+        <v>7727</v>
       </c>
       <c r="K92" t="n">
-        <v>7973</v>
+        <v>7979</v>
       </c>
       <c r="L92" t="n">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>69128</v>
+        <v>69209</v>
       </c>
     </row>
     <row r="93">
@@ -18450,41 +18581,41 @@
         <v>105</v>
       </c>
       <c r="B93" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C93" t="n">
-        <v>27891</v>
+        <v>28118</v>
       </c>
       <c r="D93" t="n">
-        <v>28010</v>
+        <v>28078</v>
       </c>
       <c r="E93" t="n">
         <v>1896</v>
       </c>
       <c r="F93" t="n">
-        <v>8744</v>
+        <v>8732</v>
       </c>
       <c r="G93" t="n">
-        <v>9627</v>
+        <v>9641</v>
       </c>
       <c r="H93" t="n">
-        <v>3793</v>
+        <v>3796</v>
       </c>
       <c r="I93" t="n">
         <v>4169</v>
       </c>
       <c r="J93" t="n">
-        <v>7771</v>
+        <v>7768</v>
       </c>
       <c r="K93" t="n">
         <v>8031</v>
       </c>
       <c r="L93" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>74084</v>
+        <v>73923</v>
       </c>
     </row>
     <row r="94">
@@ -18492,41 +18623,41 @@
         <v>106</v>
       </c>
       <c r="B94" t="n">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C94" t="n">
-        <v>27330</v>
+        <v>27253</v>
       </c>
       <c r="D94" t="n">
-        <v>25622</v>
+        <v>25653</v>
       </c>
       <c r="E94" t="n">
-        <v>1817</v>
+        <v>1823</v>
       </c>
       <c r="F94" t="n">
-        <v>8669</v>
+        <v>8671</v>
       </c>
       <c r="G94" t="n">
-        <v>9436</v>
+        <v>9427</v>
       </c>
       <c r="H94" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="I94" t="n">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="J94" t="n">
-        <v>8115</v>
+        <v>8111</v>
       </c>
       <c r="K94" t="n">
-        <v>8156</v>
+        <v>8153</v>
       </c>
       <c r="L94" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>74872</v>
+        <v>75007</v>
       </c>
     </row>
     <row r="95">
@@ -18534,41 +18665,41 @@
         <v>107</v>
       </c>
       <c r="B95" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C95" t="n">
-        <v>28027</v>
+        <v>27917</v>
       </c>
       <c r="D95" t="n">
-        <v>26261</v>
+        <v>26198</v>
       </c>
       <c r="E95" t="n">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="F95" t="n">
-        <v>8901</v>
+        <v>8911</v>
       </c>
       <c r="G95" t="n">
-        <v>9856</v>
+        <v>9846</v>
       </c>
       <c r="H95" t="n">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="I95" t="n">
         <v>4580</v>
       </c>
       <c r="J95" t="n">
-        <v>8743</v>
+        <v>8756</v>
       </c>
       <c r="K95" t="n">
-        <v>8288</v>
+        <v>8281</v>
       </c>
       <c r="L95" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>76318</v>
+        <v>76266</v>
       </c>
     </row>
     <row r="96">
@@ -18576,41 +18707,41 @@
         <v>108</v>
       </c>
       <c r="B96" t="n">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C96" t="n">
-        <v>29079</v>
+        <v>28987</v>
       </c>
       <c r="D96" t="n">
-        <v>27788</v>
+        <v>27712</v>
       </c>
       <c r="E96" t="n">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F96" t="n">
-        <v>8950</v>
+        <v>8954</v>
       </c>
       <c r="G96" t="n">
-        <v>10105</v>
+        <v>10120</v>
       </c>
       <c r="H96" t="n">
-        <v>4083</v>
+        <v>4080</v>
       </c>
       <c r="I96" t="n">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="J96" t="n">
-        <v>8929</v>
+        <v>8920</v>
       </c>
       <c r="K96" t="n">
-        <v>8335</v>
+        <v>8344</v>
       </c>
       <c r="L96" t="n">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>75945</v>
+        <v>76065</v>
       </c>
     </row>
     <row r="97">
@@ -18618,41 +18749,41 @@
         <v>109</v>
       </c>
       <c r="B97" t="n">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C97" t="n">
-        <v>28443</v>
+        <v>28740</v>
       </c>
       <c r="D97" t="n">
-        <v>27895</v>
+        <v>27989</v>
       </c>
       <c r="E97" t="n">
         <v>2028</v>
       </c>
       <c r="F97" t="n">
-        <v>8816</v>
+        <v>8787</v>
       </c>
       <c r="G97" t="n">
-        <v>10141</v>
+        <v>10138</v>
       </c>
       <c r="H97" t="n">
-        <v>3904</v>
+        <v>3908</v>
       </c>
       <c r="I97" t="n">
-        <v>4767</v>
+        <v>4769</v>
       </c>
       <c r="J97" t="n">
-        <v>9368</v>
+        <v>9367</v>
       </c>
       <c r="K97" t="n">
-        <v>8561</v>
+        <v>8567</v>
       </c>
       <c r="L97" t="n">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>77029</v>
+        <v>76740</v>
       </c>
     </row>
     <row r="98">
@@ -18660,41 +18791,41 @@
         <v>110</v>
       </c>
       <c r="B98" t="n">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C98" t="n">
-        <v>28273</v>
+        <v>28182</v>
       </c>
       <c r="D98" t="n">
-        <v>26669</v>
+        <v>26756</v>
       </c>
       <c r="E98" t="n">
-        <v>1963</v>
+        <v>1970</v>
       </c>
       <c r="F98" t="n">
-        <v>9495</v>
+        <v>9516</v>
       </c>
       <c r="G98" t="n">
-        <v>11688</v>
+        <v>11678</v>
       </c>
       <c r="H98" t="n">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="I98" t="n">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="J98" t="n">
-        <v>9642</v>
+        <v>9637</v>
       </c>
       <c r="K98" t="n">
-        <v>8656</v>
+        <v>8648</v>
       </c>
       <c r="L98" t="n">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
-        <v>80373</v>
+        <v>80615</v>
       </c>
     </row>
     <row r="99">
@@ -18702,41 +18833,41 @@
         <v>111</v>
       </c>
       <c r="B99" t="n">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C99" t="n">
-        <v>29392</v>
+        <v>29204</v>
       </c>
       <c r="D99" t="n">
-        <v>27627</v>
+        <v>27521</v>
       </c>
       <c r="E99" t="n">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="F99" t="n">
-        <v>9527</v>
+        <v>9539</v>
       </c>
       <c r="G99" t="n">
-        <v>13513</v>
+        <v>13502</v>
       </c>
       <c r="H99" t="n">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="I99" t="n">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="J99" t="n">
-        <v>9908</v>
+        <v>9930</v>
       </c>
       <c r="K99" t="n">
-        <v>8737</v>
+        <v>8728</v>
       </c>
       <c r="L99" t="n">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>83068</v>
+        <v>82945</v>
       </c>
     </row>
     <row r="100">
@@ -18744,41 +18875,41 @@
         <v>112</v>
       </c>
       <c r="B100" t="n">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C100" t="n">
-        <v>30195</v>
+        <v>30101</v>
       </c>
       <c r="D100" t="n">
-        <v>29121</v>
+        <v>28941</v>
       </c>
       <c r="E100" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="F100" t="n">
-        <v>9386</v>
+        <v>9393</v>
       </c>
       <c r="G100" t="n">
-        <v>12904</v>
+        <v>12944</v>
       </c>
       <c r="H100" t="n">
-        <v>4085</v>
+        <v>4079</v>
       </c>
       <c r="I100" t="n">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="J100" t="n">
-        <v>9684</v>
+        <v>9663</v>
       </c>
       <c r="K100" t="n">
-        <v>8855</v>
+        <v>8865</v>
       </c>
       <c r="L100" t="n">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="M100"/>
       <c r="N100" t="n">
-        <v>83492</v>
+        <v>83680</v>
       </c>
     </row>
     <row r="101">
@@ -18786,41 +18917,41 @@
         <v>113</v>
       </c>
       <c r="B101" t="n">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="C101" t="n">
-        <v>31840</v>
+        <v>32265</v>
       </c>
       <c r="D101" t="n">
-        <v>30677</v>
+        <v>30882</v>
       </c>
       <c r="E101" t="n">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="F101" t="n">
-        <v>9348</v>
+        <v>9294</v>
       </c>
       <c r="G101" t="n">
-        <v>13441</v>
+        <v>13405</v>
       </c>
       <c r="H101" t="n">
-        <v>4041</v>
+        <v>4052</v>
       </c>
       <c r="I101" t="n">
-        <v>5177</v>
+        <v>5183</v>
       </c>
       <c r="J101" t="n">
-        <v>9747</v>
+        <v>9750</v>
       </c>
       <c r="K101" t="n">
-        <v>9084</v>
+        <v>9090</v>
       </c>
       <c r="L101" t="n">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>85939</v>
+        <v>85591</v>
       </c>
     </row>
     <row r="102">
@@ -18828,41 +18959,41 @@
         <v>114</v>
       </c>
       <c r="B102" t="n">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C102" t="n">
-        <v>33321</v>
+        <v>33247</v>
       </c>
       <c r="D102" t="n">
-        <v>31909</v>
+        <v>32076</v>
       </c>
       <c r="E102" t="n">
-        <v>2166</v>
+        <v>2178</v>
       </c>
       <c r="F102" t="n">
-        <v>9568</v>
+        <v>9614</v>
       </c>
       <c r="G102" t="n">
-        <v>14405</v>
+        <v>14390</v>
       </c>
       <c r="H102" t="n">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="I102" t="n">
-        <v>5334</v>
+        <v>5331</v>
       </c>
       <c r="J102" t="n">
-        <v>9239</v>
+        <v>9237</v>
       </c>
       <c r="K102" t="n">
-        <v>9112</v>
+        <v>9099</v>
       </c>
       <c r="L102" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M102"/>
       <c r="N102" t="n">
-        <v>88539</v>
+        <v>88830</v>
       </c>
     </row>
     <row r="103">
@@ -18870,41 +19001,41 @@
         <v>115</v>
       </c>
       <c r="B103" t="n">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C103" t="n">
-        <v>33834</v>
+        <v>33506</v>
       </c>
       <c r="D103" t="n">
-        <v>32441</v>
+        <v>32251</v>
       </c>
       <c r="E103" t="n">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="F103" t="n">
-        <v>5802</v>
+        <v>5808</v>
       </c>
       <c r="G103" t="n">
-        <v>13573</v>
+        <v>13570</v>
       </c>
       <c r="H103" t="n">
-        <v>3865</v>
+        <v>3860</v>
       </c>
       <c r="I103" t="n">
-        <v>5186</v>
+        <v>5182</v>
       </c>
       <c r="J103" t="n">
-        <v>8609</v>
+        <v>8633</v>
       </c>
       <c r="K103" t="n">
-        <v>9063</v>
+        <v>9047</v>
       </c>
       <c r="L103" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>83473</v>
+        <v>83315</v>
       </c>
     </row>
     <row r="104">
@@ -18912,41 +19043,41 @@
         <v>116</v>
       </c>
       <c r="B104" t="n">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C104" t="n">
-        <v>34166</v>
+        <v>33927</v>
       </c>
       <c r="D104" t="n">
-        <v>33275</v>
+        <v>32948</v>
       </c>
       <c r="E104" t="n">
         <v>1978</v>
       </c>
       <c r="F104" t="n">
-        <v>7994</v>
+        <v>8008</v>
       </c>
       <c r="G104" t="n">
-        <v>17704</v>
+        <v>17792</v>
       </c>
       <c r="H104" t="n">
-        <v>3573</v>
+        <v>3566</v>
       </c>
       <c r="I104" t="n">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="J104" t="n">
-        <v>8887</v>
+        <v>8858</v>
       </c>
       <c r="K104" t="n">
-        <v>9133</v>
+        <v>9148</v>
       </c>
       <c r="L104" t="n">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
-        <v>91253</v>
+        <v>91437</v>
       </c>
     </row>
     <row r="105">
@@ -18954,41 +19085,41 @@
         <v>117</v>
       </c>
       <c r="B105" t="n">
-        <v>882</v>
+        <v>908</v>
       </c>
       <c r="C105" t="n">
-        <v>32953</v>
+        <v>33671</v>
       </c>
       <c r="D105" t="n">
-        <v>31216</v>
+        <v>31548</v>
       </c>
       <c r="E105" t="n">
         <v>2053</v>
       </c>
       <c r="F105" t="n">
-        <v>8191</v>
+        <v>8109</v>
       </c>
       <c r="G105" t="n">
-        <v>14701</v>
+        <v>14615</v>
       </c>
       <c r="H105" t="n">
-        <v>3692</v>
+        <v>3704</v>
       </c>
       <c r="I105" t="n">
-        <v>5608</v>
+        <v>5619</v>
       </c>
       <c r="J105" t="n">
-        <v>8998</v>
+        <v>9005</v>
       </c>
       <c r="K105" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="L105" t="n">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>88399</v>
+        <v>88031</v>
       </c>
     </row>
     <row r="106">
@@ -18996,41 +19127,41 @@
         <v>118</v>
       </c>
       <c r="B106" t="n">
-        <v>937</v>
+        <v>973</v>
       </c>
       <c r="C106" t="n">
-        <v>41623</v>
+        <v>39115</v>
       </c>
       <c r="D106" t="n">
-        <v>40029</v>
+        <v>38050</v>
       </c>
       <c r="E106" t="n">
-        <v>1467</v>
+        <v>1480</v>
       </c>
       <c r="F106" t="n">
-        <v>7710</v>
+        <v>7813</v>
       </c>
       <c r="G106" t="n">
-        <v>15979</v>
+        <v>15971</v>
       </c>
       <c r="H106" t="n">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="I106" t="n">
-        <v>5559</v>
+        <v>5555</v>
       </c>
       <c r="J106" t="n">
         <v>8472</v>
       </c>
       <c r="K106" t="n">
-        <v>9428</v>
+        <v>9463</v>
       </c>
       <c r="L106" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>95627</v>
+        <v>94988</v>
       </c>
     </row>
     <row r="107">
@@ -19038,41 +19169,41 @@
         <v>119</v>
       </c>
       <c r="B107" t="n">
-        <v>1083</v>
+        <v>1110</v>
       </c>
       <c r="C107" t="n">
-        <v>40781</v>
+        <v>40214</v>
       </c>
       <c r="D107" t="n">
-        <v>38946</v>
+        <v>38768</v>
       </c>
       <c r="E107" t="n">
-        <v>1756</v>
+        <v>1735</v>
       </c>
       <c r="F107" t="n">
-        <v>8093</v>
+        <v>8080</v>
       </c>
       <c r="G107" t="n">
         <v>16879</v>
       </c>
       <c r="H107" t="n">
-        <v>3869</v>
+        <v>3863</v>
       </c>
       <c r="I107" t="n">
-        <v>5841</v>
+        <v>5816</v>
       </c>
       <c r="J107" t="n">
-        <v>8982</v>
+        <v>9011</v>
       </c>
       <c r="K107" t="n">
-        <v>9750</v>
+        <v>9767</v>
       </c>
       <c r="L107" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>100002</v>
+        <v>99814</v>
       </c>
     </row>
     <row r="108">
@@ -19080,41 +19211,83 @@
         <v>120</v>
       </c>
       <c r="B108" t="n">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C108" t="n">
-        <v>44468</v>
+        <v>44051</v>
       </c>
       <c r="D108" t="n">
-        <v>43614</v>
+        <v>43012</v>
       </c>
       <c r="E108" t="n">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="F108" t="n">
-        <v>8492</v>
+        <v>8490</v>
       </c>
       <c r="G108" t="n">
-        <v>17108</v>
+        <v>17205</v>
       </c>
       <c r="H108" t="n">
-        <v>3865</v>
+        <v>3852</v>
       </c>
       <c r="I108" t="n">
-        <v>6027</v>
+        <v>5951</v>
       </c>
       <c r="J108" t="n">
-        <v>9451</v>
+        <v>9439</v>
       </c>
       <c r="K108" t="n">
-        <v>10054</v>
+        <v>9996</v>
       </c>
       <c r="L108" t="n">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>102628</v>
+        <v>102918</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="n">
+        <v>991</v>
+      </c>
+      <c r="C109" t="n">
+        <v>38767</v>
+      </c>
+      <c r="D109" t="n">
+        <v>35946</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2149</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18873</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3769</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6054</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9329</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10214</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1095</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>98398</v>
       </c>
     </row>
   </sheetData>

--- a/NQQ_47.xlsx
+++ b/NQQ_47.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t xml:space="preserve">quarter</t>
   </si>
@@ -382,6 +382,9 @@
   <si>
     <t xml:space="preserve">2021Q4</t>
   </si>
+  <si>
+    <t xml:space="preserve">2022Q1</t>
+  </si>
 </sst>
 </file>
 
@@ -5292,6 +5295,48 @@
         <v>99049</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="n">
+        <v>768</v>
+      </c>
+      <c r="C110" t="n">
+        <v>50208</v>
+      </c>
+      <c r="D110" t="n">
+        <v>48828</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1664</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9198</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18424</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3751</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5260</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9813</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8823</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1104</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>107367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5373,7 +5418,7 @@
         <v>958</v>
       </c>
       <c r="H2" t="n">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="I2" t="n">
         <v>2789</v>
@@ -5389,7 +5434,7 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>22107</v>
+        <v>22125</v>
       </c>
     </row>
     <row r="3">
@@ -5415,7 +5460,7 @@
         <v>1008</v>
       </c>
       <c r="H3" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I3" t="n">
         <v>2788</v>
@@ -5431,7 +5476,7 @@
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
-        <v>22185</v>
+        <v>22184</v>
       </c>
     </row>
     <row r="4">
@@ -5457,7 +5502,7 @@
         <v>1055</v>
       </c>
       <c r="H4" t="n">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="I4" t="n">
         <v>2826</v>
@@ -5473,7 +5518,7 @@
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>22630</v>
+        <v>22638</v>
       </c>
     </row>
     <row r="5">
@@ -5499,7 +5544,7 @@
         <v>985</v>
       </c>
       <c r="H5" t="n">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="I5" t="n">
         <v>2841</v>
@@ -5515,7 +5560,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>22423</v>
+        <v>22399</v>
       </c>
     </row>
     <row r="6">
@@ -5541,7 +5586,7 @@
         <v>986</v>
       </c>
       <c r="H6" t="n">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="I6" t="n">
         <v>2933</v>
@@ -5557,7 +5602,7 @@
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>23806</v>
+        <v>23828</v>
       </c>
     </row>
     <row r="7">
@@ -5583,7 +5628,7 @@
         <v>1051</v>
       </c>
       <c r="H7" t="n">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="I7" t="n">
         <v>2901</v>
@@ -5599,7 +5644,7 @@
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>23996</v>
+        <v>23995</v>
       </c>
     </row>
     <row r="8">
@@ -5625,7 +5670,7 @@
         <v>1070</v>
       </c>
       <c r="H8" t="n">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="I8" t="n">
         <v>3009</v>
@@ -5641,7 +5686,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>23881</v>
+        <v>23886</v>
       </c>
     </row>
     <row r="9">
@@ -5667,7 +5712,7 @@
         <v>1144</v>
       </c>
       <c r="H9" t="n">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="I9" t="n">
         <v>3049</v>
@@ -5683,7 +5728,7 @@
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>23758</v>
+        <v>23730</v>
       </c>
     </row>
     <row r="10">
@@ -5709,7 +5754,7 @@
         <v>1220</v>
       </c>
       <c r="H10" t="n">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="I10" t="n">
         <v>3020</v>
@@ -5725,7 +5770,7 @@
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>25367</v>
+        <v>25386</v>
       </c>
     </row>
     <row r="11">
@@ -5751,7 +5796,7 @@
         <v>1193</v>
       </c>
       <c r="H11" t="n">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="I11" t="n">
         <v>3104</v>
@@ -5767,7 +5812,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>26335</v>
+        <v>26336</v>
       </c>
     </row>
     <row r="12">
@@ -5793,10 +5838,10 @@
         <v>1268</v>
       </c>
       <c r="H12" t="n">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="I12" t="n">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="J12" t="n">
         <v>1986</v>
@@ -5809,7 +5854,7 @@
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>26534</v>
+        <v>26540</v>
       </c>
     </row>
     <row r="13">
@@ -5835,7 +5880,7 @@
         <v>1346</v>
       </c>
       <c r="H13" t="n">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="I13" t="n">
         <v>3219</v>
@@ -5851,7 +5896,7 @@
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>26786</v>
+        <v>26758</v>
       </c>
     </row>
     <row r="14">
@@ -5877,7 +5922,7 @@
         <v>1409</v>
       </c>
       <c r="H14" t="n">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="I14" t="n">
         <v>3326</v>
@@ -5893,7 +5938,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>27837</v>
+        <v>27855</v>
       </c>
     </row>
     <row r="15">
@@ -5919,7 +5964,7 @@
         <v>1519</v>
       </c>
       <c r="H15" t="n">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="I15" t="n">
         <v>3458</v>
@@ -5935,7 +5980,7 @@
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
-        <v>28404</v>
+        <v>28403</v>
       </c>
     </row>
     <row r="16">
@@ -5961,7 +6006,7 @@
         <v>1448</v>
       </c>
       <c r="H16" t="n">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="I16" t="n">
         <v>3492</v>
@@ -5977,7 +6022,7 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>29314</v>
+        <v>29320</v>
       </c>
     </row>
     <row r="17">
@@ -6003,7 +6048,7 @@
         <v>1491</v>
       </c>
       <c r="H17" t="n">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="I17" t="n">
         <v>3572</v>
@@ -6019,7 +6064,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>28164</v>
+        <v>28137</v>
       </c>
     </row>
     <row r="18">
@@ -6045,7 +6090,7 @@
         <v>1540</v>
       </c>
       <c r="H18" t="n">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="I18" t="n">
         <v>3713</v>
@@ -6061,7 +6106,7 @@
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
-        <v>30317</v>
+        <v>30336</v>
       </c>
     </row>
     <row r="19">
@@ -6087,7 +6132,7 @@
         <v>1605</v>
       </c>
       <c r="H19" t="n">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="I19" t="n">
         <v>3671</v>
@@ -6129,7 +6174,7 @@
         <v>1697</v>
       </c>
       <c r="H20" t="n">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="I20" t="n">
         <v>3720</v>
@@ -6145,7 +6190,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>31758</v>
+        <v>31766</v>
       </c>
     </row>
     <row r="21">
@@ -6171,7 +6216,7 @@
         <v>1817</v>
       </c>
       <c r="H21" t="n">
-        <v>3199</v>
+        <v>3205</v>
       </c>
       <c r="I21" t="n">
         <v>3810</v>
@@ -6187,7 +6232,7 @@
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
-        <v>31954</v>
+        <v>31931</v>
       </c>
     </row>
     <row r="22">
@@ -6213,7 +6258,7 @@
         <v>1626</v>
       </c>
       <c r="H22" t="n">
-        <v>3497</v>
+        <v>3493</v>
       </c>
       <c r="I22" t="n">
         <v>3848</v>
@@ -6229,7 +6274,7 @@
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>32467</v>
+        <v>32485</v>
       </c>
     </row>
     <row r="23">
@@ -6255,7 +6300,7 @@
         <v>1621</v>
       </c>
       <c r="H23" t="n">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="I23" t="n">
         <v>3905</v>
@@ -6271,7 +6316,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>33654</v>
+        <v>33653</v>
       </c>
     </row>
     <row r="24">
@@ -6297,10 +6342,10 @@
         <v>1704</v>
       </c>
       <c r="H24" t="n">
-        <v>3707</v>
+        <v>3711</v>
       </c>
       <c r="I24" t="n">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="J24" t="n">
         <v>2749</v>
@@ -6313,7 +6358,7 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
-        <v>34004</v>
+        <v>34013</v>
       </c>
     </row>
     <row r="25">
@@ -6339,7 +6384,7 @@
         <v>1774</v>
       </c>
       <c r="H25" t="n">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="I25" t="n">
         <v>3986</v>
@@ -6355,7 +6400,7 @@
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>34607</v>
+        <v>34580</v>
       </c>
     </row>
     <row r="26">
@@ -6381,7 +6426,7 @@
         <v>1818</v>
       </c>
       <c r="H26" t="n">
-        <v>3813</v>
+        <v>3822</v>
       </c>
       <c r="I26" t="n">
         <v>3994</v>
@@ -6397,7 +6442,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>35341</v>
+        <v>35365</v>
       </c>
     </row>
     <row r="27">
@@ -6423,7 +6468,7 @@
         <v>1650</v>
       </c>
       <c r="H27" t="n">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="I27" t="n">
         <v>4129</v>
@@ -6439,7 +6484,7 @@
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>36013</v>
+        <v>36012</v>
       </c>
     </row>
     <row r="28">
@@ -6465,7 +6510,7 @@
         <v>1774</v>
       </c>
       <c r="H28" t="n">
-        <v>3965</v>
+        <v>3960</v>
       </c>
       <c r="I28" t="n">
         <v>4098</v>
@@ -6481,7 +6526,7 @@
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>35811</v>
+        <v>35816</v>
       </c>
     </row>
     <row r="29">
@@ -6507,7 +6552,7 @@
         <v>1758</v>
       </c>
       <c r="H29" t="n">
-        <v>4046</v>
+        <v>4042</v>
       </c>
       <c r="I29" t="n">
         <v>4202</v>
@@ -6523,7 +6568,7 @@
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
-        <v>36304</v>
+        <v>36276</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6594,7 @@
         <v>1875</v>
       </c>
       <c r="H30" t="n">
-        <v>4104</v>
+        <v>4116</v>
       </c>
       <c r="I30" t="n">
         <v>4232</v>
@@ -6565,7 +6610,7 @@
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>37451</v>
+        <v>37477</v>
       </c>
     </row>
     <row r="31">
@@ -6591,7 +6636,7 @@
         <v>1899</v>
       </c>
       <c r="H31" t="n">
-        <v>4082</v>
+        <v>4086</v>
       </c>
       <c r="I31" t="n">
         <v>4273</v>
@@ -6607,7 +6652,7 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>37689</v>
+        <v>37690</v>
       </c>
     </row>
     <row r="32">
@@ -6633,10 +6678,10 @@
         <v>1968</v>
       </c>
       <c r="H32" t="n">
-        <v>4184</v>
+        <v>4180</v>
       </c>
       <c r="I32" t="n">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="J32" t="n">
         <v>3142</v>
@@ -6649,7 +6694,7 @@
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>38425</v>
+        <v>38430</v>
       </c>
     </row>
     <row r="33">
@@ -6675,7 +6720,7 @@
         <v>2037</v>
       </c>
       <c r="H33" t="n">
-        <v>4244</v>
+        <v>4225</v>
       </c>
       <c r="I33" t="n">
         <v>4510</v>
@@ -6691,7 +6736,7 @@
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>38795</v>
+        <v>38760</v>
       </c>
     </row>
     <row r="34">
@@ -6717,7 +6762,7 @@
         <v>1615</v>
       </c>
       <c r="H34" t="n">
-        <v>4010</v>
+        <v>4029</v>
       </c>
       <c r="I34" t="n">
         <v>4597</v>
@@ -6733,7 +6778,7 @@
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>38536</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="35">
@@ -6759,7 +6804,7 @@
         <v>1776</v>
       </c>
       <c r="H35" t="n">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="I35" t="n">
         <v>4685</v>
@@ -6775,7 +6820,7 @@
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>38804</v>
+        <v>38802</v>
       </c>
     </row>
     <row r="36">
@@ -6817,7 +6862,7 @@
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>38932</v>
+        <v>38939</v>
       </c>
     </row>
     <row r="37">
@@ -6843,7 +6888,7 @@
         <v>1798</v>
       </c>
       <c r="H37" t="n">
-        <v>4296</v>
+        <v>4274</v>
       </c>
       <c r="I37" t="n">
         <v>5123</v>
@@ -6859,7 +6904,7 @@
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>41018</v>
+        <v>40982</v>
       </c>
     </row>
     <row r="38">
@@ -6885,7 +6930,7 @@
         <v>1987</v>
       </c>
       <c r="H38" t="n">
-        <v>4641</v>
+        <v>4652</v>
       </c>
       <c r="I38" t="n">
         <v>4887</v>
@@ -6901,7 +6946,7 @@
       </c>
       <c r="M38"/>
       <c r="N38" t="n">
-        <v>40922</v>
+        <v>40946</v>
       </c>
     </row>
     <row r="39">
@@ -6927,7 +6972,7 @@
         <v>2048</v>
       </c>
       <c r="H39" t="n">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I39" t="n">
         <v>4924</v>
@@ -6943,7 +6988,7 @@
       </c>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>41770</v>
+        <v>41768</v>
       </c>
     </row>
     <row r="40">
@@ -6969,10 +7014,10 @@
         <v>2082</v>
       </c>
       <c r="H40" t="n">
-        <v>4787</v>
+        <v>4794</v>
       </c>
       <c r="I40" t="n">
-        <v>4817</v>
+        <v>4818</v>
       </c>
       <c r="J40" t="n">
         <v>3404</v>
@@ -6985,7 +7030,7 @@
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>41434</v>
+        <v>41444</v>
       </c>
     </row>
     <row r="41">
@@ -7011,7 +7056,7 @@
         <v>2183</v>
       </c>
       <c r="H41" t="n">
-        <v>4915</v>
+        <v>4913</v>
       </c>
       <c r="I41" t="n">
         <v>4989</v>
@@ -7027,7 +7072,7 @@
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
-        <v>42431</v>
+        <v>42405</v>
       </c>
     </row>
     <row r="42">
@@ -7038,7 +7083,7 @@
         <v>520</v>
       </c>
       <c r="C42" t="n">
-        <v>13703</v>
+        <v>13704</v>
       </c>
       <c r="D42" t="n">
         <v>12404</v>
@@ -7053,7 +7098,7 @@
         <v>2223</v>
       </c>
       <c r="H42" t="n">
-        <v>4867</v>
+        <v>4859</v>
       </c>
       <c r="I42" t="n">
         <v>4989</v>
@@ -7069,7 +7114,7 @@
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>42991</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="43">
@@ -7095,7 +7140,7 @@
         <v>2340</v>
       </c>
       <c r="H43" t="n">
-        <v>4895</v>
+        <v>4901</v>
       </c>
       <c r="I43" t="n">
         <v>4950</v>
@@ -7111,7 +7156,7 @@
       </c>
       <c r="M43"/>
       <c r="N43" t="n">
-        <v>43713</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="44">
@@ -7137,7 +7182,7 @@
         <v>2339</v>
       </c>
       <c r="H44" t="n">
-        <v>4890</v>
+        <v>4889</v>
       </c>
       <c r="I44" t="n">
         <v>5101</v>
@@ -7153,7 +7198,7 @@
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>43037</v>
+        <v>43044</v>
       </c>
     </row>
     <row r="45">
@@ -7164,7 +7209,7 @@
         <v>432</v>
       </c>
       <c r="C45" t="n">
-        <v>14196</v>
+        <v>14195</v>
       </c>
       <c r="D45" t="n">
         <v>12947</v>
@@ -7179,7 +7224,7 @@
         <v>2373</v>
       </c>
       <c r="H45" t="n">
-        <v>5049</v>
+        <v>5065</v>
       </c>
       <c r="I45" t="n">
         <v>5527</v>
@@ -7195,7 +7240,7 @@
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>44938</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="46">
@@ -7206,7 +7251,7 @@
         <v>456</v>
       </c>
       <c r="C46" t="n">
-        <v>13391</v>
+        <v>13392</v>
       </c>
       <c r="D46" t="n">
         <v>12002</v>
@@ -7221,7 +7266,7 @@
         <v>2386</v>
       </c>
       <c r="H46" t="n">
-        <v>5463</v>
+        <v>5475</v>
       </c>
       <c r="I46" t="n">
         <v>5716</v>
@@ -7237,7 +7282,7 @@
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
-        <v>45130</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="47">
@@ -7248,7 +7293,7 @@
         <v>431</v>
       </c>
       <c r="C47" t="n">
-        <v>14682</v>
+        <v>14681</v>
       </c>
       <c r="D47" t="n">
         <v>13357</v>
@@ -7263,7 +7308,7 @@
         <v>2420</v>
       </c>
       <c r="H47" t="n">
-        <v>5477</v>
+        <v>5474</v>
       </c>
       <c r="I47" t="n">
         <v>5543</v>
@@ -7279,7 +7324,7 @@
       </c>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>45313</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="48">
@@ -7305,7 +7350,7 @@
         <v>2788</v>
       </c>
       <c r="H48" t="n">
-        <v>5451</v>
+        <v>5456</v>
       </c>
       <c r="I48" t="n">
         <v>5723</v>
@@ -7321,7 +7366,7 @@
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
-        <v>45781</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="49">
@@ -7332,7 +7377,7 @@
         <v>438</v>
       </c>
       <c r="C49" t="n">
-        <v>13642</v>
+        <v>13641</v>
       </c>
       <c r="D49" t="n">
         <v>12281</v>
@@ -7347,10 +7392,10 @@
         <v>2856</v>
       </c>
       <c r="H49" t="n">
-        <v>5583</v>
+        <v>5580</v>
       </c>
       <c r="I49" t="n">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="J49" t="n">
         <v>3567</v>
@@ -7363,7 +7408,7 @@
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>45940</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="50">
@@ -7374,7 +7419,7 @@
         <v>466</v>
       </c>
       <c r="C50" t="n">
-        <v>14941</v>
+        <v>14942</v>
       </c>
       <c r="D50" t="n">
         <v>13563</v>
@@ -7389,7 +7434,7 @@
         <v>3237</v>
       </c>
       <c r="H50" t="n">
-        <v>5507</v>
+        <v>5522</v>
       </c>
       <c r="I50" t="n">
         <v>5600</v>
@@ -7405,7 +7450,7 @@
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>48853</v>
+        <v>48878</v>
       </c>
     </row>
     <row r="51">
@@ -7431,7 +7476,7 @@
         <v>3286</v>
       </c>
       <c r="H51" t="n">
-        <v>5686</v>
+        <v>5682</v>
       </c>
       <c r="I51" t="n">
         <v>5603</v>
@@ -7447,7 +7492,7 @@
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>48103</v>
+        <v>48099</v>
       </c>
     </row>
     <row r="52">
@@ -7458,7 +7503,7 @@
         <v>421</v>
       </c>
       <c r="C52" t="n">
-        <v>14681</v>
+        <v>14682</v>
       </c>
       <c r="D52" t="n">
         <v>13320</v>
@@ -7473,7 +7518,7 @@
         <v>2726</v>
       </c>
       <c r="H52" t="n">
-        <v>6014</v>
+        <v>6004</v>
       </c>
       <c r="I52" t="n">
         <v>5437</v>
@@ -7489,7 +7534,7 @@
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>47296</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="53">
@@ -7500,7 +7545,7 @@
         <v>416</v>
       </c>
       <c r="C53" t="n">
-        <v>15427</v>
+        <v>15428</v>
       </c>
       <c r="D53" t="n">
         <v>14056</v>
@@ -7515,10 +7560,10 @@
         <v>3093</v>
       </c>
       <c r="H53" t="n">
-        <v>5528</v>
+        <v>5533</v>
       </c>
       <c r="I53" t="n">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="J53" t="n">
         <v>4731</v>
@@ -7531,7 +7576,7 @@
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>49488</v>
+        <v>49466</v>
       </c>
     </row>
     <row r="54">
@@ -7542,7 +7587,7 @@
         <v>465</v>
       </c>
       <c r="C54" t="n">
-        <v>14013</v>
+        <v>14012</v>
       </c>
       <c r="D54" t="n">
         <v>12540</v>
@@ -7557,7 +7602,7 @@
         <v>3251</v>
       </c>
       <c r="H54" t="n">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="I54" t="n">
         <v>5348</v>
@@ -7573,7 +7618,7 @@
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>48343</v>
+        <v>48362</v>
       </c>
     </row>
     <row r="55">
@@ -7599,7 +7644,7 @@
         <v>3424</v>
       </c>
       <c r="H55" t="n">
-        <v>5713</v>
+        <v>5717</v>
       </c>
       <c r="I55" t="n">
         <v>5152</v>
@@ -7615,7 +7660,7 @@
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>47353</v>
+        <v>47351</v>
       </c>
     </row>
     <row r="56">
@@ -7626,7 +7671,7 @@
         <v>523</v>
       </c>
       <c r="C56" t="n">
-        <v>13635</v>
+        <v>13636</v>
       </c>
       <c r="D56" t="n">
         <v>12352</v>
@@ -7641,7 +7686,7 @@
         <v>3580</v>
       </c>
       <c r="H56" t="n">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="I56" t="n">
         <v>4883</v>
@@ -7657,7 +7702,7 @@
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
-        <v>47146</v>
+        <v>47155</v>
       </c>
     </row>
     <row r="57">
@@ -7668,7 +7713,7 @@
         <v>470</v>
       </c>
       <c r="C57" t="n">
-        <v>12476</v>
+        <v>12478</v>
       </c>
       <c r="D57" t="n">
         <v>10829</v>
@@ -7683,7 +7728,7 @@
         <v>3630</v>
       </c>
       <c r="H57" t="n">
-        <v>5662</v>
+        <v>5649</v>
       </c>
       <c r="I57" t="n">
         <v>4714</v>
@@ -7699,7 +7744,7 @@
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
-        <v>45505</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="58">
@@ -7710,7 +7755,7 @@
         <v>377</v>
       </c>
       <c r="C58" t="n">
-        <v>13490</v>
+        <v>13485</v>
       </c>
       <c r="D58" t="n">
         <v>12161</v>
@@ -7725,7 +7770,7 @@
         <v>3524</v>
       </c>
       <c r="H58" t="n">
-        <v>5537</v>
+        <v>5540</v>
       </c>
       <c r="I58" t="n">
         <v>4708</v>
@@ -7741,7 +7786,7 @@
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
-        <v>46086</v>
+        <v>46101</v>
       </c>
     </row>
     <row r="59">
@@ -7752,7 +7797,7 @@
         <v>406</v>
       </c>
       <c r="C59" t="n">
-        <v>13211</v>
+        <v>13212</v>
       </c>
       <c r="D59" t="n">
         <v>12080</v>
@@ -7767,7 +7812,7 @@
         <v>3685</v>
       </c>
       <c r="H59" t="n">
-        <v>5630</v>
+        <v>5622</v>
       </c>
       <c r="I59" t="n">
         <v>4590</v>
@@ -7783,7 +7828,7 @@
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
-        <v>45650</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="60">
@@ -7794,7 +7839,7 @@
         <v>364</v>
       </c>
       <c r="C60" t="n">
-        <v>12206</v>
+        <v>12209</v>
       </c>
       <c r="D60" t="n">
         <v>10953</v>
@@ -7809,7 +7854,7 @@
         <v>3798</v>
       </c>
       <c r="H60" t="n">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="I60" t="n">
         <v>4575</v>
@@ -7825,7 +7870,7 @@
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>44915</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="61">
@@ -7836,7 +7881,7 @@
         <v>429</v>
       </c>
       <c r="C61" t="n">
-        <v>11880</v>
+        <v>11883</v>
       </c>
       <c r="D61" t="n">
         <v>10489</v>
@@ -7851,7 +7896,7 @@
         <v>3754</v>
       </c>
       <c r="H61" t="n">
-        <v>5046</v>
+        <v>5041</v>
       </c>
       <c r="I61" t="n">
         <v>4551</v>
@@ -7867,7 +7912,7 @@
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>44433</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="62">
@@ -7878,7 +7923,7 @@
         <v>465</v>
       </c>
       <c r="C62" t="n">
-        <v>13595</v>
+        <v>13583</v>
       </c>
       <c r="D62" t="n">
         <v>12300</v>
@@ -7909,7 +7954,7 @@
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>45905</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="63">
@@ -7920,7 +7965,7 @@
         <v>515</v>
       </c>
       <c r="C63" t="n">
-        <v>12336</v>
+        <v>12339</v>
       </c>
       <c r="D63" t="n">
         <v>11182</v>
@@ -7935,7 +7980,7 @@
         <v>3801</v>
       </c>
       <c r="H63" t="n">
-        <v>6134</v>
+        <v>6125</v>
       </c>
       <c r="I63" t="n">
         <v>4375</v>
@@ -7951,7 +7996,7 @@
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>45777</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="64">
@@ -7962,7 +8007,7 @@
         <v>506</v>
       </c>
       <c r="C64" t="n">
-        <v>13371</v>
+        <v>13384</v>
       </c>
       <c r="D64" t="n">
         <v>12103</v>
@@ -7977,7 +8022,7 @@
         <v>4278</v>
       </c>
       <c r="H64" t="n">
-        <v>5728</v>
+        <v>5741</v>
       </c>
       <c r="I64" t="n">
         <v>4383</v>
@@ -7993,7 +8038,7 @@
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>45951</v>
+        <v>45976</v>
       </c>
     </row>
     <row r="65">
@@ -8004,10 +8049,10 @@
         <v>381</v>
       </c>
       <c r="C65" t="n">
-        <v>13707</v>
+        <v>13709</v>
       </c>
       <c r="D65" t="n">
-        <v>12329</v>
+        <v>12330</v>
       </c>
       <c r="E65" t="n">
         <v>1332</v>
@@ -8019,7 +8064,7 @@
         <v>4092</v>
       </c>
       <c r="H65" t="n">
-        <v>5599</v>
+        <v>5607</v>
       </c>
       <c r="I65" t="n">
         <v>4308</v>
@@ -8035,7 +8080,7 @@
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>45867</v>
+        <v>45850</v>
       </c>
     </row>
     <row r="66">
@@ -8046,7 +8091,7 @@
         <v>532</v>
       </c>
       <c r="C66" t="n">
-        <v>13178</v>
+        <v>13147</v>
       </c>
       <c r="D66" t="n">
         <v>11927</v>
@@ -8061,7 +8106,7 @@
         <v>3981</v>
       </c>
       <c r="H66" t="n">
-        <v>5421</v>
+        <v>5410</v>
       </c>
       <c r="I66" t="n">
         <v>4417</v>
@@ -8077,7 +8122,7 @@
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>46308</v>
+        <v>46295</v>
       </c>
     </row>
     <row r="67">
@@ -8088,10 +8133,10 @@
         <v>537</v>
       </c>
       <c r="C67" t="n">
-        <v>13397</v>
+        <v>13406</v>
       </c>
       <c r="D67" t="n">
-        <v>12290</v>
+        <v>12289</v>
       </c>
       <c r="E67" t="n">
         <v>1276</v>
@@ -8103,7 +8148,7 @@
         <v>4089</v>
       </c>
       <c r="H67" t="n">
-        <v>5578</v>
+        <v>5570</v>
       </c>
       <c r="I67" t="n">
         <v>4384</v>
@@ -8119,7 +8164,7 @@
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>47186</v>
+        <v>47188</v>
       </c>
     </row>
     <row r="68">
@@ -8130,7 +8175,7 @@
         <v>561</v>
       </c>
       <c r="C68" t="n">
-        <v>13789</v>
+        <v>13830</v>
       </c>
       <c r="D68" t="n">
         <v>12579</v>
@@ -8145,7 +8190,7 @@
         <v>4029</v>
       </c>
       <c r="H68" t="n">
-        <v>5469</v>
+        <v>5475</v>
       </c>
       <c r="I68" t="n">
         <v>4376</v>
@@ -8161,7 +8206,7 @@
       </c>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>46321</v>
+        <v>46357</v>
       </c>
     </row>
     <row r="69">
@@ -8172,7 +8217,7 @@
         <v>534</v>
       </c>
       <c r="C69" t="n">
-        <v>14088</v>
+        <v>14089</v>
       </c>
       <c r="D69" t="n">
         <v>12886</v>
@@ -8187,7 +8232,7 @@
         <v>4081</v>
       </c>
       <c r="H69" t="n">
-        <v>5674</v>
+        <v>5698</v>
       </c>
       <c r="I69" t="n">
         <v>4328</v>
@@ -8203,7 +8248,7 @@
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>46200</v>
+        <v>46193</v>
       </c>
     </row>
     <row r="70">
@@ -8214,10 +8259,10 @@
         <v>555</v>
       </c>
       <c r="C70" t="n">
-        <v>13777</v>
+        <v>13707</v>
       </c>
       <c r="D70" t="n">
-        <v>12485</v>
+        <v>12486</v>
       </c>
       <c r="E70" t="n">
         <v>1198</v>
@@ -8229,10 +8274,10 @@
         <v>4314</v>
       </c>
       <c r="H70" t="n">
-        <v>4694</v>
+        <v>4697</v>
       </c>
       <c r="I70" t="n">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="J70" t="n">
         <v>4667</v>
@@ -8245,7 +8290,7 @@
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>46021</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="71">
@@ -8256,10 +8301,10 @@
         <v>515</v>
       </c>
       <c r="C71" t="n">
-        <v>13492</v>
+        <v>13474</v>
       </c>
       <c r="D71" t="n">
-        <v>12460</v>
+        <v>12459</v>
       </c>
       <c r="E71" t="n">
         <v>1195</v>
@@ -8271,7 +8316,7 @@
         <v>4023</v>
       </c>
       <c r="H71" t="n">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="I71" t="n">
         <v>4477</v>
@@ -8287,7 +8332,7 @@
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>47094</v>
+        <v>47090</v>
       </c>
     </row>
     <row r="72">
@@ -8298,7 +8343,7 @@
         <v>372</v>
       </c>
       <c r="C72" t="n">
-        <v>13410</v>
+        <v>13558</v>
       </c>
       <c r="D72" t="n">
         <v>12417</v>
@@ -8313,7 +8358,7 @@
         <v>3867</v>
       </c>
       <c r="H72" t="n">
-        <v>4748</v>
+        <v>4746</v>
       </c>
       <c r="I72" t="n">
         <v>4487</v>
@@ -8329,7 +8374,7 @@
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>45975</v>
+        <v>46062</v>
       </c>
     </row>
     <row r="73">
@@ -8340,7 +8385,7 @@
         <v>316</v>
       </c>
       <c r="C73" t="n">
-        <v>12858</v>
+        <v>12837</v>
       </c>
       <c r="D73" t="n">
         <v>11498</v>
@@ -8355,7 +8400,7 @@
         <v>4188</v>
       </c>
       <c r="H73" t="n">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="I73" t="n">
         <v>4532</v>
@@ -8371,7 +8416,7 @@
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>46532</v>
+        <v>46502</v>
       </c>
     </row>
     <row r="74">
@@ -8382,7 +8427,7 @@
         <v>326</v>
       </c>
       <c r="C74" t="n">
-        <v>12979</v>
+        <v>12842</v>
       </c>
       <c r="D74" t="n">
         <v>11741</v>
@@ -8397,23 +8442,23 @@
         <v>4260</v>
       </c>
       <c r="H74" t="n">
-        <v>4404</v>
+        <v>4410</v>
       </c>
       <c r="I74" t="n">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="J74" t="n">
         <v>5028</v>
       </c>
       <c r="K74" t="n">
-        <v>7510</v>
+        <v>7511</v>
       </c>
       <c r="L74" t="n">
         <v>792</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>45597</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="75">
@@ -8424,10 +8469,10 @@
         <v>364</v>
       </c>
       <c r="C75" t="n">
-        <v>12969</v>
+        <v>12949</v>
       </c>
       <c r="D75" t="n">
-        <v>11891</v>
+        <v>11890</v>
       </c>
       <c r="E75" t="n">
         <v>1293</v>
@@ -8439,13 +8484,13 @@
         <v>4598</v>
       </c>
       <c r="H75" t="n">
-        <v>4400</v>
+        <v>4405</v>
       </c>
       <c r="I75" t="n">
         <v>4602</v>
       </c>
       <c r="J75" t="n">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="K75" t="n">
         <v>7538</v>
@@ -8455,7 +8500,7 @@
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>47128</v>
+        <v>47126</v>
       </c>
     </row>
     <row r="76">
@@ -8466,25 +8511,25 @@
         <v>583</v>
       </c>
       <c r="C76" t="n">
-        <v>13027</v>
+        <v>13264</v>
       </c>
       <c r="D76" t="n">
         <v>11753</v>
       </c>
       <c r="E76" t="n">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F76" t="n">
-        <v>7052</v>
+        <v>7051</v>
       </c>
       <c r="G76" t="n">
         <v>4516</v>
       </c>
       <c r="H76" t="n">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="I76" t="n">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="J76" t="n">
         <v>5181</v>
@@ -8497,7 +8542,7 @@
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
-        <v>47854</v>
+        <v>47992</v>
       </c>
     </row>
     <row r="77">
@@ -8508,10 +8553,10 @@
         <v>517</v>
       </c>
       <c r="C77" t="n">
-        <v>12851</v>
+        <v>12818</v>
       </c>
       <c r="D77" t="n">
-        <v>11456</v>
+        <v>11455</v>
       </c>
       <c r="E77" t="n">
         <v>1414</v>
@@ -8523,7 +8568,7 @@
         <v>4795</v>
       </c>
       <c r="H77" t="n">
-        <v>4212</v>
+        <v>4200</v>
       </c>
       <c r="I77" t="n">
         <v>4685</v>
@@ -8539,7 +8584,7 @@
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
-        <v>47635</v>
+        <v>47594</v>
       </c>
     </row>
     <row r="78">
@@ -8550,10 +8595,10 @@
         <v>473</v>
       </c>
       <c r="C78" t="n">
-        <v>13822</v>
+        <v>13617</v>
       </c>
       <c r="D78" t="n">
-        <v>12466</v>
+        <v>12467</v>
       </c>
       <c r="E78" t="n">
         <v>1422</v>
@@ -8565,13 +8610,13 @@
         <v>4576</v>
       </c>
       <c r="H78" t="n">
-        <v>4492</v>
+        <v>4502</v>
       </c>
       <c r="I78" t="n">
         <v>4745</v>
       </c>
       <c r="J78" t="n">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="K78" t="n">
         <v>7601</v>
@@ -8581,7 +8626,7 @@
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>49557</v>
+        <v>49446</v>
       </c>
     </row>
     <row r="79">
@@ -8592,7 +8637,7 @@
         <v>581</v>
       </c>
       <c r="C79" t="n">
-        <v>14982</v>
+        <v>14953</v>
       </c>
       <c r="D79" t="n">
         <v>13865</v>
@@ -8607,10 +8652,10 @@
         <v>5363</v>
       </c>
       <c r="H79" t="n">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="I79" t="n">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="J79" t="n">
         <v>5763</v>
@@ -8623,7 +8668,7 @@
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>51404</v>
+        <v>51396</v>
       </c>
     </row>
     <row r="80">
@@ -8634,7 +8679,7 @@
         <v>610</v>
       </c>
       <c r="C80" t="n">
-        <v>14486</v>
+        <v>14821</v>
       </c>
       <c r="D80" t="n">
         <v>12954</v>
@@ -8649,10 +8694,10 @@
         <v>5261</v>
       </c>
       <c r="H80" t="n">
-        <v>4596</v>
+        <v>4598</v>
       </c>
       <c r="I80" t="n">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="J80" t="n">
         <v>5941</v>
@@ -8665,7 +8710,7 @@
       </c>
       <c r="M80"/>
       <c r="N80" t="n">
-        <v>51669</v>
+        <v>51871</v>
       </c>
     </row>
     <row r="81">
@@ -8676,10 +8721,10 @@
         <v>621</v>
       </c>
       <c r="C81" t="n">
-        <v>13804</v>
+        <v>13754</v>
       </c>
       <c r="D81" t="n">
-        <v>12408</v>
+        <v>12407</v>
       </c>
       <c r="E81" t="n">
         <v>1373</v>
@@ -8691,7 +8736,7 @@
         <v>5270</v>
       </c>
       <c r="H81" t="n">
-        <v>4659</v>
+        <v>4644</v>
       </c>
       <c r="I81" t="n">
         <v>4888</v>
@@ -8700,14 +8745,14 @@
         <v>6139</v>
       </c>
       <c r="K81" t="n">
-        <v>7660</v>
+        <v>7659</v>
       </c>
       <c r="L81" t="n">
         <v>840</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>51201</v>
+        <v>51150</v>
       </c>
     </row>
     <row r="82">
@@ -8718,10 +8763,10 @@
         <v>554</v>
       </c>
       <c r="C82" t="n">
-        <v>27552</v>
+        <v>27101</v>
       </c>
       <c r="D82" t="n">
-        <v>26303</v>
+        <v>26307</v>
       </c>
       <c r="E82" t="n">
         <v>1486</v>
@@ -8736,20 +8781,20 @@
         <v>4914</v>
       </c>
       <c r="I82" t="n">
-        <v>4901</v>
+        <v>4902</v>
       </c>
       <c r="J82" t="n">
-        <v>6288</v>
+        <v>6287</v>
       </c>
       <c r="K82" t="n">
-        <v>7770</v>
+        <v>7771</v>
       </c>
       <c r="L82" t="n">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
-        <v>64999</v>
+        <v>64732</v>
       </c>
     </row>
     <row r="83">
@@ -8760,7 +8805,7 @@
         <v>554</v>
       </c>
       <c r="C83" t="n">
-        <v>24050</v>
+        <v>24105</v>
       </c>
       <c r="D83" t="n">
         <v>22870</v>
@@ -8775,7 +8820,7 @@
         <v>5892</v>
       </c>
       <c r="H83" t="n">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="I83" t="n">
         <v>4827</v>
@@ -8784,14 +8829,14 @@
         <v>6485</v>
       </c>
       <c r="K83" t="n">
-        <v>7805</v>
+        <v>7806</v>
       </c>
       <c r="L83" t="n">
         <v>887</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>63134</v>
+        <v>63170</v>
       </c>
     </row>
     <row r="84">
@@ -8802,13 +8847,13 @@
         <v>636</v>
       </c>
       <c r="C84" t="n">
-        <v>25292</v>
+        <v>25677</v>
       </c>
       <c r="D84" t="n">
-        <v>24285</v>
+        <v>24286</v>
       </c>
       <c r="E84" t="n">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F84" t="n">
         <v>8022</v>
@@ -8817,23 +8862,23 @@
         <v>6097</v>
       </c>
       <c r="H84" t="n">
-        <v>4886</v>
+        <v>4884</v>
       </c>
       <c r="I84" t="n">
         <v>4876</v>
       </c>
       <c r="J84" t="n">
-        <v>6763</v>
+        <v>6764</v>
       </c>
       <c r="K84" t="n">
-        <v>7921</v>
+        <v>7920</v>
       </c>
       <c r="L84" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>64916</v>
+        <v>65168</v>
       </c>
     </row>
     <row r="85">
@@ -8844,10 +8889,10 @@
         <v>685</v>
       </c>
       <c r="C85" t="n">
-        <v>25814</v>
+        <v>25769</v>
       </c>
       <c r="D85" t="n">
-        <v>25059</v>
+        <v>25052</v>
       </c>
       <c r="E85" t="n">
         <v>1552</v>
@@ -8859,13 +8904,13 @@
         <v>5925</v>
       </c>
       <c r="H85" t="n">
-        <v>4805</v>
+        <v>4797</v>
       </c>
       <c r="I85" t="n">
         <v>4863</v>
       </c>
       <c r="J85" t="n">
-        <v>6642</v>
+        <v>6643</v>
       </c>
       <c r="K85" t="n">
         <v>7995</v>
@@ -8875,7 +8920,7 @@
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
-        <v>65828</v>
+        <v>65784</v>
       </c>
     </row>
     <row r="86">
@@ -8883,16 +8928,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C86" t="n">
-        <v>25016</v>
+        <v>24724</v>
       </c>
       <c r="D86" t="n">
-        <v>23569</v>
+        <v>23575</v>
       </c>
       <c r="E86" t="n">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="F86" t="n">
         <v>8422</v>
@@ -8901,23 +8946,23 @@
         <v>6060</v>
       </c>
       <c r="H86" t="n">
-        <v>4389</v>
+        <v>4376</v>
       </c>
       <c r="I86" t="n">
         <v>4840</v>
       </c>
       <c r="J86" t="n">
-        <v>6789</v>
+        <v>6788</v>
       </c>
       <c r="K86" t="n">
         <v>7978</v>
       </c>
       <c r="L86" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>63699</v>
+        <v>63477</v>
       </c>
     </row>
     <row r="87">
@@ -8928,25 +8973,25 @@
         <v>686</v>
       </c>
       <c r="C87" t="n">
-        <v>24058</v>
+        <v>24120</v>
       </c>
       <c r="D87" t="n">
-        <v>22684</v>
+        <v>22683</v>
       </c>
       <c r="E87" t="n">
         <v>1662</v>
       </c>
       <c r="F87" t="n">
-        <v>8361</v>
+        <v>8360</v>
       </c>
       <c r="G87" t="n">
         <v>6047</v>
       </c>
       <c r="H87" t="n">
-        <v>4487</v>
+        <v>4493</v>
       </c>
       <c r="I87" t="n">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="J87" t="n">
         <v>6816</v>
@@ -8955,11 +9000,11 @@
         <v>8000</v>
       </c>
       <c r="L87" t="n">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>64559</v>
+        <v>64600</v>
       </c>
     </row>
     <row r="88">
@@ -8970,38 +9015,38 @@
         <v>662</v>
       </c>
       <c r="C88" t="n">
-        <v>21781</v>
+        <v>21945</v>
       </c>
       <c r="D88" t="n">
-        <v>20781</v>
+        <v>20784</v>
       </c>
       <c r="E88" t="n">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F88" t="n">
-        <v>8511</v>
+        <v>8510</v>
       </c>
       <c r="G88" t="n">
         <v>6901</v>
       </c>
       <c r="H88" t="n">
-        <v>4132</v>
+        <v>4134</v>
       </c>
       <c r="I88" t="n">
-        <v>4898</v>
+        <v>4899</v>
       </c>
       <c r="J88" t="n">
-        <v>6957</v>
+        <v>6958</v>
       </c>
       <c r="K88" t="n">
         <v>7979</v>
       </c>
       <c r="L88" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>63923</v>
+        <v>64108</v>
       </c>
     </row>
     <row r="89">
@@ -9009,28 +9054,28 @@
         <v>101</v>
       </c>
       <c r="B89" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C89" t="n">
-        <v>29891</v>
+        <v>29871</v>
       </c>
       <c r="D89" t="n">
-        <v>29490</v>
+        <v>29481</v>
       </c>
       <c r="E89" t="n">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F89" t="n">
-        <v>8376</v>
+        <v>8375</v>
       </c>
       <c r="G89" t="n">
         <v>7112</v>
       </c>
       <c r="H89" t="n">
-        <v>4174</v>
+        <v>4193</v>
       </c>
       <c r="I89" t="n">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="J89" t="n">
         <v>6931</v>
@@ -9039,11 +9084,11 @@
         <v>8036</v>
       </c>
       <c r="L89" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>72020</v>
+        <v>71998</v>
       </c>
     </row>
     <row r="90">
@@ -9051,16 +9096,16 @@
         <v>102</v>
       </c>
       <c r="B90" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C90" t="n">
-        <v>25397</v>
+        <v>25246</v>
       </c>
       <c r="D90" t="n">
-        <v>23580</v>
+        <v>23584</v>
       </c>
       <c r="E90" t="n">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="F90" t="n">
         <v>8755</v>
@@ -9069,23 +9114,23 @@
         <v>7414</v>
       </c>
       <c r="H90" t="n">
-        <v>3874</v>
+        <v>3876</v>
       </c>
       <c r="I90" t="n">
-        <v>4947</v>
+        <v>4943</v>
       </c>
       <c r="J90" t="n">
-        <v>7772</v>
+        <v>7770</v>
       </c>
       <c r="K90" t="n">
-        <v>8188</v>
+        <v>8189</v>
       </c>
       <c r="L90" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
-        <v>68466</v>
+        <v>68269</v>
       </c>
     </row>
     <row r="91">
@@ -9096,10 +9141,10 @@
         <v>732</v>
       </c>
       <c r="C91" t="n">
-        <v>24584</v>
+        <v>24648</v>
       </c>
       <c r="D91" t="n">
-        <v>23063</v>
+        <v>23062</v>
       </c>
       <c r="E91" t="n">
         <v>1771</v>
@@ -9108,26 +9153,26 @@
         <v>8698</v>
       </c>
       <c r="G91" t="n">
-        <v>7458</v>
+        <v>7457</v>
       </c>
       <c r="H91" t="n">
-        <v>3893</v>
+        <v>3887</v>
       </c>
       <c r="I91" t="n">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="J91" t="n">
-        <v>7844</v>
+        <v>7845</v>
       </c>
       <c r="K91" t="n">
         <v>8267</v>
       </c>
       <c r="L91" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>71063</v>
+        <v>71099</v>
       </c>
     </row>
     <row r="92">
@@ -9135,41 +9180,41 @@
         <v>104</v>
       </c>
       <c r="B92" t="n">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C92" t="n">
-        <v>26522</v>
+        <v>26546</v>
       </c>
       <c r="D92" t="n">
-        <v>25626</v>
+        <v>25634</v>
       </c>
       <c r="E92" t="n">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F92" t="n">
-        <v>8812</v>
+        <v>8811</v>
       </c>
       <c r="G92" t="n">
-        <v>8637</v>
+        <v>8636</v>
       </c>
       <c r="H92" t="n">
-        <v>3924</v>
+        <v>3932</v>
       </c>
       <c r="I92" t="n">
-        <v>4982</v>
+        <v>4984</v>
       </c>
       <c r="J92" t="n">
-        <v>8082</v>
+        <v>8083</v>
       </c>
       <c r="K92" t="n">
         <v>8333</v>
       </c>
       <c r="L92" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>72984</v>
+        <v>73158</v>
       </c>
     </row>
     <row r="93">
@@ -9180,38 +9225,38 @@
         <v>668</v>
       </c>
       <c r="C93" t="n">
-        <v>28502</v>
+        <v>28512</v>
       </c>
       <c r="D93" t="n">
-        <v>28110</v>
+        <v>28099</v>
       </c>
       <c r="E93" t="n">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="F93" t="n">
         <v>8890</v>
       </c>
       <c r="G93" t="n">
-        <v>10060</v>
+        <v>10062</v>
       </c>
       <c r="H93" t="n">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="I93" t="n">
-        <v>4971</v>
+        <v>4974</v>
       </c>
       <c r="J93" t="n">
-        <v>8093</v>
+        <v>8094</v>
       </c>
       <c r="K93" t="n">
-        <v>8368</v>
+        <v>8369</v>
       </c>
       <c r="L93" t="n">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>77086</v>
+        <v>77058</v>
       </c>
     </row>
     <row r="94">
@@ -9219,41 +9264,41 @@
         <v>106</v>
       </c>
       <c r="B94" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C94" t="n">
-        <v>28120</v>
+        <v>28080</v>
       </c>
       <c r="D94" t="n">
         <v>26124</v>
       </c>
       <c r="E94" t="n">
-        <v>1953</v>
+        <v>1959</v>
       </c>
       <c r="F94" t="n">
-        <v>9034</v>
+        <v>9035</v>
       </c>
       <c r="G94" t="n">
         <v>10066</v>
       </c>
       <c r="H94" t="n">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="I94" t="n">
-        <v>4949</v>
+        <v>4941</v>
       </c>
       <c r="J94" t="n">
-        <v>8583</v>
+        <v>8578</v>
       </c>
       <c r="K94" t="n">
-        <v>8376</v>
+        <v>8377</v>
       </c>
       <c r="L94" t="n">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>77862</v>
+        <v>77689</v>
       </c>
     </row>
     <row r="95">
@@ -9261,41 +9306,41 @@
         <v>107</v>
       </c>
       <c r="B95" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C95" t="n">
-        <v>29702</v>
+        <v>29713</v>
       </c>
       <c r="D95" t="n">
-        <v>28352</v>
+        <v>28342</v>
       </c>
       <c r="E95" t="n">
         <v>2041</v>
       </c>
       <c r="F95" t="n">
-        <v>9321</v>
+        <v>9320</v>
       </c>
       <c r="G95" t="n">
-        <v>10557</v>
+        <v>10555</v>
       </c>
       <c r="H95" t="n">
-        <v>4193</v>
+        <v>4188</v>
       </c>
       <c r="I95" t="n">
-        <v>4985</v>
+        <v>4990</v>
       </c>
       <c r="J95" t="n">
         <v>9139</v>
       </c>
       <c r="K95" t="n">
-        <v>8490</v>
+        <v>8489</v>
       </c>
       <c r="L95" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>80210</v>
+        <v>80211</v>
       </c>
     </row>
     <row r="96">
@@ -9303,41 +9348,41 @@
         <v>108</v>
       </c>
       <c r="B96" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C96" t="n">
-        <v>29558</v>
+        <v>29576</v>
       </c>
       <c r="D96" t="n">
-        <v>28641</v>
+        <v>28670</v>
       </c>
       <c r="E96" t="n">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="F96" t="n">
-        <v>9370</v>
+        <v>9369</v>
       </c>
       <c r="G96" t="n">
-        <v>10934</v>
+        <v>10933</v>
       </c>
       <c r="H96" t="n">
         <v>4142</v>
       </c>
       <c r="I96" t="n">
-        <v>4999</v>
+        <v>5001</v>
       </c>
       <c r="J96" t="n">
-        <v>9331</v>
+        <v>9333</v>
       </c>
       <c r="K96" t="n">
-        <v>8508</v>
+        <v>8506</v>
       </c>
       <c r="L96" t="n">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>79014</v>
+        <v>79238</v>
       </c>
     </row>
     <row r="97">
@@ -9345,41 +9390,41 @@
         <v>109</v>
       </c>
       <c r="B97" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C97" t="n">
-        <v>29216</v>
+        <v>29210</v>
       </c>
       <c r="D97" t="n">
-        <v>28395</v>
+        <v>28388</v>
       </c>
       <c r="E97" t="n">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="F97" t="n">
-        <v>9034</v>
+        <v>9035</v>
       </c>
       <c r="G97" t="n">
-        <v>10819</v>
+        <v>10826</v>
       </c>
       <c r="H97" t="n">
-        <v>4081</v>
+        <v>4093</v>
       </c>
       <c r="I97" t="n">
-        <v>5024</v>
+        <v>5030</v>
       </c>
       <c r="J97" t="n">
-        <v>9762</v>
+        <v>9769</v>
       </c>
       <c r="K97" t="n">
-        <v>8618</v>
+        <v>8620</v>
       </c>
       <c r="L97" t="n">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>80377</v>
+        <v>80341</v>
       </c>
     </row>
     <row r="98">
@@ -9390,38 +9435,38 @@
         <v>755</v>
       </c>
       <c r="C98" t="n">
-        <v>27742</v>
+        <v>27724</v>
       </c>
       <c r="D98" t="n">
-        <v>25851</v>
+        <v>25830</v>
       </c>
       <c r="E98" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="F98" t="n">
-        <v>9607</v>
+        <v>9608</v>
       </c>
       <c r="G98" t="n">
-        <v>11749</v>
+        <v>11745</v>
       </c>
       <c r="H98" t="n">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="I98" t="n">
-        <v>5006</v>
+        <v>4989</v>
       </c>
       <c r="J98" t="n">
-        <v>9721</v>
+        <v>9710</v>
       </c>
       <c r="K98" t="n">
-        <v>8736</v>
+        <v>8741</v>
       </c>
       <c r="L98" t="n">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
-        <v>81578</v>
+        <v>81362</v>
       </c>
     </row>
     <row r="99">
@@ -9429,41 +9474,41 @@
         <v>111</v>
       </c>
       <c r="B99" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C99" t="n">
-        <v>29655</v>
+        <v>29651</v>
       </c>
       <c r="D99" t="n">
         <v>28442</v>
       </c>
       <c r="E99" t="n">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="F99" t="n">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="G99" t="n">
-        <v>13620</v>
+        <v>13618</v>
       </c>
       <c r="H99" t="n">
-        <v>3846</v>
+        <v>3831</v>
       </c>
       <c r="I99" t="n">
-        <v>5057</v>
+        <v>5066</v>
       </c>
       <c r="J99" t="n">
-        <v>9882</v>
+        <v>9880</v>
       </c>
       <c r="K99" t="n">
-        <v>8715</v>
+        <v>8710</v>
       </c>
       <c r="L99" t="n">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>83540</v>
+        <v>83535</v>
       </c>
     </row>
     <row r="100">
@@ -9471,41 +9516,41 @@
         <v>112</v>
       </c>
       <c r="B100" t="n">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C100" t="n">
-        <v>30938</v>
+        <v>30999</v>
       </c>
       <c r="D100" t="n">
-        <v>29786</v>
+        <v>29827</v>
       </c>
       <c r="E100" t="n">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="F100" t="n">
-        <v>9356</v>
+        <v>9353</v>
       </c>
       <c r="G100" t="n">
-        <v>12990</v>
+        <v>12987</v>
       </c>
       <c r="H100" t="n">
-        <v>4089</v>
+        <v>4094</v>
       </c>
       <c r="I100" t="n">
-        <v>5125</v>
+        <v>5128</v>
       </c>
       <c r="J100" t="n">
-        <v>9691</v>
+        <v>9694</v>
       </c>
       <c r="K100" t="n">
-        <v>8825</v>
+        <v>8822</v>
       </c>
       <c r="L100" t="n">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="M100"/>
       <c r="N100" t="n">
-        <v>83455</v>
+        <v>83755</v>
       </c>
     </row>
     <row r="101">
@@ -9513,41 +9558,41 @@
         <v>113</v>
       </c>
       <c r="B101" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C101" t="n">
-        <v>31518</v>
+        <v>31474</v>
       </c>
       <c r="D101" t="n">
-        <v>30191</v>
+        <v>30211</v>
       </c>
       <c r="E101" t="n">
-        <v>2078</v>
+        <v>2060</v>
       </c>
       <c r="F101" t="n">
-        <v>9274</v>
+        <v>9277</v>
       </c>
       <c r="G101" t="n">
-        <v>13164</v>
+        <v>13186</v>
       </c>
       <c r="H101" t="n">
-        <v>4041</v>
+        <v>4053</v>
       </c>
       <c r="I101" t="n">
-        <v>5057</v>
+        <v>5067</v>
       </c>
       <c r="J101" t="n">
-        <v>9710</v>
+        <v>9727</v>
       </c>
       <c r="K101" t="n">
-        <v>8892</v>
+        <v>8896</v>
       </c>
       <c r="L101" t="n">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>84653</v>
+        <v>84592</v>
       </c>
     </row>
     <row r="102">
@@ -9555,41 +9600,41 @@
         <v>114</v>
       </c>
       <c r="B102" t="n">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C102" t="n">
-        <v>34303</v>
+        <v>34264</v>
       </c>
       <c r="D102" t="n">
-        <v>32703</v>
+        <v>32604</v>
       </c>
       <c r="E102" t="n">
-        <v>2040</v>
+        <v>2062</v>
       </c>
       <c r="F102" t="n">
-        <v>9253</v>
+        <v>9256</v>
       </c>
       <c r="G102" t="n">
-        <v>14109</v>
+        <v>14088</v>
       </c>
       <c r="H102" t="n">
-        <v>3717</v>
+        <v>3700</v>
       </c>
       <c r="I102" t="n">
-        <v>5092</v>
+        <v>5066</v>
       </c>
       <c r="J102" t="n">
-        <v>9192</v>
+        <v>9172</v>
       </c>
       <c r="K102" t="n">
-        <v>8963</v>
+        <v>8971</v>
       </c>
       <c r="L102" t="n">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="M102"/>
       <c r="N102" t="n">
-        <v>88907</v>
+        <v>88650</v>
       </c>
     </row>
     <row r="103">
@@ -9597,41 +9642,41 @@
         <v>115</v>
       </c>
       <c r="B103" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C103" t="n">
-        <v>35458</v>
+        <v>35421</v>
       </c>
       <c r="D103" t="n">
-        <v>34605</v>
+        <v>34631</v>
       </c>
       <c r="E103" t="n">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="F103" t="n">
-        <v>5713</v>
+        <v>5710</v>
       </c>
       <c r="G103" t="n">
         <v>13160</v>
       </c>
       <c r="H103" t="n">
-        <v>3809</v>
+        <v>3794</v>
       </c>
       <c r="I103" t="n">
-        <v>4838</v>
+        <v>4849</v>
       </c>
       <c r="J103" t="n">
-        <v>8461</v>
+        <v>8457</v>
       </c>
       <c r="K103" t="n">
-        <v>8678</v>
+        <v>8668</v>
       </c>
       <c r="L103" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>84755</v>
+        <v>84717</v>
       </c>
     </row>
     <row r="104">
@@ -9639,41 +9684,41 @@
         <v>116</v>
       </c>
       <c r="B104" t="n">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C104" t="n">
-        <v>36961</v>
+        <v>37209</v>
       </c>
       <c r="D104" t="n">
-        <v>35531</v>
+        <v>35601</v>
       </c>
       <c r="E104" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="F104" t="n">
-        <v>7694</v>
+        <v>7688</v>
       </c>
       <c r="G104" t="n">
-        <v>17159</v>
+        <v>17155</v>
       </c>
       <c r="H104" t="n">
-        <v>3558</v>
+        <v>3566</v>
       </c>
       <c r="I104" t="n">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="J104" t="n">
-        <v>8835</v>
+        <v>8838</v>
       </c>
       <c r="K104" t="n">
-        <v>8804</v>
+        <v>8800</v>
       </c>
       <c r="L104" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
-        <v>93641</v>
+        <v>94083</v>
       </c>
     </row>
     <row r="105">
@@ -9681,41 +9726,41 @@
         <v>117</v>
       </c>
       <c r="B105" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C105" t="n">
-        <v>39720</v>
+        <v>39480</v>
       </c>
       <c r="D105" t="n">
-        <v>37909</v>
+        <v>37984</v>
       </c>
       <c r="E105" t="n">
-        <v>2064</v>
+        <v>2035</v>
       </c>
       <c r="F105" t="n">
-        <v>7825</v>
+        <v>7829</v>
       </c>
       <c r="G105" t="n">
-        <v>13731</v>
+        <v>13770</v>
       </c>
       <c r="H105" t="n">
-        <v>3598</v>
+        <v>3623</v>
       </c>
       <c r="I105" t="n">
-        <v>5115</v>
+        <v>5131</v>
       </c>
       <c r="J105" t="n">
-        <v>8860</v>
+        <v>8888</v>
       </c>
       <c r="K105" t="n">
-        <v>8824</v>
+        <v>8826</v>
       </c>
       <c r="L105" t="n">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>89491</v>
+        <v>89362</v>
       </c>
     </row>
     <row r="106">
@@ -9723,41 +9768,41 @@
         <v>118</v>
       </c>
       <c r="B106" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="C106" t="n">
-        <v>43883</v>
+        <v>43848</v>
       </c>
       <c r="D106" t="n">
-        <v>42815</v>
+        <v>42552</v>
       </c>
       <c r="E106" t="n">
-        <v>1458</v>
+        <v>1494</v>
       </c>
       <c r="F106" t="n">
-        <v>7686</v>
+        <v>7693</v>
       </c>
       <c r="G106" t="n">
-        <v>15827</v>
+        <v>15776</v>
       </c>
       <c r="H106" t="n">
-        <v>3739</v>
+        <v>3699</v>
       </c>
       <c r="I106" t="n">
-        <v>5124</v>
+        <v>5087</v>
       </c>
       <c r="J106" t="n">
-        <v>8890</v>
+        <v>8859</v>
       </c>
       <c r="K106" t="n">
-        <v>8915</v>
+        <v>8934</v>
       </c>
       <c r="L106" t="n">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>98558</v>
+        <v>98160</v>
       </c>
     </row>
     <row r="107">
@@ -9765,41 +9810,41 @@
         <v>119</v>
       </c>
       <c r="B107" t="n">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C107" t="n">
-        <v>45064</v>
+        <v>44958</v>
       </c>
       <c r="D107" t="n">
-        <v>43977</v>
+        <v>44073</v>
       </c>
       <c r="E107" t="n">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F107" t="n">
-        <v>7898</v>
+        <v>7893</v>
       </c>
       <c r="G107" t="n">
-        <v>16443</v>
+        <v>16453</v>
       </c>
       <c r="H107" t="n">
-        <v>3848</v>
+        <v>3833</v>
       </c>
       <c r="I107" t="n">
-        <v>5168</v>
+        <v>5184</v>
       </c>
       <c r="J107" t="n">
-        <v>9209</v>
+        <v>9203</v>
       </c>
       <c r="K107" t="n">
-        <v>9125</v>
+        <v>9109</v>
       </c>
       <c r="L107" t="n">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>102957</v>
+        <v>102899</v>
       </c>
     </row>
     <row r="108">
@@ -9807,41 +9852,41 @@
         <v>120</v>
       </c>
       <c r="B108" t="n">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C108" t="n">
-        <v>48963</v>
+        <v>49581</v>
       </c>
       <c r="D108" t="n">
-        <v>47305</v>
+        <v>47420</v>
       </c>
       <c r="E108" t="n">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="F108" t="n">
-        <v>8305</v>
+        <v>8295</v>
       </c>
       <c r="G108" t="n">
-        <v>16679</v>
+        <v>16677</v>
       </c>
       <c r="H108" t="n">
-        <v>3730</v>
+        <v>3750</v>
       </c>
       <c r="I108" t="n">
-        <v>5141</v>
+        <v>5147</v>
       </c>
       <c r="J108" t="n">
-        <v>9474</v>
+        <v>9479</v>
       </c>
       <c r="K108" t="n">
-        <v>9160</v>
+        <v>9154</v>
       </c>
       <c r="L108" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>104145</v>
+        <v>104847</v>
       </c>
     </row>
     <row r="109">
@@ -9849,41 +9894,83 @@
         <v>121</v>
       </c>
       <c r="B109" t="n">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C109" t="n">
-        <v>42971</v>
+        <v>42446</v>
       </c>
       <c r="D109" t="n">
-        <v>40989</v>
+        <v>41136</v>
       </c>
       <c r="E109" t="n">
-        <v>2037</v>
+        <v>1998</v>
       </c>
       <c r="F109" t="n">
-        <v>8518</v>
+        <v>8523</v>
       </c>
       <c r="G109" t="n">
-        <v>17982</v>
+        <v>18051</v>
       </c>
       <c r="H109" t="n">
-        <v>3744</v>
+        <v>3788</v>
       </c>
       <c r="I109" t="n">
-        <v>5131</v>
+        <v>5151</v>
       </c>
       <c r="J109" t="n">
-        <v>9422</v>
+        <v>9462</v>
       </c>
       <c r="K109" t="n">
-        <v>9329</v>
+        <v>9326</v>
       </c>
       <c r="L109" t="n">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="M109"/>
       <c r="N109" t="n">
-        <v>98170</v>
+        <v>97943</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="n">
+        <v>804</v>
+      </c>
+      <c r="C110" t="n">
+        <v>48814</v>
+      </c>
+      <c r="D110" t="n">
+        <v>47450</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1924</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9536</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18824</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4014</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5276</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10063</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9175</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1085</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>109097</v>
       </c>
     </row>
   </sheetData>
@@ -14696,6 +14783,50 @@
         <v>100021</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C110" t="n">
+        <v>47631</v>
+      </c>
+      <c r="D110" t="n">
+        <v>45762</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2085</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9325</v>
+      </c>
+      <c r="G110" t="n">
+        <v>17998</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3687</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6173</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9526</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9802</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1139</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N110" t="n">
+        <v>109474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14777,7 +14908,7 @@
         <v>764</v>
       </c>
       <c r="H2" t="n">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="I2" t="n">
         <v>649</v>
@@ -14786,14 +14917,14 @@
         <v>607</v>
       </c>
       <c r="K2" t="n">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="L2" t="n">
         <v>308</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>11876</v>
+        <v>11878</v>
       </c>
     </row>
     <row r="3">
@@ -14819,7 +14950,7 @@
         <v>813</v>
       </c>
       <c r="H3" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I3" t="n">
         <v>683</v>
@@ -14828,14 +14959,14 @@
         <v>630</v>
       </c>
       <c r="K3" t="n">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="L3" t="n">
         <v>317</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
-        <v>12165</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="4">
@@ -14861,7 +14992,7 @@
         <v>858</v>
       </c>
       <c r="H4" t="n">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="I4" t="n">
         <v>712</v>
@@ -14870,14 +15001,14 @@
         <v>648</v>
       </c>
       <c r="K4" t="n">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="L4" t="n">
         <v>316</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>12519</v>
+        <v>12522</v>
       </c>
     </row>
     <row r="5">
@@ -14903,7 +15034,7 @@
         <v>817</v>
       </c>
       <c r="H5" t="n">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="I5" t="n">
         <v>738</v>
@@ -14912,14 +15043,14 @@
         <v>662</v>
       </c>
       <c r="K5" t="n">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="L5" t="n">
         <v>312</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>12483</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="6">
@@ -14945,7 +15076,7 @@
         <v>817</v>
       </c>
       <c r="H6" t="n">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="I6" t="n">
         <v>751</v>
@@ -14954,14 +15085,14 @@
         <v>679</v>
       </c>
       <c r="K6" t="n">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="L6" t="n">
         <v>322</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>13141</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="7">
@@ -14987,7 +15118,7 @@
         <v>881</v>
       </c>
       <c r="H7" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I7" t="n">
         <v>769</v>
@@ -14996,14 +15127,14 @@
         <v>697</v>
       </c>
       <c r="K7" t="n">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="L7" t="n">
         <v>322</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>13356</v>
+        <v>13358</v>
       </c>
     </row>
     <row r="8">
@@ -15029,7 +15160,7 @@
         <v>909</v>
       </c>
       <c r="H8" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="I8" t="n">
         <v>819</v>
@@ -15045,7 +15176,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>13601</v>
+        <v>13603</v>
       </c>
     </row>
     <row r="9">
@@ -15062,7 +15193,7 @@
         <v>3276</v>
       </c>
       <c r="E9" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F9" t="n">
         <v>2437</v>
@@ -15071,7 +15202,7 @@
         <v>981</v>
       </c>
       <c r="H9" t="n">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I9" t="n">
         <v>854</v>
@@ -15080,14 +15211,14 @@
         <v>782</v>
       </c>
       <c r="K9" t="n">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="L9" t="n">
         <v>352</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>13880</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="10">
@@ -15113,7 +15244,7 @@
         <v>1099</v>
       </c>
       <c r="H10" t="n">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="I10" t="n">
         <v>914</v>
@@ -15129,7 +15260,7 @@
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>14397</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="11">
@@ -15155,7 +15286,7 @@
         <v>1093</v>
       </c>
       <c r="H11" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="I11" t="n">
         <v>969</v>
@@ -15164,14 +15295,14 @@
         <v>843</v>
       </c>
       <c r="K11" t="n">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="L11" t="n">
         <v>383</v>
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>15262</v>
+        <v>15260</v>
       </c>
     </row>
     <row r="12">
@@ -15197,7 +15328,7 @@
         <v>1172</v>
       </c>
       <c r="H12" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I12" t="n">
         <v>1020</v>
@@ -15206,14 +15337,14 @@
         <v>897</v>
       </c>
       <c r="K12" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="L12" t="n">
         <v>376</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>15894</v>
+        <v>15893</v>
       </c>
     </row>
     <row r="13">
@@ -15239,7 +15370,7 @@
         <v>1254</v>
       </c>
       <c r="H13" t="n">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I13" t="n">
         <v>1064</v>
@@ -15255,7 +15386,7 @@
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>16617</v>
+        <v>16614</v>
       </c>
     </row>
     <row r="14">
@@ -15281,7 +15412,7 @@
         <v>1345</v>
       </c>
       <c r="H14" t="n">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I14" t="n">
         <v>1142</v>
@@ -15290,14 +15421,14 @@
         <v>1061</v>
       </c>
       <c r="K14" t="n">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="L14" t="n">
         <v>381</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>17065</v>
+        <v>17066</v>
       </c>
     </row>
     <row r="15">
@@ -15323,7 +15454,7 @@
         <v>1473</v>
       </c>
       <c r="H15" t="n">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="I15" t="n">
         <v>1225</v>
@@ -15332,14 +15463,14 @@
         <v>1084</v>
       </c>
       <c r="K15" t="n">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="L15" t="n">
         <v>391</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
-        <v>17706</v>
+        <v>17708</v>
       </c>
     </row>
     <row r="16">
@@ -15365,7 +15496,7 @@
         <v>1425</v>
       </c>
       <c r="H16" t="n">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I16" t="n">
         <v>1273</v>
@@ -15381,7 +15512,7 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>18741</v>
+        <v>18735</v>
       </c>
     </row>
     <row r="17">
@@ -15407,7 +15538,7 @@
         <v>1464</v>
       </c>
       <c r="H17" t="n">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="I17" t="n">
         <v>1335</v>
@@ -15416,14 +15547,14 @@
         <v>1187</v>
       </c>
       <c r="K17" t="n">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="L17" t="n">
         <v>436</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>18629</v>
+        <v>18631</v>
       </c>
     </row>
     <row r="18">
@@ -15449,7 +15580,7 @@
         <v>1582</v>
       </c>
       <c r="H18" t="n">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="I18" t="n">
         <v>1353</v>
@@ -15458,14 +15589,14 @@
         <v>1265</v>
       </c>
       <c r="K18" t="n">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="L18" t="n">
         <v>445</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
-        <v>19522</v>
+        <v>19524</v>
       </c>
     </row>
     <row r="19">
@@ -15491,7 +15622,7 @@
         <v>1666</v>
       </c>
       <c r="H19" t="n">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="I19" t="n">
         <v>1380</v>
@@ -15500,14 +15631,14 @@
         <v>1333</v>
       </c>
       <c r="K19" t="n">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="L19" t="n">
         <v>466</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>19646</v>
+        <v>19645</v>
       </c>
     </row>
     <row r="20">
@@ -15524,7 +15655,7 @@
         <v>5570</v>
       </c>
       <c r="E20" t="n">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F20" t="n">
         <v>3660</v>
@@ -15533,7 +15664,7 @@
         <v>1770</v>
       </c>
       <c r="H20" t="n">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="I20" t="n">
         <v>1434</v>
@@ -15549,7 +15680,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>21442</v>
+        <v>21437</v>
       </c>
     </row>
     <row r="21">
@@ -15575,7 +15706,7 @@
         <v>1887</v>
       </c>
       <c r="H21" t="n">
-        <v>1589</v>
+        <v>1601</v>
       </c>
       <c r="I21" t="n">
         <v>1503</v>
@@ -15584,14 +15715,14 @@
         <v>1399</v>
       </c>
       <c r="K21" t="n">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="L21" t="n">
         <v>475</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
-        <v>22173</v>
+        <v>22172</v>
       </c>
     </row>
     <row r="22">
@@ -15608,7 +15739,7 @@
         <v>5271</v>
       </c>
       <c r="E22" t="n">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F22" t="n">
         <v>4199</v>
@@ -15617,7 +15748,7 @@
         <v>1871</v>
       </c>
       <c r="H22" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="I22" t="n">
         <v>1610</v>
@@ -15626,14 +15757,14 @@
         <v>1472</v>
       </c>
       <c r="K22" t="n">
-        <v>3003</v>
+        <v>3007</v>
       </c>
       <c r="L22" t="n">
         <v>504</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>22754</v>
+        <v>22753</v>
       </c>
     </row>
     <row r="23">
@@ -15650,7 +15781,7 @@
         <v>6139</v>
       </c>
       <c r="E23" t="n">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="F23" t="n">
         <v>4217</v>
@@ -15659,7 +15790,7 @@
         <v>1894</v>
       </c>
       <c r="H23" t="n">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="I23" t="n">
         <v>1686</v>
@@ -15675,7 +15806,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>23629</v>
+        <v>23625</v>
       </c>
     </row>
     <row r="24">
@@ -15701,7 +15832,7 @@
         <v>1957</v>
       </c>
       <c r="H24" t="n">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="I24" t="n">
         <v>1771</v>
@@ -15710,14 +15841,14 @@
         <v>1588</v>
       </c>
       <c r="K24" t="n">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L24" t="n">
         <v>523</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
-        <v>24384</v>
+        <v>24382</v>
       </c>
     </row>
     <row r="25">
@@ -15734,7 +15865,7 @@
         <v>7233</v>
       </c>
       <c r="E25" t="n">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F25" t="n">
         <v>4123</v>
@@ -15743,7 +15874,7 @@
         <v>2029</v>
       </c>
       <c r="H25" t="n">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="I25" t="n">
         <v>1782</v>
@@ -15752,14 +15883,14 @@
         <v>1700</v>
       </c>
       <c r="K25" t="n">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="L25" t="n">
         <v>535</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>25582</v>
+        <v>25585</v>
       </c>
     </row>
     <row r="26">
@@ -15785,7 +15916,7 @@
         <v>2050</v>
       </c>
       <c r="H26" t="n">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="I26" t="n">
         <v>1900</v>
@@ -15794,14 +15925,14 @@
         <v>1611</v>
       </c>
       <c r="K26" t="n">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="L26" t="n">
         <v>573</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>27077</v>
+        <v>27081</v>
       </c>
     </row>
     <row r="27">
@@ -15818,7 +15949,7 @@
         <v>7574</v>
       </c>
       <c r="E27" t="n">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="F27" t="n">
         <v>4149</v>
@@ -15827,7 +15958,7 @@
         <v>1850</v>
       </c>
       <c r="H27" t="n">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="I27" t="n">
         <v>2016</v>
@@ -15836,14 +15967,14 @@
         <v>1719</v>
       </c>
       <c r="K27" t="n">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="L27" t="n">
         <v>577</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>27099</v>
+        <v>27091</v>
       </c>
     </row>
     <row r="28">
@@ -15869,7 +16000,7 @@
         <v>1988</v>
       </c>
       <c r="H28" t="n">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="I28" t="n">
         <v>2014</v>
@@ -15885,7 +16016,7 @@
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>27755</v>
+        <v>27754</v>
       </c>
     </row>
     <row r="29">
@@ -15911,7 +16042,7 @@
         <v>1945</v>
       </c>
       <c r="H29" t="n">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="I29" t="n">
         <v>2087</v>
@@ -15920,14 +16051,14 @@
         <v>1813</v>
       </c>
       <c r="K29" t="n">
-        <v>3947</v>
+        <v>3944</v>
       </c>
       <c r="L29" t="n">
         <v>604</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
-        <v>27711</v>
+        <v>27720</v>
       </c>
     </row>
     <row r="30">
@@ -15962,14 +16093,14 @@
         <v>1743</v>
       </c>
       <c r="K30" t="n">
-        <v>4058</v>
+        <v>4055</v>
       </c>
       <c r="L30" t="n">
         <v>621</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>29774</v>
+        <v>29780</v>
       </c>
     </row>
     <row r="31">
@@ -15995,7 +16126,7 @@
         <v>1912</v>
       </c>
       <c r="H31" t="n">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="I31" t="n">
         <v>2275</v>
@@ -16011,7 +16142,7 @@
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>29975</v>
+        <v>29965</v>
       </c>
     </row>
     <row r="32">
@@ -16037,7 +16168,7 @@
         <v>1995</v>
       </c>
       <c r="H32" t="n">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="I32" t="n">
         <v>2360</v>
@@ -16046,14 +16177,14 @@
         <v>1771</v>
       </c>
       <c r="K32" t="n">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="L32" t="n">
         <v>649</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>31385</v>
+        <v>31382</v>
       </c>
     </row>
     <row r="33">
@@ -16070,7 +16201,7 @@
         <v>9067</v>
       </c>
       <c r="E33" t="n">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="F33" t="n">
         <v>4736</v>
@@ -16079,7 +16210,7 @@
         <v>1992</v>
       </c>
       <c r="H33" t="n">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="I33" t="n">
         <v>2389</v>
@@ -16095,7 +16226,7 @@
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>31577</v>
+        <v>31581</v>
       </c>
     </row>
     <row r="34">
@@ -16112,7 +16243,7 @@
         <v>8194</v>
       </c>
       <c r="E34" t="n">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="F34" t="n">
         <v>4929</v>
@@ -16121,7 +16252,7 @@
         <v>1958</v>
       </c>
       <c r="H34" t="n">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="I34" t="n">
         <v>2264</v>
@@ -16130,14 +16261,14 @@
         <v>2030</v>
       </c>
       <c r="K34" t="n">
-        <v>4604</v>
+        <v>4601</v>
       </c>
       <c r="L34" t="n">
         <v>701</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>31686</v>
+        <v>31689</v>
       </c>
     </row>
     <row r="35">
@@ -16154,7 +16285,7 @@
         <v>8400</v>
       </c>
       <c r="E35" t="n">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="F35" t="n">
         <v>5028</v>
@@ -16163,7 +16294,7 @@
         <v>2174</v>
       </c>
       <c r="H35" t="n">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="I35" t="n">
         <v>2334</v>
@@ -16172,14 +16303,14 @@
         <v>2011</v>
       </c>
       <c r="K35" t="n">
-        <v>4721</v>
+        <v>4719</v>
       </c>
       <c r="L35" t="n">
         <v>702</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>32172</v>
+        <v>32166</v>
       </c>
     </row>
     <row r="36">
@@ -16205,7 +16336,7 @@
         <v>2123</v>
       </c>
       <c r="H36" t="n">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="I36" t="n">
         <v>2516</v>
@@ -16221,7 +16352,7 @@
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>32717</v>
+        <v>32719</v>
       </c>
     </row>
     <row r="37">
@@ -16238,7 +16369,7 @@
         <v>9281</v>
       </c>
       <c r="E37" t="n">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="F37" t="n">
         <v>5205</v>
@@ -16256,14 +16387,14 @@
         <v>2090</v>
       </c>
       <c r="K37" t="n">
-        <v>4880</v>
+        <v>4888</v>
       </c>
       <c r="L37" t="n">
         <v>746</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>34442</v>
+        <v>34443</v>
       </c>
     </row>
     <row r="38">
@@ -16289,7 +16420,7 @@
         <v>2324</v>
       </c>
       <c r="H38" t="n">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="I38" t="n">
         <v>2431</v>
@@ -16298,14 +16429,14 @@
         <v>2233</v>
       </c>
       <c r="K38" t="n">
-        <v>5066</v>
+        <v>5063</v>
       </c>
       <c r="L38" t="n">
         <v>716</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="n">
-        <v>34131</v>
+        <v>34125</v>
       </c>
     </row>
     <row r="39">
@@ -16331,7 +16462,7 @@
         <v>2376</v>
       </c>
       <c r="H39" t="n">
-        <v>3140</v>
+        <v>3134</v>
       </c>
       <c r="I39" t="n">
         <v>2465</v>
@@ -16340,14 +16471,14 @@
         <v>2253</v>
       </c>
       <c r="K39" t="n">
-        <v>5184</v>
+        <v>5183</v>
       </c>
       <c r="L39" t="n">
         <v>742</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>34825</v>
+        <v>34817</v>
       </c>
     </row>
     <row r="40">
@@ -16373,7 +16504,7 @@
         <v>2380</v>
       </c>
       <c r="H40" t="n">
-        <v>3212</v>
+        <v>3231</v>
       </c>
       <c r="I40" t="n">
         <v>2400</v>
@@ -16382,14 +16513,14 @@
         <v>2413</v>
       </c>
       <c r="K40" t="n">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="L40" t="n">
         <v>772</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>34835</v>
+        <v>34848</v>
       </c>
     </row>
     <row r="41">
@@ -16415,7 +16546,7 @@
         <v>2419</v>
       </c>
       <c r="H41" t="n">
-        <v>3386</v>
+        <v>3391</v>
       </c>
       <c r="I41" t="n">
         <v>2446</v>
@@ -16424,14 +16555,14 @@
         <v>2627</v>
       </c>
       <c r="K41" t="n">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="L41" t="n">
         <v>789</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
-        <v>35963</v>
+        <v>35962</v>
       </c>
     </row>
     <row r="42">
@@ -16448,7 +16579,7 @@
         <v>8400</v>
       </c>
       <c r="E42" t="n">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="F42" t="n">
         <v>5791</v>
@@ -16457,23 +16588,23 @@
         <v>2509</v>
       </c>
       <c r="H42" t="n">
-        <v>3632</v>
+        <v>3601</v>
       </c>
       <c r="I42" t="n">
         <v>2427</v>
       </c>
       <c r="J42" t="n">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="K42" t="n">
-        <v>5525</v>
+        <v>5529</v>
       </c>
       <c r="L42" t="n">
         <v>766</v>
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>36875</v>
+        <v>36861</v>
       </c>
     </row>
     <row r="43">
@@ -16499,7 +16630,7 @@
         <v>2616</v>
       </c>
       <c r="H43" t="n">
-        <v>3598</v>
+        <v>3604</v>
       </c>
       <c r="I43" t="n">
         <v>2429</v>
@@ -16508,14 +16639,14 @@
         <v>3092</v>
       </c>
       <c r="K43" t="n">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="L43" t="n">
         <v>779</v>
       </c>
       <c r="M43"/>
       <c r="N43" t="n">
-        <v>37427</v>
+        <v>37417</v>
       </c>
     </row>
     <row r="44">
@@ -16532,7 +16663,7 @@
         <v>8171</v>
       </c>
       <c r="E44" t="n">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="F44" t="n">
         <v>5964</v>
@@ -16541,7 +16672,7 @@
         <v>2568</v>
       </c>
       <c r="H44" t="n">
-        <v>3644</v>
+        <v>3661</v>
       </c>
       <c r="I44" t="n">
         <v>2500</v>
@@ -16550,14 +16681,14 @@
         <v>3158</v>
       </c>
       <c r="K44" t="n">
-        <v>5723</v>
+        <v>5719</v>
       </c>
       <c r="L44" t="n">
         <v>818</v>
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>37672</v>
+        <v>37686</v>
       </c>
     </row>
     <row r="45">
@@ -16574,7 +16705,7 @@
         <v>8709</v>
       </c>
       <c r="E45" t="n">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="F45" t="n">
         <v>6042</v>
@@ -16583,7 +16714,7 @@
         <v>2549</v>
       </c>
       <c r="H45" t="n">
-        <v>3777</v>
+        <v>3794</v>
       </c>
       <c r="I45" t="n">
         <v>2667</v>
@@ -16592,14 +16723,14 @@
         <v>3024</v>
       </c>
       <c r="K45" t="n">
-        <v>5835</v>
+        <v>5831</v>
       </c>
       <c r="L45" t="n">
         <v>844</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>39124</v>
+        <v>39128</v>
       </c>
     </row>
     <row r="46">
@@ -16625,7 +16756,7 @@
         <v>2385</v>
       </c>
       <c r="H46" t="n">
-        <v>3955</v>
+        <v>3932</v>
       </c>
       <c r="I46" t="n">
         <v>2764</v>
@@ -16634,14 +16765,14 @@
         <v>3617</v>
       </c>
       <c r="K46" t="n">
-        <v>5965</v>
+        <v>5966</v>
       </c>
       <c r="L46" t="n">
         <v>894</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
-        <v>39910</v>
+        <v>39883</v>
       </c>
     </row>
     <row r="47">
@@ -16658,7 +16789,7 @@
         <v>9092</v>
       </c>
       <c r="E47" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="F47" t="n">
         <v>6445</v>
@@ -16667,7 +16798,7 @@
         <v>2357</v>
       </c>
       <c r="H47" t="n">
-        <v>3965</v>
+        <v>3969</v>
       </c>
       <c r="I47" t="n">
         <v>2721</v>
@@ -16700,7 +16831,7 @@
         <v>8773</v>
       </c>
       <c r="E48" t="n">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="F48" t="n">
         <v>6508</v>
@@ -16709,7 +16840,7 @@
         <v>2790</v>
       </c>
       <c r="H48" t="n">
-        <v>3900</v>
+        <v>3917</v>
       </c>
       <c r="I48" t="n">
         <v>2818</v>
@@ -16718,14 +16849,14 @@
         <v>3129</v>
       </c>
       <c r="K48" t="n">
-        <v>6336</v>
+        <v>6331</v>
       </c>
       <c r="L48" t="n">
         <v>907</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
-        <v>40871</v>
+        <v>40886</v>
       </c>
     </row>
     <row r="49">
@@ -16742,7 +16873,7 @@
         <v>8332</v>
       </c>
       <c r="E49" t="n">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="F49" t="n">
         <v>6780</v>
@@ -16760,14 +16891,14 @@
         <v>3432</v>
       </c>
       <c r="K49" t="n">
-        <v>6387</v>
+        <v>6386</v>
       </c>
       <c r="L49" t="n">
         <v>956</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>41261</v>
+        <v>41264</v>
       </c>
     </row>
     <row r="50">
@@ -16784,7 +16915,7 @@
         <v>9027</v>
       </c>
       <c r="E50" t="n">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F50" t="n">
         <v>7040</v>
@@ -16793,7 +16924,7 @@
         <v>3050</v>
       </c>
       <c r="H50" t="n">
-        <v>4228</v>
+        <v>4219</v>
       </c>
       <c r="I50" t="n">
         <v>3176</v>
@@ -16802,14 +16933,14 @@
         <v>3454</v>
       </c>
       <c r="K50" t="n">
-        <v>6684</v>
+        <v>6682</v>
       </c>
       <c r="L50" t="n">
         <v>1011</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>43787</v>
+        <v>43765</v>
       </c>
     </row>
     <row r="51">
@@ -16826,7 +16957,7 @@
         <v>8385</v>
       </c>
       <c r="E51" t="n">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="F51" t="n">
         <v>7198</v>
@@ -16835,7 +16966,7 @@
         <v>3036</v>
       </c>
       <c r="H51" t="n">
-        <v>4290</v>
+        <v>4303</v>
       </c>
       <c r="I51" t="n">
         <v>3236</v>
@@ -16844,14 +16975,14 @@
         <v>3691</v>
       </c>
       <c r="K51" t="n">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="L51" t="n">
         <v>995</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>43561</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="52">
@@ -16868,7 +16999,7 @@
         <v>8891</v>
       </c>
       <c r="E52" t="n">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="F52" t="n">
         <v>7287</v>
@@ -16877,7 +17008,7 @@
         <v>2480</v>
       </c>
       <c r="H52" t="n">
-        <v>4502</v>
+        <v>4482</v>
       </c>
       <c r="I52" t="n">
         <v>3164</v>
@@ -16886,14 +17017,14 @@
         <v>3869</v>
       </c>
       <c r="K52" t="n">
-        <v>6878</v>
+        <v>6881</v>
       </c>
       <c r="L52" t="n">
         <v>1059</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>42844</v>
+        <v>42847</v>
       </c>
     </row>
     <row r="53">
@@ -16919,7 +17050,7 @@
         <v>2821</v>
       </c>
       <c r="H53" t="n">
-        <v>4141</v>
+        <v>4153</v>
       </c>
       <c r="I53" t="n">
         <v>3336</v>
@@ -16928,14 +17059,14 @@
         <v>3887</v>
       </c>
       <c r="K53" t="n">
-        <v>6935</v>
+        <v>6929</v>
       </c>
       <c r="L53" t="n">
         <v>1017</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>43770</v>
+        <v>43787</v>
       </c>
     </row>
     <row r="54">
@@ -16952,7 +17083,7 @@
         <v>8564</v>
       </c>
       <c r="E54" t="n">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="F54" t="n">
         <v>7078</v>
@@ -16970,14 +17101,14 @@
         <v>3699</v>
       </c>
       <c r="K54" t="n">
-        <v>7144</v>
+        <v>7140</v>
       </c>
       <c r="L54" t="n">
         <v>1003</v>
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>42798</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="55">
@@ -16994,7 +17125,7 @@
         <v>8564</v>
       </c>
       <c r="E55" t="n">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F55" t="n">
         <v>6888</v>
@@ -17003,7 +17134,7 @@
         <v>3195</v>
       </c>
       <c r="H55" t="n">
-        <v>4100</v>
+        <v>4105</v>
       </c>
       <c r="I55" t="n">
         <v>3282</v>
@@ -17012,14 +17143,14 @@
         <v>3620</v>
       </c>
       <c r="K55" t="n">
-        <v>7368</v>
+        <v>7366</v>
       </c>
       <c r="L55" t="n">
         <v>1020</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>42259</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="56">
@@ -17036,7 +17167,7 @@
         <v>8515</v>
       </c>
       <c r="E56" t="n">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="F56" t="n">
         <v>6742</v>
@@ -17045,7 +17176,7 @@
         <v>3295</v>
       </c>
       <c r="H56" t="n">
-        <v>4137</v>
+        <v>4129</v>
       </c>
       <c r="I56" t="n">
         <v>3142</v>
@@ -17054,14 +17185,14 @@
         <v>3625</v>
       </c>
       <c r="K56" t="n">
-        <v>7383</v>
+        <v>7386</v>
       </c>
       <c r="L56" t="n">
         <v>991</v>
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
-        <v>42155</v>
+        <v>42158</v>
       </c>
     </row>
     <row r="57">
@@ -17078,7 +17209,7 @@
         <v>7229</v>
       </c>
       <c r="E57" t="n">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="F57" t="n">
         <v>6518</v>
@@ -17087,7 +17218,7 @@
         <v>3224</v>
       </c>
       <c r="H57" t="n">
-        <v>4220</v>
+        <v>4211</v>
       </c>
       <c r="I57" t="n">
         <v>3050</v>
@@ -17096,14 +17227,14 @@
         <v>3540</v>
       </c>
       <c r="K57" t="n">
-        <v>7534</v>
+        <v>7541</v>
       </c>
       <c r="L57" t="n">
         <v>935</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
-        <v>40821</v>
+        <v>40819</v>
       </c>
     </row>
     <row r="58">
@@ -17129,7 +17260,7 @@
         <v>3036</v>
       </c>
       <c r="H58" t="n">
-        <v>4005</v>
+        <v>4026</v>
       </c>
       <c r="I58" t="n">
         <v>2074</v>
@@ -17138,14 +17269,14 @@
         <v>3309</v>
       </c>
       <c r="K58" t="n">
-        <v>7420</v>
+        <v>7415</v>
       </c>
       <c r="L58" t="n">
         <v>917</v>
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
-        <v>39298</v>
+        <v>39293</v>
       </c>
     </row>
     <row r="59">
@@ -17171,7 +17302,7 @@
         <v>3152</v>
       </c>
       <c r="H59" t="n">
-        <v>4116</v>
+        <v>4097</v>
       </c>
       <c r="I59" t="n">
         <v>2059</v>
@@ -17180,14 +17311,14 @@
         <v>3274</v>
       </c>
       <c r="K59" t="n">
-        <v>7394</v>
+        <v>7393</v>
       </c>
       <c r="L59" t="n">
         <v>920</v>
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
-        <v>39248</v>
+        <v>39240</v>
       </c>
     </row>
     <row r="60">
@@ -17213,7 +17344,7 @@
         <v>3265</v>
       </c>
       <c r="H60" t="n">
-        <v>4157</v>
+        <v>4154</v>
       </c>
       <c r="I60" t="n">
         <v>2072</v>
@@ -17222,14 +17353,14 @@
         <v>3280</v>
       </c>
       <c r="K60" t="n">
-        <v>7370</v>
+        <v>7372</v>
       </c>
       <c r="L60" t="n">
         <v>887</v>
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>38165</v>
+        <v>38167</v>
       </c>
     </row>
     <row r="61">
@@ -17255,7 +17386,7 @@
         <v>3297</v>
       </c>
       <c r="H61" t="n">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="I61" t="n">
         <v>2082</v>
@@ -17264,14 +17395,14 @@
         <v>3302</v>
       </c>
       <c r="K61" t="n">
-        <v>7277</v>
+        <v>7289</v>
       </c>
       <c r="L61" t="n">
         <v>889</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>37742</v>
+        <v>37754</v>
       </c>
     </row>
     <row r="62">
@@ -17297,7 +17428,7 @@
         <v>3354</v>
       </c>
       <c r="H62" t="n">
-        <v>4435</v>
+        <v>4443</v>
       </c>
       <c r="I62" t="n">
         <v>2420</v>
@@ -17306,14 +17437,14 @@
         <v>3401</v>
       </c>
       <c r="K62" t="n">
-        <v>7026</v>
+        <v>7027</v>
       </c>
       <c r="L62" t="n">
         <v>903</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>37872</v>
+        <v>37855</v>
       </c>
     </row>
     <row r="63">
@@ -17339,7 +17470,7 @@
         <v>3340</v>
       </c>
       <c r="H63" t="n">
-        <v>4560</v>
+        <v>4538</v>
       </c>
       <c r="I63" t="n">
         <v>2445</v>
@@ -17348,14 +17479,14 @@
         <v>3361</v>
       </c>
       <c r="K63" t="n">
-        <v>6946</v>
+        <v>6945</v>
       </c>
       <c r="L63" t="n">
         <v>885</v>
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>37893</v>
+        <v>37886</v>
       </c>
     </row>
     <row r="64">
@@ -17372,7 +17503,7 @@
         <v>8320</v>
       </c>
       <c r="E64" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F64" t="n">
         <v>6236</v>
@@ -17381,7 +17512,7 @@
         <v>3683</v>
       </c>
       <c r="H64" t="n">
-        <v>4248</v>
+        <v>4270</v>
       </c>
       <c r="I64" t="n">
         <v>2474</v>
@@ -17390,14 +17521,14 @@
         <v>3385</v>
       </c>
       <c r="K64" t="n">
-        <v>7049</v>
+        <v>7048</v>
       </c>
       <c r="L64" t="n">
         <v>887</v>
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>38127</v>
+        <v>38147</v>
       </c>
     </row>
     <row r="65">
@@ -17423,7 +17554,7 @@
         <v>3621</v>
       </c>
       <c r="H65" t="n">
-        <v>4259</v>
+        <v>4243</v>
       </c>
       <c r="I65" t="n">
         <v>2468</v>
@@ -17432,14 +17563,14 @@
         <v>3776</v>
       </c>
       <c r="K65" t="n">
-        <v>6959</v>
+        <v>6955</v>
       </c>
       <c r="L65" t="n">
         <v>907</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>38218</v>
+        <v>38214</v>
       </c>
     </row>
     <row r="66">
@@ -17456,7 +17587,7 @@
         <v>8671</v>
       </c>
       <c r="E66" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F66" t="n">
         <v>6263</v>
@@ -17465,7 +17596,7 @@
         <v>3507</v>
       </c>
       <c r="H66" t="n">
-        <v>3740</v>
+        <v>3750</v>
       </c>
       <c r="I66" t="n">
         <v>2509</v>
@@ -17474,14 +17605,14 @@
         <v>3661</v>
       </c>
       <c r="K66" t="n">
-        <v>7073</v>
+        <v>7079</v>
       </c>
       <c r="L66" t="n">
         <v>858</v>
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>38950</v>
+        <v>38922</v>
       </c>
     </row>
     <row r="67">
@@ -17516,14 +17647,14 @@
         <v>3814</v>
       </c>
       <c r="K67" t="n">
-        <v>7066</v>
+        <v>7065</v>
       </c>
       <c r="L67" t="n">
         <v>813</v>
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>39696</v>
+        <v>39704</v>
       </c>
     </row>
     <row r="68">
@@ -17543,29 +17674,29 @@
         <v>435</v>
       </c>
       <c r="F68" t="n">
-        <v>6319</v>
+        <v>6320</v>
       </c>
       <c r="G68" t="n">
         <v>3453</v>
       </c>
       <c r="H68" t="n">
-        <v>3678</v>
+        <v>3684</v>
       </c>
       <c r="I68" t="n">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="J68" t="n">
         <v>3814</v>
       </c>
       <c r="K68" t="n">
-        <v>6952</v>
+        <v>6947</v>
       </c>
       <c r="L68" t="n">
         <v>834</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>39461</v>
+        <v>39474</v>
       </c>
     </row>
     <row r="69">
@@ -17591,7 +17722,7 @@
         <v>3497</v>
       </c>
       <c r="H69" t="n">
-        <v>3779</v>
+        <v>3770</v>
       </c>
       <c r="I69" t="n">
         <v>2555</v>
@@ -17600,14 +17731,14 @@
         <v>3854</v>
       </c>
       <c r="K69" t="n">
-        <v>6910</v>
+        <v>6902</v>
       </c>
       <c r="L69" t="n">
         <v>824</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>38706</v>
+        <v>38707</v>
       </c>
     </row>
     <row r="70">
@@ -17633,23 +17764,23 @@
         <v>4043</v>
       </c>
       <c r="H70" t="n">
-        <v>3669</v>
+        <v>3681</v>
       </c>
       <c r="I70" t="n">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="J70" t="n">
         <v>3836</v>
       </c>
       <c r="K70" t="n">
-        <v>6942</v>
+        <v>6943</v>
       </c>
       <c r="L70" t="n">
         <v>801</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>40114</v>
+        <v>40085</v>
       </c>
     </row>
     <row r="71">
@@ -17675,7 +17806,7 @@
         <v>3829</v>
       </c>
       <c r="H71" t="n">
-        <v>3481</v>
+        <v>3500</v>
       </c>
       <c r="I71" t="n">
         <v>2767</v>
@@ -17691,7 +17822,7 @@
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>40204</v>
+        <v>40222</v>
       </c>
     </row>
     <row r="72">
@@ -17711,13 +17842,13 @@
         <v>657</v>
       </c>
       <c r="F72" t="n">
-        <v>6492</v>
+        <v>6493</v>
       </c>
       <c r="G72" t="n">
         <v>3539</v>
       </c>
       <c r="H72" t="n">
-        <v>3596</v>
+        <v>3579</v>
       </c>
       <c r="I72" t="n">
         <v>2816</v>
@@ -17726,14 +17857,14 @@
         <v>3904</v>
       </c>
       <c r="K72" t="n">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="L72" t="n">
         <v>814</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>39813</v>
+        <v>39819</v>
       </c>
     </row>
     <row r="73">
@@ -17759,7 +17890,7 @@
         <v>4041</v>
       </c>
       <c r="H73" t="n">
-        <v>3455</v>
+        <v>3443</v>
       </c>
       <c r="I73" t="n">
         <v>2877</v>
@@ -17768,14 +17899,14 @@
         <v>4009</v>
       </c>
       <c r="K73" t="n">
-        <v>7040</v>
+        <v>7035</v>
       </c>
       <c r="L73" t="n">
         <v>788</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>39745</v>
+        <v>39755</v>
       </c>
     </row>
     <row r="74">
@@ -17795,29 +17926,29 @@
         <v>807</v>
       </c>
       <c r="F74" t="n">
-        <v>6777</v>
+        <v>6775</v>
       </c>
       <c r="G74" t="n">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="H74" t="n">
-        <v>3203</v>
+        <v>3217</v>
       </c>
       <c r="I74" t="n">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="J74" t="n">
         <v>4188</v>
       </c>
       <c r="K74" t="n">
-        <v>6950</v>
+        <v>6942</v>
       </c>
       <c r="L74" t="n">
         <v>851</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>39594</v>
+        <v>39568</v>
       </c>
     </row>
     <row r="75">
@@ -17843,7 +17974,7 @@
         <v>4230</v>
       </c>
       <c r="H75" t="n">
-        <v>3169</v>
+        <v>3189</v>
       </c>
       <c r="I75" t="n">
         <v>2951</v>
@@ -17852,14 +17983,14 @@
         <v>4319</v>
       </c>
       <c r="K75" t="n">
-        <v>6904</v>
+        <v>6905</v>
       </c>
       <c r="L75" t="n">
         <v>862</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>40836</v>
+        <v>40851</v>
       </c>
     </row>
     <row r="76">
@@ -17876,16 +18007,16 @@
         <v>8865</v>
       </c>
       <c r="E76" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F76" t="n">
-        <v>7162</v>
+        <v>7164</v>
       </c>
       <c r="G76" t="n">
         <v>4182</v>
       </c>
       <c r="H76" t="n">
-        <v>3248</v>
+        <v>3225</v>
       </c>
       <c r="I76" t="n">
         <v>3014</v>
@@ -17901,7 +18032,7 @@
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
-        <v>41188</v>
+        <v>41186</v>
       </c>
     </row>
     <row r="77">
@@ -17915,7 +18046,7 @@
         <v>9848</v>
       </c>
       <c r="D77" t="n">
-        <v>8551</v>
+        <v>8552</v>
       </c>
       <c r="E77" t="n">
         <v>954</v>
@@ -17927,7 +18058,7 @@
         <v>4501</v>
       </c>
       <c r="H77" t="n">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="I77" t="n">
         <v>3086</v>
@@ -17936,14 +18067,14 @@
         <v>4586</v>
       </c>
       <c r="K77" t="n">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="L77" t="n">
         <v>845</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
-        <v>41648</v>
+        <v>41664</v>
       </c>
     </row>
     <row r="78">
@@ -17951,7 +18082,7 @@
         <v>90</v>
       </c>
       <c r="B78" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C78" t="n">
         <v>10714</v>
@@ -17963,29 +18094,29 @@
         <v>1034</v>
       </c>
       <c r="F78" t="n">
-        <v>6990</v>
+        <v>6988</v>
       </c>
       <c r="G78" t="n">
         <v>4322</v>
       </c>
       <c r="H78" t="n">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="I78" t="n">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="J78" t="n">
         <v>4758</v>
       </c>
       <c r="K78" t="n">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="L78" t="n">
         <v>869</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>42585</v>
+        <v>42560</v>
       </c>
     </row>
     <row r="79">
@@ -18011,7 +18142,7 @@
         <v>4952</v>
       </c>
       <c r="H79" t="n">
-        <v>3637</v>
+        <v>3642</v>
       </c>
       <c r="I79" t="n">
         <v>3238</v>
@@ -18020,14 +18151,14 @@
         <v>4914</v>
       </c>
       <c r="K79" t="n">
-        <v>7049</v>
+        <v>7048</v>
       </c>
       <c r="L79" t="n">
         <v>892</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>44457</v>
+        <v>44465</v>
       </c>
     </row>
     <row r="80">
@@ -18035,7 +18166,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C80" t="n">
         <v>11124</v>
@@ -18047,29 +18178,29 @@
         <v>1159</v>
       </c>
       <c r="F80" t="n">
-        <v>7267</v>
+        <v>7269</v>
       </c>
       <c r="G80" t="n">
         <v>4895</v>
       </c>
       <c r="H80" t="n">
-        <v>3804</v>
+        <v>3790</v>
       </c>
       <c r="I80" t="n">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="J80" t="n">
         <v>5106</v>
       </c>
       <c r="K80" t="n">
-        <v>7066</v>
+        <v>7069</v>
       </c>
       <c r="L80" t="n">
         <v>889</v>
       </c>
       <c r="M80"/>
       <c r="N80" t="n">
-        <v>44504</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="81">
@@ -18077,41 +18208,41 @@
         <v>93</v>
       </c>
       <c r="B81" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C81" t="n">
         <v>10163</v>
       </c>
       <c r="D81" t="n">
-        <v>9101</v>
+        <v>9103</v>
       </c>
       <c r="E81" t="n">
         <v>1170</v>
       </c>
       <c r="F81" t="n">
-        <v>7415</v>
+        <v>7417</v>
       </c>
       <c r="G81" t="n">
         <v>4824</v>
       </c>
       <c r="H81" t="n">
-        <v>3827</v>
+        <v>3832</v>
       </c>
       <c r="I81" t="n">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="J81" t="n">
         <v>5331</v>
       </c>
       <c r="K81" t="n">
-        <v>7078</v>
+        <v>7084</v>
       </c>
       <c r="L81" t="n">
         <v>880</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>45551</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="82">
@@ -18119,41 +18250,41 @@
         <v>94</v>
       </c>
       <c r="B82" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C82" t="n">
         <v>22963</v>
       </c>
       <c r="D82" t="n">
-        <v>21800</v>
+        <v>21798</v>
       </c>
       <c r="E82" t="n">
         <v>1179</v>
       </c>
       <c r="F82" t="n">
-        <v>7339</v>
+        <v>7333</v>
       </c>
       <c r="G82" t="n">
         <v>5797</v>
       </c>
       <c r="H82" t="n">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="I82" t="n">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="J82" t="n">
         <v>5793</v>
       </c>
       <c r="K82" t="n">
-        <v>7173</v>
+        <v>7167</v>
       </c>
       <c r="L82" t="n">
         <v>855</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
-        <v>59065</v>
+        <v>59036</v>
       </c>
     </row>
     <row r="83">
@@ -18161,13 +18292,13 @@
         <v>95</v>
       </c>
       <c r="B83" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C83" t="n">
         <v>23417</v>
       </c>
       <c r="D83" t="n">
-        <v>22214</v>
+        <v>22210</v>
       </c>
       <c r="E83" t="n">
         <v>1259</v>
@@ -18179,13 +18310,13 @@
         <v>5560</v>
       </c>
       <c r="H83" t="n">
-        <v>4113</v>
+        <v>4098</v>
       </c>
       <c r="I83" t="n">
         <v>3556</v>
       </c>
       <c r="J83" t="n">
-        <v>6060</v>
+        <v>6061</v>
       </c>
       <c r="K83" t="n">
         <v>7177</v>
@@ -18195,7 +18326,7 @@
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>59241</v>
+        <v>59233</v>
       </c>
     </row>
     <row r="84">
@@ -18203,41 +18334,41 @@
         <v>96</v>
       </c>
       <c r="B84" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C84" t="n">
         <v>24151</v>
       </c>
       <c r="D84" t="n">
-        <v>22762</v>
+        <v>22764</v>
       </c>
       <c r="E84" t="n">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F84" t="n">
-        <v>7616</v>
+        <v>7619</v>
       </c>
       <c r="G84" t="n">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="H84" t="n">
-        <v>4162</v>
+        <v>4172</v>
       </c>
       <c r="I84" t="n">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="J84" t="n">
-        <v>6359</v>
+        <v>6360</v>
       </c>
       <c r="K84" t="n">
-        <v>7262</v>
+        <v>7265</v>
       </c>
       <c r="L84" t="n">
         <v>874</v>
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>61268</v>
+        <v>61287</v>
       </c>
     </row>
     <row r="85">
@@ -18245,41 +18376,41 @@
         <v>97</v>
       </c>
       <c r="B85" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C85" t="n">
-        <v>24835</v>
+        <v>24834</v>
       </c>
       <c r="D85" t="n">
-        <v>24623</v>
+        <v>24633</v>
       </c>
       <c r="E85" t="n">
         <v>1235</v>
       </c>
       <c r="F85" t="n">
-        <v>7737</v>
+        <v>7742</v>
       </c>
       <c r="G85" t="n">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="H85" t="n">
-        <v>4244</v>
+        <v>4239</v>
       </c>
       <c r="I85" t="n">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="J85" t="n">
         <v>6303</v>
       </c>
       <c r="K85" t="n">
-        <v>7321</v>
+        <v>7333</v>
       </c>
       <c r="L85" t="n">
         <v>916</v>
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
-        <v>64463</v>
+        <v>64469</v>
       </c>
     </row>
     <row r="86">
@@ -18287,41 +18418,41 @@
         <v>98</v>
       </c>
       <c r="B86" t="n">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C86" t="n">
-        <v>22245</v>
+        <v>22246</v>
       </c>
       <c r="D86" t="n">
-        <v>20860</v>
+        <v>20854</v>
       </c>
       <c r="E86" t="n">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F86" t="n">
-        <v>7969</v>
+        <v>7960</v>
       </c>
       <c r="G86" t="n">
         <v>5759</v>
       </c>
       <c r="H86" t="n">
-        <v>4103</v>
+        <v>4097</v>
       </c>
       <c r="I86" t="n">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="J86" t="n">
-        <v>6390</v>
+        <v>6389</v>
       </c>
       <c r="K86" t="n">
-        <v>7356</v>
+        <v>7358</v>
       </c>
       <c r="L86" t="n">
         <v>865</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>60017</v>
+        <v>59961</v>
       </c>
     </row>
     <row r="87">
@@ -18329,13 +18460,13 @@
         <v>99</v>
       </c>
       <c r="B87" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C87" t="n">
         <v>22441</v>
       </c>
       <c r="D87" t="n">
-        <v>20971</v>
+        <v>20960</v>
       </c>
       <c r="E87" t="n">
         <v>1460</v>
@@ -18344,16 +18475,16 @@
         <v>7956</v>
       </c>
       <c r="G87" t="n">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="H87" t="n">
-        <v>4136</v>
+        <v>4117</v>
       </c>
       <c r="I87" t="n">
         <v>3835</v>
       </c>
       <c r="J87" t="n">
-        <v>6476</v>
+        <v>6477</v>
       </c>
       <c r="K87" t="n">
         <v>7448</v>
@@ -18363,7 +18494,7 @@
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>59658</v>
+        <v>59641</v>
       </c>
     </row>
     <row r="88">
@@ -18371,13 +18502,13 @@
         <v>100</v>
       </c>
       <c r="B88" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C88" t="n">
-        <v>23060</v>
+        <v>23061</v>
       </c>
       <c r="D88" t="n">
-        <v>21599</v>
+        <v>21608</v>
       </c>
       <c r="E88" t="n">
         <v>1497</v>
@@ -18389,23 +18520,23 @@
         <v>6513</v>
       </c>
       <c r="H88" t="n">
-        <v>3879</v>
+        <v>3901</v>
       </c>
       <c r="I88" t="n">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="J88" t="n">
         <v>6655</v>
       </c>
       <c r="K88" t="n">
-        <v>7471</v>
+        <v>7469</v>
       </c>
       <c r="L88" t="n">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>61463</v>
+        <v>61514</v>
       </c>
     </row>
     <row r="89">
@@ -18413,41 +18544,41 @@
         <v>101</v>
       </c>
       <c r="B89" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C89" t="n">
-        <v>26220</v>
+        <v>26218</v>
       </c>
       <c r="D89" t="n">
-        <v>26217</v>
+        <v>26235</v>
       </c>
       <c r="E89" t="n">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F89" t="n">
-        <v>8046</v>
+        <v>8062</v>
       </c>
       <c r="G89" t="n">
-        <v>6723</v>
+        <v>6720</v>
       </c>
       <c r="H89" t="n">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="I89" t="n">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="J89" t="n">
         <v>6685</v>
       </c>
       <c r="K89" t="n">
-        <v>7570</v>
+        <v>7558</v>
       </c>
       <c r="L89" t="n">
         <v>936</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>68084</v>
+        <v>68123</v>
       </c>
     </row>
     <row r="90">
@@ -18455,41 +18586,41 @@
         <v>102</v>
       </c>
       <c r="B90" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C90" t="n">
-        <v>23838</v>
+        <v>23837</v>
       </c>
       <c r="D90" t="n">
-        <v>22317</v>
+        <v>22306</v>
       </c>
       <c r="E90" t="n">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="F90" t="n">
-        <v>8467</v>
+        <v>8450</v>
       </c>
       <c r="G90" t="n">
-        <v>6807</v>
+        <v>6808</v>
       </c>
       <c r="H90" t="n">
-        <v>3791</v>
+        <v>3787</v>
       </c>
       <c r="I90" t="n">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="J90" t="n">
-        <v>7328</v>
+        <v>7325</v>
       </c>
       <c r="K90" t="n">
-        <v>7748</v>
+        <v>7751</v>
       </c>
       <c r="L90" t="n">
         <v>981</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
-        <v>64661</v>
+        <v>64580</v>
       </c>
     </row>
     <row r="91">
@@ -18503,35 +18634,35 @@
         <v>23077</v>
       </c>
       <c r="D91" t="n">
-        <v>21394</v>
+        <v>21373</v>
       </c>
       <c r="E91" t="n">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="F91" t="n">
-        <v>8455</v>
+        <v>8452</v>
       </c>
       <c r="G91" t="n">
-        <v>6813</v>
+        <v>6816</v>
       </c>
       <c r="H91" t="n">
-        <v>3793</v>
+        <v>3784</v>
       </c>
       <c r="I91" t="n">
         <v>4025</v>
       </c>
       <c r="J91" t="n">
-        <v>7493</v>
+        <v>7497</v>
       </c>
       <c r="K91" t="n">
-        <v>7890</v>
+        <v>7891</v>
       </c>
       <c r="L91" t="n">
         <v>1026</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>67278</v>
+        <v>67262</v>
       </c>
     </row>
     <row r="92">
@@ -18539,41 +18670,41 @@
         <v>104</v>
       </c>
       <c r="B92" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C92" t="n">
-        <v>24553</v>
+        <v>24559</v>
       </c>
       <c r="D92" t="n">
-        <v>23216</v>
+        <v>23224</v>
       </c>
       <c r="E92" t="n">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F92" t="n">
-        <v>8592</v>
+        <v>8593</v>
       </c>
       <c r="G92" t="n">
-        <v>8080</v>
+        <v>8081</v>
       </c>
       <c r="H92" t="n">
-        <v>3827</v>
+        <v>3836</v>
       </c>
       <c r="I92" t="n">
         <v>4106</v>
       </c>
       <c r="J92" t="n">
-        <v>7727</v>
+        <v>7726</v>
       </c>
       <c r="K92" t="n">
-        <v>7979</v>
+        <v>7977</v>
       </c>
       <c r="L92" t="n">
         <v>978</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>69209</v>
+        <v>69290</v>
       </c>
     </row>
     <row r="93">
@@ -18581,41 +18712,41 @@
         <v>105</v>
       </c>
       <c r="B93" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C93" t="n">
-        <v>28118</v>
+        <v>28117</v>
       </c>
       <c r="D93" t="n">
-        <v>28078</v>
+        <v>28143</v>
       </c>
       <c r="E93" t="n">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="F93" t="n">
-        <v>8732</v>
+        <v>8760</v>
       </c>
       <c r="G93" t="n">
-        <v>9641</v>
+        <v>9628</v>
       </c>
       <c r="H93" t="n">
-        <v>3796</v>
+        <v>3808</v>
       </c>
       <c r="I93" t="n">
         <v>4169</v>
       </c>
       <c r="J93" t="n">
-        <v>7768</v>
+        <v>7769</v>
       </c>
       <c r="K93" t="n">
-        <v>8031</v>
+        <v>8023</v>
       </c>
       <c r="L93" t="n">
         <v>1044</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>73923</v>
+        <v>73965</v>
       </c>
     </row>
     <row r="94">
@@ -18623,41 +18754,41 @@
         <v>106</v>
       </c>
       <c r="B94" t="n">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C94" t="n">
-        <v>27253</v>
+        <v>27243</v>
       </c>
       <c r="D94" t="n">
-        <v>25653</v>
+        <v>25599</v>
       </c>
       <c r="E94" t="n">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="F94" t="n">
-        <v>8671</v>
+        <v>8649</v>
       </c>
       <c r="G94" t="n">
-        <v>9427</v>
+        <v>9435</v>
       </c>
       <c r="H94" t="n">
-        <v>4194</v>
+        <v>4172</v>
       </c>
       <c r="I94" t="n">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="J94" t="n">
-        <v>8111</v>
+        <v>8106</v>
       </c>
       <c r="K94" t="n">
-        <v>8153</v>
+        <v>8152</v>
       </c>
       <c r="L94" t="n">
         <v>1052</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>75007</v>
+        <v>74900</v>
       </c>
     </row>
     <row r="95">
@@ -18668,38 +18799,38 @@
         <v>701</v>
       </c>
       <c r="C95" t="n">
-        <v>27917</v>
+        <v>27912</v>
       </c>
       <c r="D95" t="n">
-        <v>26198</v>
+        <v>26171</v>
       </c>
       <c r="E95" t="n">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F95" t="n">
-        <v>8911</v>
+        <v>8895</v>
       </c>
       <c r="G95" t="n">
-        <v>9846</v>
+        <v>9854</v>
       </c>
       <c r="H95" t="n">
-        <v>4113</v>
+        <v>4127</v>
       </c>
       <c r="I95" t="n">
         <v>4580</v>
       </c>
       <c r="J95" t="n">
-        <v>8756</v>
+        <v>8763</v>
       </c>
       <c r="K95" t="n">
-        <v>8281</v>
+        <v>8284</v>
       </c>
       <c r="L95" t="n">
         <v>1019</v>
       </c>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>76266</v>
+        <v>76235</v>
       </c>
     </row>
     <row r="96">
@@ -18707,41 +18838,41 @@
         <v>108</v>
       </c>
       <c r="B96" t="n">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C96" t="n">
-        <v>28987</v>
+        <v>29011</v>
       </c>
       <c r="D96" t="n">
         <v>27712</v>
       </c>
       <c r="E96" t="n">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F96" t="n">
-        <v>8954</v>
+        <v>8951</v>
       </c>
       <c r="G96" t="n">
-        <v>10120</v>
+        <v>10121</v>
       </c>
       <c r="H96" t="n">
-        <v>4080</v>
+        <v>4073</v>
       </c>
       <c r="I96" t="n">
         <v>4664</v>
       </c>
       <c r="J96" t="n">
-        <v>8920</v>
+        <v>8916</v>
       </c>
       <c r="K96" t="n">
-        <v>8344</v>
+        <v>8351</v>
       </c>
       <c r="L96" t="n">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>76065</v>
+        <v>76208</v>
       </c>
     </row>
     <row r="97">
@@ -18749,41 +18880,41 @@
         <v>109</v>
       </c>
       <c r="B97" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C97" t="n">
         <v>28740</v>
       </c>
       <c r="D97" t="n">
-        <v>27989</v>
+        <v>28128</v>
       </c>
       <c r="E97" t="n">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="F97" t="n">
-        <v>8787</v>
+        <v>8854</v>
       </c>
       <c r="G97" t="n">
-        <v>10138</v>
+        <v>10107</v>
       </c>
       <c r="H97" t="n">
-        <v>3908</v>
+        <v>3919</v>
       </c>
       <c r="I97" t="n">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="J97" t="n">
-        <v>9367</v>
+        <v>9372</v>
       </c>
       <c r="K97" t="n">
-        <v>8567</v>
+        <v>8546</v>
       </c>
       <c r="L97" t="n">
         <v>1086</v>
       </c>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>76740</v>
+        <v>76785</v>
       </c>
     </row>
     <row r="98">
@@ -18791,41 +18922,41 @@
         <v>110</v>
       </c>
       <c r="B98" t="n">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C98" t="n">
-        <v>28182</v>
+        <v>28160</v>
       </c>
       <c r="D98" t="n">
-        <v>26756</v>
+        <v>26625</v>
       </c>
       <c r="E98" t="n">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="F98" t="n">
-        <v>9516</v>
+        <v>9459</v>
       </c>
       <c r="G98" t="n">
-        <v>11678</v>
+        <v>11709</v>
       </c>
       <c r="H98" t="n">
-        <v>3875</v>
+        <v>3863</v>
       </c>
       <c r="I98" t="n">
-        <v>4870</v>
+        <v>4871</v>
       </c>
       <c r="J98" t="n">
-        <v>9637</v>
+        <v>9627</v>
       </c>
       <c r="K98" t="n">
-        <v>8648</v>
+        <v>8643</v>
       </c>
       <c r="L98" t="n">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
-        <v>80615</v>
+        <v>80470</v>
       </c>
     </row>
     <row r="99">
@@ -18836,38 +18967,38 @@
         <v>772</v>
       </c>
       <c r="C99" t="n">
-        <v>29204</v>
+        <v>29175</v>
       </c>
       <c r="D99" t="n">
-        <v>27521</v>
+        <v>27508</v>
       </c>
       <c r="E99" t="n">
         <v>2076</v>
       </c>
       <c r="F99" t="n">
-        <v>9539</v>
+        <v>9507</v>
       </c>
       <c r="G99" t="n">
-        <v>13502</v>
+        <v>13514</v>
       </c>
       <c r="H99" t="n">
-        <v>3854</v>
+        <v>3868</v>
       </c>
       <c r="I99" t="n">
         <v>5036</v>
       </c>
       <c r="J99" t="n">
-        <v>9930</v>
+        <v>9941</v>
       </c>
       <c r="K99" t="n">
-        <v>8728</v>
+        <v>8736</v>
       </c>
       <c r="L99" t="n">
         <v>1122</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>82945</v>
+        <v>82876</v>
       </c>
     </row>
     <row r="100">
@@ -18875,41 +19006,41 @@
         <v>112</v>
       </c>
       <c r="B100" t="n">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C100" t="n">
-        <v>30101</v>
+        <v>30159</v>
       </c>
       <c r="D100" t="n">
-        <v>28941</v>
+        <v>28914</v>
       </c>
       <c r="E100" t="n">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="F100" t="n">
         <v>9393</v>
       </c>
       <c r="G100" t="n">
-        <v>12944</v>
+        <v>12940</v>
       </c>
       <c r="H100" t="n">
-        <v>4079</v>
+        <v>4070</v>
       </c>
       <c r="I100" t="n">
         <v>5153</v>
       </c>
       <c r="J100" t="n">
-        <v>9663</v>
+        <v>9651</v>
       </c>
       <c r="K100" t="n">
-        <v>8865</v>
+        <v>8870</v>
       </c>
       <c r="L100" t="n">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="M100"/>
       <c r="N100" t="n">
-        <v>83680</v>
+        <v>83892</v>
       </c>
     </row>
     <row r="101">
@@ -18917,41 +19048,41 @@
         <v>113</v>
       </c>
       <c r="B101" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C101" t="n">
-        <v>32265</v>
+        <v>32300</v>
       </c>
       <c r="D101" t="n">
-        <v>30882</v>
+        <v>31194</v>
       </c>
       <c r="E101" t="n">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="F101" t="n">
-        <v>9294</v>
+        <v>9422</v>
       </c>
       <c r="G101" t="n">
-        <v>13405</v>
+        <v>13340</v>
       </c>
       <c r="H101" t="n">
-        <v>4052</v>
+        <v>4057</v>
       </c>
       <c r="I101" t="n">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="J101" t="n">
-        <v>9750</v>
+        <v>9770</v>
       </c>
       <c r="K101" t="n">
-        <v>9090</v>
+        <v>9059</v>
       </c>
       <c r="L101" t="n">
         <v>1105</v>
       </c>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>85591</v>
+        <v>85672</v>
       </c>
     </row>
     <row r="102">
@@ -18959,41 +19090,41 @@
         <v>114</v>
       </c>
       <c r="B102" t="n">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C102" t="n">
-        <v>33247</v>
+        <v>33149</v>
       </c>
       <c r="D102" t="n">
-        <v>32076</v>
+        <v>31744</v>
       </c>
       <c r="E102" t="n">
-        <v>2178</v>
+        <v>2185</v>
       </c>
       <c r="F102" t="n">
-        <v>9614</v>
+        <v>9501</v>
       </c>
       <c r="G102" t="n">
-        <v>14390</v>
+        <v>14461</v>
       </c>
       <c r="H102" t="n">
-        <v>3663</v>
+        <v>3651</v>
       </c>
       <c r="I102" t="n">
-        <v>5331</v>
+        <v>5333</v>
       </c>
       <c r="J102" t="n">
-        <v>9237</v>
+        <v>9220</v>
       </c>
       <c r="K102" t="n">
-        <v>9099</v>
+        <v>9109</v>
       </c>
       <c r="L102" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M102"/>
       <c r="N102" t="n">
-        <v>88830</v>
+        <v>88571</v>
       </c>
     </row>
     <row r="103">
@@ -19001,41 +19132,41 @@
         <v>115</v>
       </c>
       <c r="B103" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C103" t="n">
-        <v>33506</v>
+        <v>33480</v>
       </c>
       <c r="D103" t="n">
-        <v>32251</v>
+        <v>32281</v>
       </c>
       <c r="E103" t="n">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F103" t="n">
-        <v>5808</v>
+        <v>5777</v>
       </c>
       <c r="G103" t="n">
-        <v>13570</v>
+        <v>13583</v>
       </c>
       <c r="H103" t="n">
-        <v>3860</v>
+        <v>3854</v>
       </c>
       <c r="I103" t="n">
         <v>5182</v>
       </c>
       <c r="J103" t="n">
-        <v>8633</v>
+        <v>8641</v>
       </c>
       <c r="K103" t="n">
-        <v>9047</v>
+        <v>9066</v>
       </c>
       <c r="L103" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>83315</v>
+        <v>83233</v>
       </c>
     </row>
     <row r="104">
@@ -19043,41 +19174,41 @@
         <v>116</v>
       </c>
       <c r="B104" t="n">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="C104" t="n">
-        <v>33927</v>
+        <v>34007</v>
       </c>
       <c r="D104" t="n">
-        <v>32948</v>
+        <v>32901</v>
       </c>
       <c r="E104" t="n">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="F104" t="n">
-        <v>8008</v>
+        <v>8011</v>
       </c>
       <c r="G104" t="n">
-        <v>17792</v>
+        <v>17776</v>
       </c>
       <c r="H104" t="n">
-        <v>3566</v>
+        <v>3574</v>
       </c>
       <c r="I104" t="n">
         <v>5307</v>
       </c>
       <c r="J104" t="n">
-        <v>8858</v>
+        <v>8841</v>
       </c>
       <c r="K104" t="n">
-        <v>9148</v>
+        <v>9150</v>
       </c>
       <c r="L104" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
-        <v>91437</v>
+        <v>91745</v>
       </c>
     </row>
     <row r="105">
@@ -19085,41 +19216,41 @@
         <v>117</v>
       </c>
       <c r="B105" t="n">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C105" t="n">
-        <v>33671</v>
+        <v>33816</v>
       </c>
       <c r="D105" t="n">
-        <v>31548</v>
+        <v>32029</v>
       </c>
       <c r="E105" t="n">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="F105" t="n">
-        <v>8109</v>
+        <v>8292</v>
       </c>
       <c r="G105" t="n">
-        <v>14615</v>
+        <v>14520</v>
       </c>
       <c r="H105" t="n">
-        <v>3704</v>
+        <v>3715</v>
       </c>
       <c r="I105" t="n">
-        <v>5619</v>
+        <v>5616</v>
       </c>
       <c r="J105" t="n">
-        <v>9005</v>
+        <v>9038</v>
       </c>
       <c r="K105" t="n">
-        <v>9220</v>
+        <v>9182</v>
       </c>
       <c r="L105" t="n">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>88031</v>
+        <v>88226</v>
       </c>
     </row>
     <row r="106">
@@ -19127,41 +19258,41 @@
         <v>118</v>
       </c>
       <c r="B106" t="n">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="C106" t="n">
-        <v>39115</v>
+        <v>38829</v>
       </c>
       <c r="D106" t="n">
-        <v>38050</v>
+        <v>37449</v>
       </c>
       <c r="E106" t="n">
-        <v>1480</v>
+        <v>1488</v>
       </c>
       <c r="F106" t="n">
-        <v>7813</v>
+        <v>7658</v>
       </c>
       <c r="G106" t="n">
-        <v>15971</v>
+        <v>16084</v>
       </c>
       <c r="H106" t="n">
-        <v>3714</v>
+        <v>3690</v>
       </c>
       <c r="I106" t="n">
-        <v>5555</v>
+        <v>5558</v>
       </c>
       <c r="J106" t="n">
-        <v>8472</v>
+        <v>8447</v>
       </c>
       <c r="K106" t="n">
-        <v>9463</v>
+        <v>9503</v>
       </c>
       <c r="L106" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>94988</v>
+        <v>94451</v>
       </c>
     </row>
     <row r="107">
@@ -19169,41 +19300,41 @@
         <v>119</v>
       </c>
       <c r="B107" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C107" t="n">
-        <v>40214</v>
+        <v>40223</v>
       </c>
       <c r="D107" t="n">
-        <v>38768</v>
+        <v>38863</v>
       </c>
       <c r="E107" t="n">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="F107" t="n">
-        <v>8080</v>
+        <v>8028</v>
       </c>
       <c r="G107" t="n">
-        <v>16879</v>
+        <v>16893</v>
       </c>
       <c r="H107" t="n">
-        <v>3863</v>
+        <v>3845</v>
       </c>
       <c r="I107" t="n">
         <v>5816</v>
       </c>
       <c r="J107" t="n">
-        <v>9011</v>
+        <v>9019</v>
       </c>
       <c r="K107" t="n">
-        <v>9767</v>
+        <v>9797</v>
       </c>
       <c r="L107" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>99814</v>
+        <v>99737</v>
       </c>
     </row>
     <row r="108">
@@ -19211,41 +19342,41 @@
         <v>120</v>
       </c>
       <c r="B108" t="n">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="C108" t="n">
-        <v>44051</v>
+        <v>44157</v>
       </c>
       <c r="D108" t="n">
-        <v>43012</v>
+        <v>42928</v>
       </c>
       <c r="E108" t="n">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F108" t="n">
-        <v>8490</v>
+        <v>8507</v>
       </c>
       <c r="G108" t="n">
-        <v>17205</v>
+        <v>17180</v>
       </c>
       <c r="H108" t="n">
-        <v>3852</v>
+        <v>3864</v>
       </c>
       <c r="I108" t="n">
         <v>5951</v>
       </c>
       <c r="J108" t="n">
-        <v>9439</v>
+        <v>9413</v>
       </c>
       <c r="K108" t="n">
-        <v>9996</v>
+        <v>9992</v>
       </c>
       <c r="L108" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>102918</v>
+        <v>103333</v>
       </c>
     </row>
     <row r="109">
@@ -19253,41 +19384,83 @@
         <v>121</v>
       </c>
       <c r="B109" t="n">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="C109" t="n">
-        <v>38767</v>
+        <v>39098</v>
       </c>
       <c r="D109" t="n">
-        <v>35946</v>
+        <v>36689</v>
       </c>
       <c r="E109" t="n">
-        <v>2149</v>
+        <v>2136</v>
       </c>
       <c r="F109" t="n">
-        <v>8693</v>
+        <v>8934</v>
       </c>
       <c r="G109" t="n">
-        <v>18873</v>
+        <v>18729</v>
       </c>
       <c r="H109" t="n">
-        <v>3769</v>
+        <v>3818</v>
       </c>
       <c r="I109" t="n">
-        <v>6054</v>
+        <v>6049</v>
       </c>
       <c r="J109" t="n">
-        <v>9329</v>
+        <v>9379</v>
       </c>
       <c r="K109" t="n">
-        <v>10214</v>
+        <v>10118</v>
       </c>
       <c r="L109" t="n">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="M109"/>
       <c r="N109" t="n">
-        <v>98398</v>
+        <v>98761</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C110" t="n">
+        <v>44948</v>
+      </c>
+      <c r="D110" t="n">
+        <v>43522</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2148</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9400</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18797</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4040</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6137</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9760</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10066</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1131</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>110065</v>
       </c>
     </row>
   </sheetData>
